--- a/files/RESULTADO_RESULTADO.xlsx
+++ b/files/RESULTADO_RESULTADO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Bases" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="225">
   <si>
     <t xml:space="preserve">Modo de completar</t>
   </si>
@@ -2157,9 +2157,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>704520</xdr:colOff>
+      <xdr:colOff>700200</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>162360</xdr:rowOff>
+      <xdr:rowOff>158040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2173,7 +2173,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12113640" y="637920"/>
-          <a:ext cx="3346920" cy="2562840"/>
+          <a:ext cx="3342600" cy="2558520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2199,9 +2199,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>1344600</xdr:colOff>
+      <xdr:colOff>1340280</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>45360</xdr:rowOff>
+      <xdr:rowOff>41040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2215,7 +2215,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13886640" y="599400"/>
-          <a:ext cx="1031040" cy="617400"/>
+          <a:ext cx="1026720" cy="613080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2236,9 +2236,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>273240</xdr:colOff>
+      <xdr:colOff>268920</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>157680</xdr:rowOff>
+      <xdr:rowOff>153360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2252,7 +2252,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="592200" y="1105200"/>
-          <a:ext cx="2091960" cy="1275480"/>
+          <a:ext cx="2087640" cy="1271160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2273,9 +2273,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>301680</xdr:colOff>
+      <xdr:colOff>297360</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>177840</xdr:rowOff>
+      <xdr:rowOff>173520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2289,7 +2289,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="492480" y="2899440"/>
-          <a:ext cx="2220120" cy="1324440"/>
+          <a:ext cx="2215800" cy="1320120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2303,16 +2303,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>76680</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>10080</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>2880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>292320</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>157320</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1112400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>159120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2325,8 +2325,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="582840" y="4694400"/>
-          <a:ext cx="2120400" cy="1332000"/>
+          <a:off x="10080" y="2880"/>
+          <a:ext cx="2116080" cy="1327680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2347,9 +2347,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>282960</xdr:colOff>
+      <xdr:colOff>278640</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>179280</xdr:rowOff>
+      <xdr:rowOff>174960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2363,7 +2363,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="601920" y="6564600"/>
-          <a:ext cx="2091960" cy="1306800"/>
+          <a:ext cx="2087640" cy="1302480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2384,9 +2384,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>282960</xdr:colOff>
+      <xdr:colOff>278640</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>188280</xdr:rowOff>
+      <xdr:rowOff>183960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2400,7 +2400,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="592200" y="8388000"/>
-          <a:ext cx="2101680" cy="1315440"/>
+          <a:ext cx="2097360" cy="1311120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2421,9 +2421,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>357120</xdr:colOff>
+      <xdr:colOff>352800</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>149760</xdr:rowOff>
+      <xdr:rowOff>145440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2437,7 +2437,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="611280" y="10163160"/>
-          <a:ext cx="2156760" cy="1325160"/>
+          <a:ext cx="2152440" cy="1320840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2458,9 +2458,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>359280</xdr:colOff>
+      <xdr:colOff>354960</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>7200</xdr:rowOff>
+      <xdr:rowOff>2880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2474,7 +2474,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="601920" y="12025080"/>
-          <a:ext cx="2168280" cy="1334160"/>
+          <a:ext cx="2163960" cy="1329840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2495,9 +2495,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>320760</xdr:colOff>
+      <xdr:colOff>316440</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>135360</xdr:rowOff>
+      <xdr:rowOff>131040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2511,7 +2511,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="592200" y="13809600"/>
-          <a:ext cx="2139480" cy="1310400"/>
+          <a:ext cx="2135160" cy="1306080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2537,9 +2537,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>162720</xdr:colOff>
+      <xdr:colOff>158400</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>82800</xdr:rowOff>
+      <xdr:rowOff>78480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2553,7 +2553,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10067760" y="3724200"/>
-          <a:ext cx="1831320" cy="2559240"/>
+          <a:ext cx="1827000" cy="2554920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2575,7 +2575,7 @@
   </sheetPr>
   <dimension ref="B2:I33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -3009,8 +3009,8 @@
   </sheetPr>
   <dimension ref="A1:AI108"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C53" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G53" activeCellId="0" sqref="G53"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A56" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J87" activeCellId="0" sqref="J87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3299,15 +3299,15 @@
       </c>
       <c r="M8" s="65" t="str">
         <f aca="false">IF('No modificar!!'!AJ4=3,'No modificar!!'!U4,IF('No modificar!!'!AJ5=3,'No modificar!!'!U5,IF('No modificar!!'!AJ6=3,'No modificar!!'!U6,'No modificar!!'!U7)))</f>
-        <v>Rusia</v>
+        <v>Uruguay</v>
       </c>
       <c r="N8" s="66" t="n">
         <f aca="false">IF('No modificar!!'!AJ4=3,'No modificar!!'!V4,IF('No modificar!!'!AJ5=3,'No modificar!!'!V5,IF('No modificar!!'!AJ6=3,'No modificar!!'!V6,'No modificar!!'!V7)))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O8" s="67" t="n">
         <f aca="false">IF('No modificar!!'!AJ4=3,'No modificar!!'!W4,IF('No modificar!!'!AJ5=3,'No modificar!!'!W5,IF('No modificar!!'!AJ6=3,'No modificar!!'!W6,'No modificar!!'!W7)))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P8" s="67" t="n">
         <f aca="false">IF('No modificar!!'!AJ4=3,'No modificar!!'!X4,IF('No modificar!!'!AJ5=3,'No modificar!!'!X5,IF('No modificar!!'!AJ6=3,'No modificar!!'!X6,'No modificar!!'!X7)))</f>
@@ -3327,7 +3327,7 @@
       </c>
       <c r="T8" s="65" t="n">
         <f aca="false">IF('No modificar!!'!AJ4=3,'No modificar!!'!AB4,IF('No modificar!!'!AJ5=3,'No modificar!!'!AB5,IF('No modificar!!'!AJ6=3,'No modificar!!'!AB6,'No modificar!!'!AB7)))</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="U8" s="68" t="str">
         <f aca="false">IF(AND(T8=T9,S8=S9,Q8=Q9),"!!"," ")</f>
@@ -3360,8 +3360,12 @@
         <f aca="false">D8</f>
         <v>Rusia</v>
       </c>
-      <c r="H9" s="62"/>
-      <c r="I9" s="63"/>
+      <c r="H9" s="62" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" s="63" t="n">
+        <v>1</v>
+      </c>
       <c r="J9" s="64" t="str">
         <f aca="false">D10</f>
         <v>Egipto</v>
@@ -3372,35 +3376,35 @@
       </c>
       <c r="M9" s="71" t="str">
         <f aca="false">IF('No modificar!!'!AJ4=2,'No modificar!!'!U4,IF('No modificar!!'!AJ5=2,'No modificar!!'!U5,IF('No modificar!!'!AJ6=2,'No modificar!!'!U6,'No modificar!!'!U7)))</f>
-        <v>Uruguay</v>
+        <v>Rusia</v>
       </c>
       <c r="N9" s="72" t="n">
         <f aca="false">IF('No modificar!!'!AJ4=2,'No modificar!!'!V4,IF('No modificar!!'!AJ5=2,'No modificar!!'!V5,IF('No modificar!!'!AJ6=2,'No modificar!!'!V6,'No modificar!!'!V7)))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O9" s="73" t="n">
         <f aca="false">IF('No modificar!!'!AJ4=2,'No modificar!!'!W4,IF('No modificar!!'!AJ5=2,'No modificar!!'!W5,IF('No modificar!!'!AJ6=2,'No modificar!!'!W6,'No modificar!!'!W7)))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P9" s="73" t="n">
         <f aca="false">IF('No modificar!!'!AJ4=2,'No modificar!!'!X4,IF('No modificar!!'!AJ5=2,'No modificar!!'!X5,IF('No modificar!!'!AJ6=2,'No modificar!!'!X6,'No modificar!!'!X7)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="73" t="n">
         <f aca="false">IF('No modificar!!'!AJ4=2,'No modificar!!'!Y4,IF('No modificar!!'!AJ5=2,'No modificar!!'!Y5,IF('No modificar!!'!AJ6=2,'No modificar!!'!Y6,'No modificar!!'!Y7)))</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R9" s="73" t="n">
         <f aca="false">IF('No modificar!!'!AJ4=2,'No modificar!!'!Z4,IF('No modificar!!'!AJ5=2,'No modificar!!'!Z5,IF('No modificar!!'!AJ6=2,'No modificar!!'!Z6,'No modificar!!'!Z7)))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S9" s="73" t="n">
         <f aca="false">IF('No modificar!!'!AJ4=2,'No modificar!!'!AA4,IF('No modificar!!'!AJ5=2,'No modificar!!'!AA5,IF('No modificar!!'!AJ6=2,'No modificar!!'!AA6,'No modificar!!'!AA7)))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T9" s="71" t="n">
         <f aca="false">IF('No modificar!!'!AJ4=2,'No modificar!!'!AB4,IF('No modificar!!'!AJ5=2,'No modificar!!'!AB5,IF('No modificar!!'!AJ6=2,'No modificar!!'!AB6,'No modificar!!'!AB7)))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U9" s="68" t="str">
         <f aca="false">IF(AND(T9=T10,S9=S10,Q9=Q10),"!!"," ")</f>
@@ -3433,8 +3437,12 @@
         <f aca="false">D9</f>
         <v>Arabia Saudita</v>
       </c>
-      <c r="H10" s="62"/>
-      <c r="I10" s="63"/>
+      <c r="H10" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="63" t="n">
+        <v>1</v>
+      </c>
       <c r="J10" s="64" t="str">
         <f aca="false">D11</f>
         <v>Uruguay</v>
@@ -3445,35 +3453,35 @@
       </c>
       <c r="M10" s="74" t="str">
         <f aca="false">IF('No modificar!!'!AJ4=1,'No modificar!!'!U4,IF('No modificar!!'!AJ5=1,'No modificar!!'!U5,IF('No modificar!!'!AJ6=1,'No modificar!!'!U6,'No modificar!!'!U7)))</f>
-        <v>Egipto</v>
+        <v>Arabia Saudita</v>
       </c>
       <c r="N10" s="75" t="n">
         <f aca="false">IF('No modificar!!'!AJ4=1,'No modificar!!'!V4,IF('No modificar!!'!AJ5=1,'No modificar!!'!V5,IF('No modificar!!'!AJ6=1,'No modificar!!'!V6,'No modificar!!'!V7)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" s="76" t="n">
         <f aca="false">IF('No modificar!!'!AJ4=1,'No modificar!!'!W4,IF('No modificar!!'!AJ5=1,'No modificar!!'!W5,IF('No modificar!!'!AJ6=1,'No modificar!!'!W6,'No modificar!!'!W7)))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P10" s="76" t="n">
         <f aca="false">IF('No modificar!!'!AJ4=1,'No modificar!!'!X4,IF('No modificar!!'!AJ5=1,'No modificar!!'!X5,IF('No modificar!!'!AJ6=1,'No modificar!!'!X6,'No modificar!!'!X7)))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q10" s="76" t="n">
         <f aca="false">IF('No modificar!!'!AJ4=1,'No modificar!!'!Y4,IF('No modificar!!'!AJ5=1,'No modificar!!'!Y5,IF('No modificar!!'!AJ6=1,'No modificar!!'!Y6,'No modificar!!'!Y7)))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R10" s="76" t="n">
         <f aca="false">IF('No modificar!!'!AJ4=1,'No modificar!!'!Z4,IF('No modificar!!'!AJ5=1,'No modificar!!'!Z5,IF('No modificar!!'!AJ6=1,'No modificar!!'!Z6,'No modificar!!'!Z7)))</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S10" s="76" t="n">
         <f aca="false">IF('No modificar!!'!AJ4=1,'No modificar!!'!AA4,IF('No modificar!!'!AJ5=1,'No modificar!!'!AA5,IF('No modificar!!'!AJ6=1,'No modificar!!'!AA6,'No modificar!!'!AA7)))</f>
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="T10" s="74" t="n">
         <f aca="false">IF('No modificar!!'!AJ4=1,'No modificar!!'!AB4,IF('No modificar!!'!AJ5=1,'No modificar!!'!AB5,IF('No modificar!!'!AJ6=1,'No modificar!!'!AB6,'No modificar!!'!AB7)))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U10" s="77"/>
       <c r="V10" s="42"/>
@@ -3500,8 +3508,12 @@
         <f aca="false">D8</f>
         <v>Rusia</v>
       </c>
-      <c r="H11" s="62"/>
-      <c r="I11" s="63"/>
+      <c r="H11" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="63" t="n">
+        <v>3</v>
+      </c>
       <c r="J11" s="64" t="str">
         <f aca="false">D11</f>
         <v>Uruguay</v>
@@ -3512,7 +3524,7 @@
       </c>
       <c r="M11" s="79" t="str">
         <f aca="false">IF('No modificar!!'!AJ4=0,'No modificar!!'!U4,IF('No modificar!!'!AJ5=0,'No modificar!!'!U5,IF('No modificar!!'!AJ6=0,'No modificar!!'!U6,'No modificar!!'!U7)))</f>
-        <v>Arabia Saudita</v>
+        <v>Egipto</v>
       </c>
       <c r="N11" s="80" t="n">
         <f aca="false">IF('No modificar!!'!AJ4=0,'No modificar!!'!V4,IF('No modificar!!'!AJ5=0,'No modificar!!'!V5,IF('No modificar!!'!AJ6=0,'No modificar!!'!V6,'No modificar!!'!V7)))</f>
@@ -3520,27 +3532,27 @@
       </c>
       <c r="O11" s="81" t="n">
         <f aca="false">IF('No modificar!!'!AJ4=0,'No modificar!!'!W4,IF('No modificar!!'!AJ5=0,'No modificar!!'!W5,IF('No modificar!!'!AJ6=0,'No modificar!!'!W6,'No modificar!!'!W7)))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P11" s="81" t="n">
         <f aca="false">IF('No modificar!!'!AJ4=0,'No modificar!!'!X4,IF('No modificar!!'!AJ5=0,'No modificar!!'!X5,IF('No modificar!!'!AJ6=0,'No modificar!!'!X6,'No modificar!!'!X7)))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q11" s="81" t="n">
         <f aca="false">IF('No modificar!!'!AJ4=0,'No modificar!!'!Y4,IF('No modificar!!'!AJ5=0,'No modificar!!'!Y5,IF('No modificar!!'!AJ6=0,'No modificar!!'!Y6,'No modificar!!'!Y7)))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R11" s="81" t="n">
         <f aca="false">IF('No modificar!!'!AJ4=0,'No modificar!!'!Z4,IF('No modificar!!'!AJ5=0,'No modificar!!'!Z5,IF('No modificar!!'!AJ6=0,'No modificar!!'!Z6,'No modificar!!'!Z7)))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S11" s="81" t="n">
         <f aca="false">IF('No modificar!!'!AJ4=0,'No modificar!!'!AA4,IF('No modificar!!'!AJ5=0,'No modificar!!'!AA5,IF('No modificar!!'!AJ6=0,'No modificar!!'!AA6,'No modificar!!'!AA7)))</f>
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="T11" s="79" t="n">
         <f aca="false">IF('No modificar!!'!AJ4=0,'No modificar!!'!AB4,IF('No modificar!!'!AJ5=0,'No modificar!!'!AB5,IF('No modificar!!'!AJ6=0,'No modificar!!'!AB6,'No modificar!!'!AB7)))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U11" s="77"/>
       <c r="V11" s="42"/>
@@ -3565,8 +3577,12 @@
         <f aca="false">D9</f>
         <v>Arabia Saudita</v>
       </c>
-      <c r="H12" s="83"/>
-      <c r="I12" s="84"/>
+      <c r="H12" s="83" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" s="84" t="n">
+        <v>1</v>
+      </c>
       <c r="J12" s="85" t="str">
         <f aca="false">D10</f>
         <v>Egipto</v>
@@ -3805,7 +3821,7 @@
       </c>
       <c r="M18" s="65" t="str">
         <f aca="false">IF('No modificar!!'!AJ14=3,'No modificar!!'!U14,IF('No modificar!!'!AJ15=3,'No modificar!!'!U15,IF('No modificar!!'!AJ16=3,'No modificar!!'!U16,'No modificar!!'!U17)))</f>
-        <v>Irán</v>
+        <v>España</v>
       </c>
       <c r="N18" s="66" t="n">
         <f aca="false">IF('No modificar!!'!AJ14=3,'No modificar!!'!V14,IF('No modificar!!'!AJ15=3,'No modificar!!'!V15,IF('No modificar!!'!AJ16=3,'No modificar!!'!V16,'No modificar!!'!V17)))</f>
@@ -3821,11 +3837,11 @@
       </c>
       <c r="Q18" s="67" t="n">
         <f aca="false">IF('No modificar!!'!AJ14=3,'No modificar!!'!Y14,IF('No modificar!!'!AJ15=3,'No modificar!!'!Y15,IF('No modificar!!'!AJ16=3,'No modificar!!'!Y16,'No modificar!!'!Y17)))</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R18" s="67" t="n">
         <f aca="false">IF('No modificar!!'!AJ14=3,'No modificar!!'!Z14,IF('No modificar!!'!AJ15=3,'No modificar!!'!Z15,IF('No modificar!!'!AJ16=3,'No modificar!!'!Z16,'No modificar!!'!Z17)))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S18" s="67" t="n">
         <f aca="false">IF('No modificar!!'!AJ14=3,'No modificar!!'!AA14,IF('No modificar!!'!AJ15=3,'No modificar!!'!AA15,IF('No modificar!!'!AJ16=3,'No modificar!!'!AA16,'No modificar!!'!AA17)))</f>
@@ -3866,8 +3882,12 @@
         <f aca="false">D18</f>
         <v>Portugal</v>
       </c>
-      <c r="H19" s="92"/>
-      <c r="I19" s="93"/>
+      <c r="H19" s="92" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="93" t="n">
+        <v>0</v>
+      </c>
       <c r="J19" s="94" t="str">
         <f aca="false">D20</f>
         <v>Marruecos</v>
@@ -3882,11 +3902,11 @@
       </c>
       <c r="N19" s="72" t="n">
         <f aca="false">IF('No modificar!!'!AJ14=2,'No modificar!!'!V14,IF('No modificar!!'!AJ15=2,'No modificar!!'!V15,IF('No modificar!!'!AJ16=2,'No modificar!!'!V16,'No modificar!!'!V17)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" s="73" t="n">
         <f aca="false">IF('No modificar!!'!AJ14=2,'No modificar!!'!W14,IF('No modificar!!'!AJ15=2,'No modificar!!'!W15,IF('No modificar!!'!AJ16=2,'No modificar!!'!W16,'No modificar!!'!W17)))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P19" s="73" t="n">
         <f aca="false">IF('No modificar!!'!AJ14=2,'No modificar!!'!X14,IF('No modificar!!'!AJ15=2,'No modificar!!'!X15,IF('No modificar!!'!AJ16=2,'No modificar!!'!X16,'No modificar!!'!X17)))</f>
@@ -3894,27 +3914,27 @@
       </c>
       <c r="Q19" s="73" t="n">
         <f aca="false">IF('No modificar!!'!AJ14=2,'No modificar!!'!Y14,IF('No modificar!!'!AJ15=2,'No modificar!!'!Y15,IF('No modificar!!'!AJ16=2,'No modificar!!'!Y16,'No modificar!!'!Y17)))</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R19" s="73" t="n">
         <f aca="false">IF('No modificar!!'!AJ14=2,'No modificar!!'!Z14,IF('No modificar!!'!AJ15=2,'No modificar!!'!Z15,IF('No modificar!!'!AJ16=2,'No modificar!!'!Z16,'No modificar!!'!Z17)))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S19" s="73" t="n">
         <f aca="false">IF('No modificar!!'!AJ14=2,'No modificar!!'!AA14,IF('No modificar!!'!AJ15=2,'No modificar!!'!AA15,IF('No modificar!!'!AJ16=2,'No modificar!!'!AA16,'No modificar!!'!AA17)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19" s="71" t="n">
         <f aca="false">IF('No modificar!!'!AJ14=2,'No modificar!!'!AB14,IF('No modificar!!'!AJ15=2,'No modificar!!'!AB15,IF('No modificar!!'!AJ16=2,'No modificar!!'!AB16,'No modificar!!'!AB17)))</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U19" s="68" t="str">
         <f aca="false">IF(AND(T19=T20,S19=S20,Q19=Q20),"!!"," ")</f>
-        <v>!!</v>
+        <v> </v>
       </c>
       <c r="V19" s="69" t="str">
         <f aca="false">IF(AND(T19=T20,S19=S20,Q19=Q20),"El 2° se decide por Fair Play"," ")</f>
-        <v>El 2° se decide por Fair Play</v>
+        <v> </v>
       </c>
       <c r="W19" s="50"/>
       <c r="X19" s="30"/>
@@ -3939,8 +3959,12 @@
         <f aca="false">D19</f>
         <v>España</v>
       </c>
-      <c r="H20" s="92"/>
-      <c r="I20" s="93"/>
+      <c r="H20" s="92" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="93" t="n">
+        <v>0</v>
+      </c>
       <c r="J20" s="94" t="str">
         <f aca="false">D21</f>
         <v>Irán</v>
@@ -3951,27 +3975,27 @@
       </c>
       <c r="M20" s="74" t="str">
         <f aca="false">IF('No modificar!!'!AJ14=1,'No modificar!!'!U14,IF('No modificar!!'!AJ15=1,'No modificar!!'!U15,IF('No modificar!!'!AJ16=1,'No modificar!!'!U16,'No modificar!!'!U17)))</f>
-        <v>España</v>
+        <v>Irán</v>
       </c>
       <c r="N20" s="75" t="n">
         <f aca="false">IF('No modificar!!'!AJ14=1,'No modificar!!'!V14,IF('No modificar!!'!AJ15=1,'No modificar!!'!V15,IF('No modificar!!'!AJ16=1,'No modificar!!'!V16,'No modificar!!'!V17)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" s="76" t="n">
         <f aca="false">IF('No modificar!!'!AJ14=1,'No modificar!!'!W14,IF('No modificar!!'!AJ15=1,'No modificar!!'!W15,IF('No modificar!!'!AJ16=1,'No modificar!!'!W16,'No modificar!!'!W17)))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P20" s="76" t="n">
         <f aca="false">IF('No modificar!!'!AJ14=1,'No modificar!!'!X14,IF('No modificar!!'!AJ15=1,'No modificar!!'!X15,IF('No modificar!!'!AJ16=1,'No modificar!!'!X16,'No modificar!!'!X17)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="76" t="n">
         <f aca="false">IF('No modificar!!'!AJ14=1,'No modificar!!'!Y14,IF('No modificar!!'!AJ15=1,'No modificar!!'!Y15,IF('No modificar!!'!AJ16=1,'No modificar!!'!Y16,'No modificar!!'!Y17)))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R20" s="76" t="n">
         <f aca="false">IF('No modificar!!'!AJ14=1,'No modificar!!'!Z14,IF('No modificar!!'!AJ15=1,'No modificar!!'!Z15,IF('No modificar!!'!AJ16=1,'No modificar!!'!Z16,'No modificar!!'!Z17)))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S20" s="76" t="n">
         <f aca="false">IF('No modificar!!'!AJ14=1,'No modificar!!'!AA14,IF('No modificar!!'!AJ15=1,'No modificar!!'!AA15,IF('No modificar!!'!AJ16=1,'No modificar!!'!AA16,'No modificar!!'!AA17)))</f>
@@ -3979,7 +4003,7 @@
       </c>
       <c r="T20" s="74" t="n">
         <f aca="false">IF('No modificar!!'!AJ14=1,'No modificar!!'!AB14,IF('No modificar!!'!AJ15=1,'No modificar!!'!AB15,IF('No modificar!!'!AJ16=1,'No modificar!!'!AB16,'No modificar!!'!AB17)))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U20" s="90"/>
       <c r="V20" s="91"/>
@@ -4006,8 +4030,12 @@
         <f aca="false">D18</f>
         <v>Portugal</v>
       </c>
-      <c r="H21" s="92"/>
-      <c r="I21" s="93"/>
+      <c r="H21" s="92" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="93" t="n">
+        <v>1</v>
+      </c>
       <c r="J21" s="94" t="str">
         <f aca="false">D21</f>
         <v>Irán</v>
@@ -4026,27 +4054,27 @@
       </c>
       <c r="O21" s="81" t="n">
         <f aca="false">IF('No modificar!!'!AJ14=0,'No modificar!!'!W14,IF('No modificar!!'!AJ15=0,'No modificar!!'!W15,IF('No modificar!!'!AJ16=0,'No modificar!!'!W16,'No modificar!!'!W17)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P21" s="81" t="n">
         <f aca="false">IF('No modificar!!'!AJ14=0,'No modificar!!'!X14,IF('No modificar!!'!AJ15=0,'No modificar!!'!X15,IF('No modificar!!'!AJ16=0,'No modificar!!'!X16,'No modificar!!'!X17)))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q21" s="81" t="n">
         <f aca="false">IF('No modificar!!'!AJ14=0,'No modificar!!'!Y14,IF('No modificar!!'!AJ15=0,'No modificar!!'!Y15,IF('No modificar!!'!AJ16=0,'No modificar!!'!Y16,'No modificar!!'!Y17)))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R21" s="81" t="n">
         <f aca="false">IF('No modificar!!'!AJ14=0,'No modificar!!'!Z14,IF('No modificar!!'!AJ15=0,'No modificar!!'!Z15,IF('No modificar!!'!AJ16=0,'No modificar!!'!Z16,'No modificar!!'!Z17)))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S21" s="81" t="n">
         <f aca="false">IF('No modificar!!'!AJ14=0,'No modificar!!'!AA14,IF('No modificar!!'!AJ15=0,'No modificar!!'!AA15,IF('No modificar!!'!AJ16=0,'No modificar!!'!AA16,'No modificar!!'!AA17)))</f>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="T21" s="79" t="n">
         <f aca="false">IF('No modificar!!'!AJ14=0,'No modificar!!'!AB14,IF('No modificar!!'!AJ15=0,'No modificar!!'!AB15,IF('No modificar!!'!AJ16=0,'No modificar!!'!AB16,'No modificar!!'!AB17)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U21" s="90"/>
       <c r="V21" s="91"/>
@@ -4071,8 +4099,12 @@
         <f aca="false">D19</f>
         <v>España</v>
       </c>
-      <c r="H22" s="95"/>
-      <c r="I22" s="96"/>
+      <c r="H22" s="95" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" s="96" t="n">
+        <v>2</v>
+      </c>
       <c r="J22" s="97" t="str">
         <f aca="false">D20</f>
         <v>Marruecos</v>
@@ -4315,11 +4347,11 @@
       </c>
       <c r="N28" s="66" t="n">
         <f aca="false">IF('No modificar!!'!AJ24=3,'No modificar!!'!V24,IF('No modificar!!'!AJ25=3,'No modificar!!'!V25,IF('No modificar!!'!AJ26=3,'No modificar!!'!V26,'No modificar!!'!V27)))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O28" s="67" t="n">
         <f aca="false">IF('No modificar!!'!AJ24=3,'No modificar!!'!W24,IF('No modificar!!'!AJ25=3,'No modificar!!'!W25,IF('No modificar!!'!AJ26=3,'No modificar!!'!W26,'No modificar!!'!W27)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P28" s="67" t="n">
         <f aca="false">IF('No modificar!!'!AJ24=3,'No modificar!!'!X24,IF('No modificar!!'!AJ25=3,'No modificar!!'!X25,IF('No modificar!!'!AJ26=3,'No modificar!!'!X26,'No modificar!!'!X27)))</f>
@@ -4327,7 +4359,7 @@
       </c>
       <c r="Q28" s="67" t="n">
         <f aca="false">IF('No modificar!!'!AJ24=3,'No modificar!!'!Y24,IF('No modificar!!'!AJ25=3,'No modificar!!'!Y25,IF('No modificar!!'!AJ26=3,'No modificar!!'!Y26,'No modificar!!'!Y27)))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R28" s="67" t="n">
         <f aca="false">IF('No modificar!!'!AJ24=3,'No modificar!!'!Z24,IF('No modificar!!'!AJ25=3,'No modificar!!'!Z25,IF('No modificar!!'!AJ26=3,'No modificar!!'!Z26,'No modificar!!'!Z27)))</f>
@@ -4335,11 +4367,11 @@
       </c>
       <c r="S28" s="67" t="n">
         <f aca="false">IF('No modificar!!'!AJ24=3,'No modificar!!'!AA24,IF('No modificar!!'!AJ25=3,'No modificar!!'!AA25,IF('No modificar!!'!AJ26=3,'No modificar!!'!AA26,'No modificar!!'!AA27)))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T28" s="65" t="n">
         <f aca="false">IF('No modificar!!'!AJ24=3,'No modificar!!'!AB24,IF('No modificar!!'!AJ25=3,'No modificar!!'!AB25,IF('No modificar!!'!AJ26=3,'No modificar!!'!AB26,'No modificar!!'!AB27)))</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U28" s="68" t="str">
         <f aca="false">IF(AND(T28=T29,S28=S29,Q28=Q29),"!!"," ")</f>
@@ -4372,8 +4404,12 @@
         <f aca="false">D28</f>
         <v>Francia</v>
       </c>
-      <c r="H29" s="92"/>
-      <c r="I29" s="93"/>
+      <c r="H29" s="92" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" s="93" t="n">
+        <v>0</v>
+      </c>
       <c r="J29" s="94" t="str">
         <f aca="false">D30</f>
         <v>Perú</v>
@@ -4400,11 +4436,11 @@
       </c>
       <c r="Q29" s="73" t="n">
         <f aca="false">IF('No modificar!!'!AJ24=2,'No modificar!!'!Y24,IF('No modificar!!'!AJ25=2,'No modificar!!'!Y25,IF('No modificar!!'!AJ26=2,'No modificar!!'!Y26,'No modificar!!'!Y27)))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R29" s="73" t="n">
         <f aca="false">IF('No modificar!!'!AJ24=2,'No modificar!!'!Z24,IF('No modificar!!'!AJ25=2,'No modificar!!'!Z25,IF('No modificar!!'!AJ26=2,'No modificar!!'!Z26,'No modificar!!'!Z27)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S29" s="73" t="n">
         <f aca="false">IF('No modificar!!'!AJ24=2,'No modificar!!'!AA24,IF('No modificar!!'!AJ25=2,'No modificar!!'!AA25,IF('No modificar!!'!AJ26=2,'No modificar!!'!AA26,'No modificar!!'!AA27)))</f>
@@ -4445,8 +4481,12 @@
         <f aca="false">D29</f>
         <v>Australia</v>
       </c>
-      <c r="H30" s="92"/>
-      <c r="I30" s="93"/>
+      <c r="H30" s="92" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" s="93" t="n">
+        <v>1</v>
+      </c>
       <c r="J30" s="94" t="str">
         <f aca="false">D31</f>
         <v>Dinamarca</v>
@@ -4457,23 +4497,23 @@
       </c>
       <c r="M30" s="74" t="str">
         <f aca="false">IF('No modificar!!'!AJ24=1,'No modificar!!'!U24,IF('No modificar!!'!AJ25=1,'No modificar!!'!U25,IF('No modificar!!'!AJ26=1,'No modificar!!'!U26,'No modificar!!'!U27)))</f>
-        <v>Australia</v>
+        <v>Perú</v>
       </c>
       <c r="N30" s="75" t="n">
         <f aca="false">IF('No modificar!!'!AJ24=1,'No modificar!!'!V24,IF('No modificar!!'!AJ25=1,'No modificar!!'!V25,IF('No modificar!!'!AJ26=1,'No modificar!!'!V26,'No modificar!!'!V27)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30" s="76" t="n">
         <f aca="false">IF('No modificar!!'!AJ24=1,'No modificar!!'!W24,IF('No modificar!!'!AJ25=1,'No modificar!!'!W25,IF('No modificar!!'!AJ26=1,'No modificar!!'!W26,'No modificar!!'!W27)))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P30" s="76" t="n">
         <f aca="false">IF('No modificar!!'!AJ24=1,'No modificar!!'!X24,IF('No modificar!!'!AJ25=1,'No modificar!!'!X25,IF('No modificar!!'!AJ26=1,'No modificar!!'!X26,'No modificar!!'!X27)))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q30" s="76" t="n">
         <f aca="false">IF('No modificar!!'!AJ24=1,'No modificar!!'!Y24,IF('No modificar!!'!AJ25=1,'No modificar!!'!Y25,IF('No modificar!!'!AJ26=1,'No modificar!!'!Y26,'No modificar!!'!Y27)))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R30" s="76" t="n">
         <f aca="false">IF('No modificar!!'!AJ24=1,'No modificar!!'!Z24,IF('No modificar!!'!AJ25=1,'No modificar!!'!Z25,IF('No modificar!!'!AJ26=1,'No modificar!!'!Z26,'No modificar!!'!Z27)))</f>
@@ -4481,11 +4521,11 @@
       </c>
       <c r="S30" s="76" t="n">
         <f aca="false">IF('No modificar!!'!AJ24=1,'No modificar!!'!AA24,IF('No modificar!!'!AJ25=1,'No modificar!!'!AA25,IF('No modificar!!'!AJ26=1,'No modificar!!'!AA26,'No modificar!!'!AA27)))</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T30" s="74" t="n">
         <f aca="false">IF('No modificar!!'!AJ24=1,'No modificar!!'!AB24,IF('No modificar!!'!AJ25=1,'No modificar!!'!AB25,IF('No modificar!!'!AJ26=1,'No modificar!!'!AB26,'No modificar!!'!AB27)))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U30" s="90"/>
       <c r="V30" s="91"/>
@@ -4512,8 +4552,12 @@
         <f aca="false">D28</f>
         <v>Francia</v>
       </c>
-      <c r="H31" s="92"/>
-      <c r="I31" s="93"/>
+      <c r="H31" s="92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="93" t="n">
+        <v>0</v>
+      </c>
       <c r="J31" s="94" t="str">
         <f aca="false">D31</f>
         <v>Dinamarca</v>
@@ -4524,7 +4568,7 @@
       </c>
       <c r="M31" s="79" t="str">
         <f aca="false">IF('No modificar!!'!AJ24=0,'No modificar!!'!U24,IF('No modificar!!'!AJ25=0,'No modificar!!'!U25,IF('No modificar!!'!AJ26=0,'No modificar!!'!U26,'No modificar!!'!U27)))</f>
-        <v>Perú</v>
+        <v>Australia</v>
       </c>
       <c r="N31" s="80" t="n">
         <f aca="false">IF('No modificar!!'!AJ24=0,'No modificar!!'!V24,IF('No modificar!!'!AJ25=0,'No modificar!!'!V25,IF('No modificar!!'!AJ26=0,'No modificar!!'!V26,'No modificar!!'!V27)))</f>
@@ -4532,27 +4576,27 @@
       </c>
       <c r="O31" s="81" t="n">
         <f aca="false">IF('No modificar!!'!AJ24=0,'No modificar!!'!W24,IF('No modificar!!'!AJ25=0,'No modificar!!'!W25,IF('No modificar!!'!AJ26=0,'No modificar!!'!W26,'No modificar!!'!W27)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P31" s="81" t="n">
         <f aca="false">IF('No modificar!!'!AJ24=0,'No modificar!!'!X24,IF('No modificar!!'!AJ25=0,'No modificar!!'!X25,IF('No modificar!!'!AJ26=0,'No modificar!!'!X26,'No modificar!!'!X27)))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q31" s="81" t="n">
         <f aca="false">IF('No modificar!!'!AJ24=0,'No modificar!!'!Y24,IF('No modificar!!'!AJ25=0,'No modificar!!'!Y25,IF('No modificar!!'!AJ26=0,'No modificar!!'!Y26,'No modificar!!'!Y27)))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R31" s="81" t="n">
         <f aca="false">IF('No modificar!!'!AJ24=0,'No modificar!!'!Z24,IF('No modificar!!'!AJ25=0,'No modificar!!'!Z25,IF('No modificar!!'!AJ26=0,'No modificar!!'!Z26,'No modificar!!'!Z27)))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S31" s="81" t="n">
         <f aca="false">IF('No modificar!!'!AJ24=0,'No modificar!!'!AA24,IF('No modificar!!'!AJ25=0,'No modificar!!'!AA25,IF('No modificar!!'!AJ26=0,'No modificar!!'!AA26,'No modificar!!'!AA27)))</f>
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="T31" s="79" t="n">
         <f aca="false">IF('No modificar!!'!AJ24=0,'No modificar!!'!AB24,IF('No modificar!!'!AJ25=0,'No modificar!!'!AB25,IF('No modificar!!'!AJ26=0,'No modificar!!'!AB26,'No modificar!!'!AB27)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U31" s="90"/>
       <c r="V31" s="91"/>
@@ -4577,8 +4621,12 @@
         <f aca="false">D29</f>
         <v>Australia</v>
       </c>
-      <c r="H32" s="95"/>
-      <c r="I32" s="96"/>
+      <c r="H32" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="96" t="n">
+        <v>2</v>
+      </c>
       <c r="J32" s="97" t="str">
         <f aca="false">D30</f>
         <v>Perú</v>
@@ -4816,11 +4864,11 @@
       </c>
       <c r="N38" s="66" t="n">
         <f aca="false">IF('No modificar!!'!AJ34=3,'No modificar!!'!V34,IF('No modificar!!'!AJ35=3,'No modificar!!'!V35,IF('No modificar!!'!AJ36=3,'No modificar!!'!V36,'No modificar!!'!V37)))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O38" s="67" t="n">
         <f aca="false">IF('No modificar!!'!AJ34=3,'No modificar!!'!W34,IF('No modificar!!'!AJ35=3,'No modificar!!'!W35,IF('No modificar!!'!AJ36=3,'No modificar!!'!W36,'No modificar!!'!W37)))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P38" s="67" t="n">
         <f aca="false">IF('No modificar!!'!AJ34=3,'No modificar!!'!X34,IF('No modificar!!'!AJ35=3,'No modificar!!'!X35,IF('No modificar!!'!AJ36=3,'No modificar!!'!X36,'No modificar!!'!X37)))</f>
@@ -4828,19 +4876,19 @@
       </c>
       <c r="Q38" s="67" t="n">
         <f aca="false">IF('No modificar!!'!AJ34=3,'No modificar!!'!Y34,IF('No modificar!!'!AJ35=3,'No modificar!!'!Y35,IF('No modificar!!'!AJ36=3,'No modificar!!'!Y36,'No modificar!!'!Y37)))</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="R38" s="67" t="n">
         <f aca="false">IF('No modificar!!'!AJ34=3,'No modificar!!'!Z34,IF('No modificar!!'!AJ35=3,'No modificar!!'!Z35,IF('No modificar!!'!AJ36=3,'No modificar!!'!Z36,'No modificar!!'!Z37)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S38" s="67" t="n">
         <f aca="false">IF('No modificar!!'!AJ34=3,'No modificar!!'!AA34,IF('No modificar!!'!AJ35=3,'No modificar!!'!AA35,IF('No modificar!!'!AJ36=3,'No modificar!!'!AA36,'No modificar!!'!AA37)))</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="T38" s="65" t="n">
         <f aca="false">IF('No modificar!!'!AJ34=3,'No modificar!!'!AB34,IF('No modificar!!'!AJ35=3,'No modificar!!'!AB35,IF('No modificar!!'!AJ36=3,'No modificar!!'!AB36,'No modificar!!'!AB37)))</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="U38" s="68" t="str">
         <f aca="false">IF(AND(T38=T39,S38=S39,Q38=Q39),"!!"," ")</f>
@@ -4872,8 +4920,12 @@
         <f aca="false">D38</f>
         <v>Argentina</v>
       </c>
-      <c r="H39" s="92"/>
-      <c r="I39" s="93"/>
+      <c r="H39" s="92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" s="93" t="n">
+        <v>3</v>
+      </c>
       <c r="J39" s="94" t="str">
         <f aca="false">D40</f>
         <v>Croacia</v>
@@ -4888,39 +4940,39 @@
       </c>
       <c r="N39" s="72" t="n">
         <f aca="false">IF('No modificar!!'!AJ34=2,'No modificar!!'!V34,IF('No modificar!!'!AJ35=2,'No modificar!!'!V35,IF('No modificar!!'!AJ36=2,'No modificar!!'!V36,'No modificar!!'!V37)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O39" s="73" t="n">
         <f aca="false">IF('No modificar!!'!AJ34=2,'No modificar!!'!W34,IF('No modificar!!'!AJ35=2,'No modificar!!'!W35,IF('No modificar!!'!AJ36=2,'No modificar!!'!W36,'No modificar!!'!W37)))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P39" s="73" t="n">
         <f aca="false">IF('No modificar!!'!AJ34=2,'No modificar!!'!X34,IF('No modificar!!'!AJ35=2,'No modificar!!'!X35,IF('No modificar!!'!AJ36=2,'No modificar!!'!X36,'No modificar!!'!X37)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39" s="73" t="n">
         <f aca="false">IF('No modificar!!'!AJ34=2,'No modificar!!'!Y34,IF('No modificar!!'!AJ35=2,'No modificar!!'!Y35,IF('No modificar!!'!AJ36=2,'No modificar!!'!Y36,'No modificar!!'!Y37)))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R39" s="73" t="n">
         <f aca="false">IF('No modificar!!'!AJ34=2,'No modificar!!'!Z34,IF('No modificar!!'!AJ35=2,'No modificar!!'!Z35,IF('No modificar!!'!AJ36=2,'No modificar!!'!Z36,'No modificar!!'!Z37)))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S39" s="73" t="n">
         <f aca="false">IF('No modificar!!'!AJ34=2,'No modificar!!'!AA34,IF('No modificar!!'!AJ35=2,'No modificar!!'!AA35,IF('No modificar!!'!AJ36=2,'No modificar!!'!AA36,'No modificar!!'!AA37)))</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="T39" s="71" t="n">
         <f aca="false">IF('No modificar!!'!AJ34=2,'No modificar!!'!AB34,IF('No modificar!!'!AJ35=2,'No modificar!!'!AB35,IF('No modificar!!'!AJ36=2,'No modificar!!'!AB36,'No modificar!!'!AB37)))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U39" s="68" t="str">
         <f aca="false">IF(AND(T39=T40,S39=S40,Q39=Q40),"!!"," ")</f>
-        <v>!!</v>
+        <v> </v>
       </c>
       <c r="V39" s="69" t="str">
         <f aca="false">IF(AND(T39=T40,S39=S40,Q39=Q40),"El 2° se decide por Fair Play"," ")</f>
-        <v>El 2° se decide por Fair Play</v>
+        <v> </v>
       </c>
       <c r="W39" s="50"/>
       <c r="X39" s="30"/>
@@ -4944,8 +4996,12 @@
         <f aca="false">D39</f>
         <v>Islandia</v>
       </c>
-      <c r="H40" s="92"/>
-      <c r="I40" s="93"/>
+      <c r="H40" s="92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" s="93" t="n">
+        <v>2</v>
+      </c>
       <c r="J40" s="94" t="str">
         <f aca="false">D41</f>
         <v>Nigeria</v>
@@ -4956,31 +5012,31 @@
       </c>
       <c r="M40" s="74" t="str">
         <f aca="false">IF('No modificar!!'!AJ34=1,'No modificar!!'!U34,IF('No modificar!!'!AJ35=1,'No modificar!!'!U35,IF('No modificar!!'!AJ36=1,'No modificar!!'!U36,'No modificar!!'!U37)))</f>
-        <v>Islandia</v>
+        <v>Nigeria</v>
       </c>
       <c r="N40" s="75" t="n">
         <f aca="false">IF('No modificar!!'!AJ34=1,'No modificar!!'!V34,IF('No modificar!!'!AJ35=1,'No modificar!!'!V35,IF('No modificar!!'!AJ36=1,'No modificar!!'!V36,'No modificar!!'!V37)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O40" s="76" t="n">
         <f aca="false">IF('No modificar!!'!AJ34=1,'No modificar!!'!W34,IF('No modificar!!'!AJ35=1,'No modificar!!'!W35,IF('No modificar!!'!AJ36=1,'No modificar!!'!W36,'No modificar!!'!W37)))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P40" s="76" t="n">
         <f aca="false">IF('No modificar!!'!AJ34=1,'No modificar!!'!X34,IF('No modificar!!'!AJ35=1,'No modificar!!'!X35,IF('No modificar!!'!AJ36=1,'No modificar!!'!X36,'No modificar!!'!X37)))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q40" s="76" t="n">
         <f aca="false">IF('No modificar!!'!AJ34=1,'No modificar!!'!Y34,IF('No modificar!!'!AJ35=1,'No modificar!!'!Y35,IF('No modificar!!'!AJ36=1,'No modificar!!'!Y36,'No modificar!!'!Y37)))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R40" s="76" t="n">
         <f aca="false">IF('No modificar!!'!AJ34=1,'No modificar!!'!Z34,IF('No modificar!!'!AJ35=1,'No modificar!!'!Z35,IF('No modificar!!'!AJ36=1,'No modificar!!'!Z36,'No modificar!!'!Z37)))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S40" s="76" t="n">
         <f aca="false">IF('No modificar!!'!AJ34=1,'No modificar!!'!AA34,IF('No modificar!!'!AJ35=1,'No modificar!!'!AA35,IF('No modificar!!'!AJ36=1,'No modificar!!'!AA36,'No modificar!!'!AA37)))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T40" s="74" t="n">
         <f aca="false">IF('No modificar!!'!AJ34=1,'No modificar!!'!AB34,IF('No modificar!!'!AJ35=1,'No modificar!!'!AB35,IF('No modificar!!'!AJ36=1,'No modificar!!'!AB36,'No modificar!!'!AB37)))</f>
@@ -5010,8 +5066,12 @@
         <f aca="false">D38</f>
         <v>Argentina</v>
       </c>
-      <c r="H41" s="92"/>
-      <c r="I41" s="93"/>
+      <c r="H41" s="92" t="n">
+        <v>2</v>
+      </c>
+      <c r="I41" s="93" t="n">
+        <v>1</v>
+      </c>
       <c r="J41" s="94" t="str">
         <f aca="false">D41</f>
         <v>Nigeria</v>
@@ -5022,7 +5082,7 @@
       </c>
       <c r="M41" s="79" t="str">
         <f aca="false">IF('No modificar!!'!AJ34=0,'No modificar!!'!U34,IF('No modificar!!'!AJ35=0,'No modificar!!'!U35,IF('No modificar!!'!AJ36=0,'No modificar!!'!U36,'No modificar!!'!U37)))</f>
-        <v>Nigeria</v>
+        <v>Islandia</v>
       </c>
       <c r="N41" s="80" t="n">
         <f aca="false">IF('No modificar!!'!AJ34=0,'No modificar!!'!V34,IF('No modificar!!'!AJ35=0,'No modificar!!'!V35,IF('No modificar!!'!AJ36=0,'No modificar!!'!V36,'No modificar!!'!V37)))</f>
@@ -5030,27 +5090,27 @@
       </c>
       <c r="O41" s="81" t="n">
         <f aca="false">IF('No modificar!!'!AJ34=0,'No modificar!!'!W34,IF('No modificar!!'!AJ35=0,'No modificar!!'!W35,IF('No modificar!!'!AJ36=0,'No modificar!!'!W36,'No modificar!!'!W37)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P41" s="81" t="n">
         <f aca="false">IF('No modificar!!'!AJ34=0,'No modificar!!'!X34,IF('No modificar!!'!AJ35=0,'No modificar!!'!X35,IF('No modificar!!'!AJ36=0,'No modificar!!'!X36,'No modificar!!'!X37)))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q41" s="81" t="n">
         <f aca="false">IF('No modificar!!'!AJ34=0,'No modificar!!'!Y34,IF('No modificar!!'!AJ35=0,'No modificar!!'!Y35,IF('No modificar!!'!AJ36=0,'No modificar!!'!Y36,'No modificar!!'!Y37)))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R41" s="81" t="n">
         <f aca="false">IF('No modificar!!'!AJ34=0,'No modificar!!'!Z34,IF('No modificar!!'!AJ35=0,'No modificar!!'!Z35,IF('No modificar!!'!AJ36=0,'No modificar!!'!Z36,'No modificar!!'!Z37)))</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S41" s="81" t="n">
         <f aca="false">IF('No modificar!!'!AJ34=0,'No modificar!!'!AA34,IF('No modificar!!'!AJ35=0,'No modificar!!'!AA35,IF('No modificar!!'!AJ36=0,'No modificar!!'!AA36,'No modificar!!'!AA37)))</f>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="T41" s="79" t="n">
         <f aca="false">IF('No modificar!!'!AJ34=0,'No modificar!!'!AB34,IF('No modificar!!'!AJ35=0,'No modificar!!'!AB35,IF('No modificar!!'!AJ36=0,'No modificar!!'!AB36,'No modificar!!'!AB37)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U41" s="68"/>
       <c r="V41" s="69"/>
@@ -5074,8 +5134,12 @@
         <f aca="false">D39</f>
         <v>Islandia</v>
       </c>
-      <c r="H42" s="95"/>
-      <c r="I42" s="96"/>
+      <c r="H42" s="95" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" s="96" t="n">
+        <v>2</v>
+      </c>
       <c r="J42" s="97" t="str">
         <f aca="false">D40</f>
         <v>Croacia</v>
@@ -5308,15 +5372,15 @@
       </c>
       <c r="M48" s="65" t="str">
         <f aca="false">IF('No modificar!!'!AJ44=3,'No modificar!!'!U44,IF('No modificar!!'!AJ45=3,'No modificar!!'!U45,IF('No modificar!!'!AJ46=3,'No modificar!!'!U46,'No modificar!!'!U47)))</f>
-        <v>Serbia</v>
+        <v>Brasil</v>
       </c>
       <c r="N48" s="66" t="n">
         <f aca="false">IF('No modificar!!'!AJ44=3,'No modificar!!'!V44,IF('No modificar!!'!AJ45=3,'No modificar!!'!V45,IF('No modificar!!'!AJ46=3,'No modificar!!'!V46,'No modificar!!'!V47)))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O48" s="67" t="n">
         <f aca="false">IF('No modificar!!'!AJ44=3,'No modificar!!'!W44,IF('No modificar!!'!AJ45=3,'No modificar!!'!W45,IF('No modificar!!'!AJ46=3,'No modificar!!'!W46,'No modificar!!'!W47)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P48" s="67" t="n">
         <f aca="false">IF('No modificar!!'!AJ44=3,'No modificar!!'!X44,IF('No modificar!!'!AJ45=3,'No modificar!!'!X45,IF('No modificar!!'!AJ46=3,'No modificar!!'!X46,'No modificar!!'!X47)))</f>
@@ -5324,19 +5388,19 @@
       </c>
       <c r="Q48" s="67" t="n">
         <f aca="false">IF('No modificar!!'!AJ44=3,'No modificar!!'!Y44,IF('No modificar!!'!AJ45=3,'No modificar!!'!Y45,IF('No modificar!!'!AJ46=3,'No modificar!!'!Y46,'No modificar!!'!Y47)))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R48" s="67" t="n">
         <f aca="false">IF('No modificar!!'!AJ44=3,'No modificar!!'!Z44,IF('No modificar!!'!AJ45=3,'No modificar!!'!Z45,IF('No modificar!!'!AJ46=3,'No modificar!!'!Z46,'No modificar!!'!Z47)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S48" s="67" t="n">
         <f aca="false">IF('No modificar!!'!AJ44=3,'No modificar!!'!AA44,IF('No modificar!!'!AJ45=3,'No modificar!!'!AA45,IF('No modificar!!'!AJ46=3,'No modificar!!'!AA46,'No modificar!!'!AA47)))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T48" s="65" t="n">
         <f aca="false">IF('No modificar!!'!AJ44=3,'No modificar!!'!AB44,IF('No modificar!!'!AJ45=3,'No modificar!!'!AB45,IF('No modificar!!'!AJ46=3,'No modificar!!'!AB46,'No modificar!!'!AB47)))</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U48" s="68" t="str">
         <f aca="false">IF(AND(T48=T49,S48=S49,Q48=Q49),"!!"," ")</f>
@@ -5368,8 +5432,12 @@
         <f aca="false">D48</f>
         <v>Brasil</v>
       </c>
-      <c r="H49" s="92"/>
-      <c r="I49" s="93"/>
+      <c r="H49" s="92" t="n">
+        <v>2</v>
+      </c>
+      <c r="I49" s="93" t="n">
+        <v>0</v>
+      </c>
       <c r="J49" s="94" t="str">
         <f aca="false">D50</f>
         <v>Costa Rica</v>
@@ -5380,15 +5448,15 @@
       </c>
       <c r="M49" s="71" t="str">
         <f aca="false">IF('No modificar!!'!AJ44=2,'No modificar!!'!U44,IF('No modificar!!'!AJ45=2,'No modificar!!'!U45,IF('No modificar!!'!AJ46=2,'No modificar!!'!U46,'No modificar!!'!U47)))</f>
-        <v>Brasil</v>
+        <v>Suiza</v>
       </c>
       <c r="N49" s="72" t="n">
         <f aca="false">IF('No modificar!!'!AJ44=2,'No modificar!!'!V44,IF('No modificar!!'!AJ45=2,'No modificar!!'!V45,IF('No modificar!!'!AJ46=2,'No modificar!!'!V46,'No modificar!!'!V47)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O49" s="73" t="n">
         <f aca="false">IF('No modificar!!'!AJ44=2,'No modificar!!'!W44,IF('No modificar!!'!AJ45=2,'No modificar!!'!W45,IF('No modificar!!'!AJ46=2,'No modificar!!'!W46,'No modificar!!'!W47)))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P49" s="73" t="n">
         <f aca="false">IF('No modificar!!'!AJ44=2,'No modificar!!'!X44,IF('No modificar!!'!AJ45=2,'No modificar!!'!X45,IF('No modificar!!'!AJ46=2,'No modificar!!'!X46,'No modificar!!'!X47)))</f>
@@ -5396,27 +5464,27 @@
       </c>
       <c r="Q49" s="73" t="n">
         <f aca="false">IF('No modificar!!'!AJ44=2,'No modificar!!'!Y44,IF('No modificar!!'!AJ45=2,'No modificar!!'!Y45,IF('No modificar!!'!AJ46=2,'No modificar!!'!Y46,'No modificar!!'!Y47)))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R49" s="73" t="n">
         <f aca="false">IF('No modificar!!'!AJ44=2,'No modificar!!'!Z44,IF('No modificar!!'!AJ45=2,'No modificar!!'!Z45,IF('No modificar!!'!AJ46=2,'No modificar!!'!Z46,'No modificar!!'!Z47)))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S49" s="73" t="n">
         <f aca="false">IF('No modificar!!'!AJ44=2,'No modificar!!'!AA44,IF('No modificar!!'!AJ45=2,'No modificar!!'!AA45,IF('No modificar!!'!AJ46=2,'No modificar!!'!AA46,'No modificar!!'!AA47)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T49" s="71" t="n">
         <f aca="false">IF('No modificar!!'!AJ44=2,'No modificar!!'!AB44,IF('No modificar!!'!AJ45=2,'No modificar!!'!AB45,IF('No modificar!!'!AJ46=2,'No modificar!!'!AB46,'No modificar!!'!AB47)))</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U49" s="68" t="str">
         <f aca="false">IF(AND(T49=T50,S49=S50,Q49=Q50),"!!"," ")</f>
-        <v>!!</v>
+        <v> </v>
       </c>
       <c r="V49" s="69" t="str">
         <f aca="false">IF(AND(T49=T50,S49=S50,Q49=Q50),"El 2° se decide por Fair Play"," ")</f>
-        <v>El 2° se decide por Fair Play</v>
+        <v> </v>
       </c>
       <c r="W49" s="50"/>
       <c r="X49" s="30"/>
@@ -5440,8 +5508,12 @@
         <f aca="false">D49</f>
         <v>Suiza</v>
       </c>
-      <c r="H50" s="92"/>
-      <c r="I50" s="93"/>
+      <c r="H50" s="92" t="n">
+        <v>2</v>
+      </c>
+      <c r="I50" s="93" t="n">
+        <v>1</v>
+      </c>
       <c r="J50" s="94" t="str">
         <f aca="false">D51</f>
         <v>Serbia</v>
@@ -5452,31 +5524,31 @@
       </c>
       <c r="M50" s="74" t="str">
         <f aca="false">IF('No modificar!!'!AJ44=1,'No modificar!!'!U44,IF('No modificar!!'!AJ45=1,'No modificar!!'!U45,IF('No modificar!!'!AJ46=1,'No modificar!!'!U46,'No modificar!!'!U47)))</f>
-        <v>Suiza</v>
+        <v>Serbia</v>
       </c>
       <c r="N50" s="75" t="n">
         <f aca="false">IF('No modificar!!'!AJ44=1,'No modificar!!'!V44,IF('No modificar!!'!AJ45=1,'No modificar!!'!V45,IF('No modificar!!'!AJ46=1,'No modificar!!'!V46,'No modificar!!'!V47)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O50" s="76" t="n">
         <f aca="false">IF('No modificar!!'!AJ44=1,'No modificar!!'!W44,IF('No modificar!!'!AJ45=1,'No modificar!!'!W45,IF('No modificar!!'!AJ46=1,'No modificar!!'!W46,'No modificar!!'!W47)))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P50" s="76" t="n">
         <f aca="false">IF('No modificar!!'!AJ44=1,'No modificar!!'!X44,IF('No modificar!!'!AJ45=1,'No modificar!!'!X45,IF('No modificar!!'!AJ46=1,'No modificar!!'!X46,'No modificar!!'!X47)))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q50" s="76" t="n">
         <f aca="false">IF('No modificar!!'!AJ44=1,'No modificar!!'!Y44,IF('No modificar!!'!AJ45=1,'No modificar!!'!Y45,IF('No modificar!!'!AJ46=1,'No modificar!!'!Y46,'No modificar!!'!Y47)))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R50" s="76" t="n">
         <f aca="false">IF('No modificar!!'!AJ44=1,'No modificar!!'!Z44,IF('No modificar!!'!AJ45=1,'No modificar!!'!Z45,IF('No modificar!!'!AJ46=1,'No modificar!!'!Z46,'No modificar!!'!Z47)))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S50" s="76" t="n">
         <f aca="false">IF('No modificar!!'!AJ44=1,'No modificar!!'!AA44,IF('No modificar!!'!AJ45=1,'No modificar!!'!AA45,IF('No modificar!!'!AJ46=1,'No modificar!!'!AA46,'No modificar!!'!AA47)))</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="T50" s="74" t="n">
         <f aca="false">IF('No modificar!!'!AJ44=1,'No modificar!!'!AB44,IF('No modificar!!'!AJ45=1,'No modificar!!'!AB45,IF('No modificar!!'!AJ46=1,'No modificar!!'!AB46,'No modificar!!'!AB47)))</f>
@@ -5506,8 +5578,12 @@
         <f aca="false">D48</f>
         <v>Brasil</v>
       </c>
-      <c r="H51" s="92"/>
-      <c r="I51" s="93"/>
+      <c r="H51" s="92" t="n">
+        <v>2</v>
+      </c>
+      <c r="I51" s="93" t="n">
+        <v>0</v>
+      </c>
       <c r="J51" s="94" t="str">
         <f aca="false">D51</f>
         <v>Serbia</v>
@@ -5526,27 +5602,27 @@
       </c>
       <c r="O51" s="81" t="n">
         <f aca="false">IF('No modificar!!'!AJ44=0,'No modificar!!'!W44,IF('No modificar!!'!AJ45=0,'No modificar!!'!W45,IF('No modificar!!'!AJ46=0,'No modificar!!'!W46,'No modificar!!'!W47)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P51" s="81" t="n">
         <f aca="false">IF('No modificar!!'!AJ44=0,'No modificar!!'!X44,IF('No modificar!!'!AJ45=0,'No modificar!!'!X45,IF('No modificar!!'!AJ46=0,'No modificar!!'!X46,'No modificar!!'!X47)))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q51" s="81" t="n">
         <f aca="false">IF('No modificar!!'!AJ44=0,'No modificar!!'!Y44,IF('No modificar!!'!AJ45=0,'No modificar!!'!Y45,IF('No modificar!!'!AJ46=0,'No modificar!!'!Y46,'No modificar!!'!Y47)))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R51" s="81" t="n">
         <f aca="false">IF('No modificar!!'!AJ44=0,'No modificar!!'!Z44,IF('No modificar!!'!AJ45=0,'No modificar!!'!Z45,IF('No modificar!!'!AJ46=0,'No modificar!!'!Z46,'No modificar!!'!Z47)))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S51" s="81" t="n">
         <f aca="false">IF('No modificar!!'!AJ44=0,'No modificar!!'!AA44,IF('No modificar!!'!AJ45=0,'No modificar!!'!AA45,IF('No modificar!!'!AJ46=0,'No modificar!!'!AA46,'No modificar!!'!AA47)))</f>
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="T51" s="79" t="n">
         <f aca="false">IF('No modificar!!'!AJ44=0,'No modificar!!'!AB44,IF('No modificar!!'!AJ45=0,'No modificar!!'!AB45,IF('No modificar!!'!AJ46=0,'No modificar!!'!AB46,'No modificar!!'!AB47)))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U51" s="68"/>
       <c r="V51" s="69"/>
@@ -5570,8 +5646,12 @@
         <f aca="false">D49</f>
         <v>Suiza</v>
       </c>
-      <c r="H52" s="95"/>
-      <c r="I52" s="96"/>
+      <c r="H52" s="95" t="n">
+        <v>2</v>
+      </c>
+      <c r="I52" s="96" t="n">
+        <v>2</v>
+      </c>
       <c r="J52" s="97" t="str">
         <f aca="false">D50</f>
         <v>Costa Rica</v>
@@ -5804,43 +5884,43 @@
       </c>
       <c r="M58" s="65" t="str">
         <f aca="false">IF('No modificar!!'!AJ54=3,'No modificar!!'!U54,IF('No modificar!!'!AJ55=3,'No modificar!!'!U55,IF('No modificar!!'!AJ56=3,'No modificar!!'!U56,'No modificar!!'!U57)))</f>
-        <v>México</v>
+        <v>Suecia</v>
       </c>
       <c r="N58" s="66" t="n">
         <f aca="false">IF('No modificar!!'!AJ54=3,'No modificar!!'!V54,IF('No modificar!!'!AJ55=3,'No modificar!!'!V55,IF('No modificar!!'!AJ56=3,'No modificar!!'!V56,'No modificar!!'!V57)))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O58" s="67" t="n">
         <f aca="false">IF('No modificar!!'!AJ54=3,'No modificar!!'!W54,IF('No modificar!!'!AJ55=3,'No modificar!!'!W55,IF('No modificar!!'!AJ56=3,'No modificar!!'!W56,'No modificar!!'!W57)))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P58" s="67" t="n">
         <f aca="false">IF('No modificar!!'!AJ54=3,'No modificar!!'!X54,IF('No modificar!!'!AJ55=3,'No modificar!!'!X55,IF('No modificar!!'!AJ56=3,'No modificar!!'!X56,'No modificar!!'!X57)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58" s="67" t="n">
         <f aca="false">IF('No modificar!!'!AJ54=3,'No modificar!!'!Y54,IF('No modificar!!'!AJ55=3,'No modificar!!'!Y55,IF('No modificar!!'!AJ56=3,'No modificar!!'!Y56,'No modificar!!'!Y57)))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R58" s="67" t="n">
         <f aca="false">IF('No modificar!!'!AJ54=3,'No modificar!!'!Z54,IF('No modificar!!'!AJ55=3,'No modificar!!'!Z55,IF('No modificar!!'!AJ56=3,'No modificar!!'!Z56,'No modificar!!'!Z57)))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S58" s="67" t="n">
         <f aca="false">IF('No modificar!!'!AJ54=3,'No modificar!!'!AA54,IF('No modificar!!'!AJ55=3,'No modificar!!'!AA55,IF('No modificar!!'!AJ56=3,'No modificar!!'!AA56,'No modificar!!'!AA57)))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T58" s="65" t="n">
         <f aca="false">IF('No modificar!!'!AJ54=3,'No modificar!!'!AB54,IF('No modificar!!'!AJ55=3,'No modificar!!'!AB55,IF('No modificar!!'!AJ56=3,'No modificar!!'!AB56,'No modificar!!'!AB57)))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U58" s="68" t="str">
         <f aca="false">IF(AND(T58=T59,S58=S59,Q58=Q59),"!!"," ")</f>
-        <v>!!</v>
+        <v> </v>
       </c>
       <c r="V58" s="69" t="str">
         <f aca="false">IF(AND(T58=T59,S58=S59,Q58=Q59),"El 1° se decide por Fair Play"," ")</f>
-        <v>El 1° se decide por Fair Play</v>
+        <v> </v>
       </c>
       <c r="W58" s="50"/>
       <c r="X58" s="30"/>
@@ -5864,8 +5944,12 @@
         <f aca="false">D58</f>
         <v>Alemania</v>
       </c>
-      <c r="H59" s="92"/>
-      <c r="I59" s="93"/>
+      <c r="H59" s="92" t="n">
+        <v>2</v>
+      </c>
+      <c r="I59" s="93" t="n">
+        <v>1</v>
+      </c>
       <c r="J59" s="94" t="str">
         <f aca="false">D60</f>
         <v>Suecia</v>
@@ -5876,35 +5960,35 @@
       </c>
       <c r="M59" s="71" t="str">
         <f aca="false">IF('No modificar!!'!AJ54=2,'No modificar!!'!U54,IF('No modificar!!'!AJ55=2,'No modificar!!'!U55,IF('No modificar!!'!AJ56=2,'No modificar!!'!U56,'No modificar!!'!U57)))</f>
-        <v>Suecia</v>
+        <v>México</v>
       </c>
       <c r="N59" s="72" t="n">
         <f aca="false">IF('No modificar!!'!AJ54=2,'No modificar!!'!V54,IF('No modificar!!'!AJ55=2,'No modificar!!'!V55,IF('No modificar!!'!AJ56=2,'No modificar!!'!V56,'No modificar!!'!V57)))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O59" s="73" t="n">
         <f aca="false">IF('No modificar!!'!AJ54=2,'No modificar!!'!W54,IF('No modificar!!'!AJ55=2,'No modificar!!'!W55,IF('No modificar!!'!AJ56=2,'No modificar!!'!W56,'No modificar!!'!W57)))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P59" s="73" t="n">
         <f aca="false">IF('No modificar!!'!AJ54=2,'No modificar!!'!X54,IF('No modificar!!'!AJ55=2,'No modificar!!'!X55,IF('No modificar!!'!AJ56=2,'No modificar!!'!X56,'No modificar!!'!X57)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59" s="73" t="n">
         <f aca="false">IF('No modificar!!'!AJ54=2,'No modificar!!'!Y54,IF('No modificar!!'!AJ55=2,'No modificar!!'!Y55,IF('No modificar!!'!AJ56=2,'No modificar!!'!Y56,'No modificar!!'!Y57)))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R59" s="73" t="n">
         <f aca="false">IF('No modificar!!'!AJ54=2,'No modificar!!'!Z54,IF('No modificar!!'!AJ55=2,'No modificar!!'!Z55,IF('No modificar!!'!AJ56=2,'No modificar!!'!Z56,'No modificar!!'!Z57)))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S59" s="73" t="n">
         <f aca="false">IF('No modificar!!'!AJ54=2,'No modificar!!'!AA54,IF('No modificar!!'!AJ55=2,'No modificar!!'!AA55,IF('No modificar!!'!AJ56=2,'No modificar!!'!AA56,'No modificar!!'!AA57)))</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T59" s="71" t="n">
         <f aca="false">IF('No modificar!!'!AJ54=2,'No modificar!!'!AB54,IF('No modificar!!'!AJ55=2,'No modificar!!'!AB55,IF('No modificar!!'!AJ56=2,'No modificar!!'!AB56,'No modificar!!'!AB57)))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U59" s="68" t="str">
         <f aca="false">IF(AND(T59=T60,S59=S60,Q59=Q60),"!!"," ")</f>
@@ -5936,8 +6020,12 @@
         <f aca="false">D59</f>
         <v>México</v>
       </c>
-      <c r="H60" s="92"/>
-      <c r="I60" s="93"/>
+      <c r="H60" s="92" t="n">
+        <v>2</v>
+      </c>
+      <c r="I60" s="93" t="n">
+        <v>1</v>
+      </c>
       <c r="J60" s="94" t="str">
         <f aca="false">D61</f>
         <v>Corea del Sur</v>
@@ -5948,35 +6036,35 @@
       </c>
       <c r="M60" s="74" t="str">
         <f aca="false">IF('No modificar!!'!AJ54=1,'No modificar!!'!U54,IF('No modificar!!'!AJ55=1,'No modificar!!'!U55,IF('No modificar!!'!AJ56=1,'No modificar!!'!U56,'No modificar!!'!U57)))</f>
-        <v>Alemania</v>
+        <v>Corea del Sur</v>
       </c>
       <c r="N60" s="75" t="n">
         <f aca="false">IF('No modificar!!'!AJ54=1,'No modificar!!'!V54,IF('No modificar!!'!AJ55=1,'No modificar!!'!V55,IF('No modificar!!'!AJ56=1,'No modificar!!'!V56,'No modificar!!'!V57)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O60" s="76" t="n">
         <f aca="false">IF('No modificar!!'!AJ54=1,'No modificar!!'!W54,IF('No modificar!!'!AJ55=1,'No modificar!!'!W55,IF('No modificar!!'!AJ56=1,'No modificar!!'!W56,'No modificar!!'!W57)))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P60" s="76" t="n">
         <f aca="false">IF('No modificar!!'!AJ54=1,'No modificar!!'!X54,IF('No modificar!!'!AJ55=1,'No modificar!!'!X55,IF('No modificar!!'!AJ56=1,'No modificar!!'!X56,'No modificar!!'!X57)))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q60" s="76" t="n">
         <f aca="false">IF('No modificar!!'!AJ54=1,'No modificar!!'!Y54,IF('No modificar!!'!AJ55=1,'No modificar!!'!Y55,IF('No modificar!!'!AJ56=1,'No modificar!!'!Y56,'No modificar!!'!Y57)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R60" s="76" t="n">
         <f aca="false">IF('No modificar!!'!AJ54=1,'No modificar!!'!Z54,IF('No modificar!!'!AJ55=1,'No modificar!!'!Z55,IF('No modificar!!'!AJ56=1,'No modificar!!'!Z56,'No modificar!!'!Z57)))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S60" s="76" t="n">
         <f aca="false">IF('No modificar!!'!AJ54=1,'No modificar!!'!AA54,IF('No modificar!!'!AJ55=1,'No modificar!!'!AA55,IF('No modificar!!'!AJ56=1,'No modificar!!'!AA56,'No modificar!!'!AA57)))</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T60" s="74" t="n">
         <f aca="false">IF('No modificar!!'!AJ54=1,'No modificar!!'!AB54,IF('No modificar!!'!AJ55=1,'No modificar!!'!AB55,IF('No modificar!!'!AJ56=1,'No modificar!!'!AB56,'No modificar!!'!AB57)))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U60" s="68"/>
       <c r="V60" s="69"/>
@@ -6002,8 +6090,12 @@
         <f aca="false">D58</f>
         <v>Alemania</v>
       </c>
-      <c r="H61" s="92"/>
-      <c r="I61" s="93"/>
+      <c r="H61" s="92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" s="93" t="n">
+        <v>2</v>
+      </c>
       <c r="J61" s="94" t="str">
         <f aca="false">D61</f>
         <v>Corea del Sur</v>
@@ -6014,35 +6106,35 @@
       </c>
       <c r="M61" s="79" t="str">
         <f aca="false">IF('No modificar!!'!AJ54=0,'No modificar!!'!U54,IF('No modificar!!'!AJ55=0,'No modificar!!'!U55,IF('No modificar!!'!AJ56=0,'No modificar!!'!U56,'No modificar!!'!U57)))</f>
-        <v>Corea del Sur</v>
+        <v>Alemania</v>
       </c>
       <c r="N61" s="80" t="n">
         <f aca="false">IF('No modificar!!'!AJ54=0,'No modificar!!'!V54,IF('No modificar!!'!AJ55=0,'No modificar!!'!V55,IF('No modificar!!'!AJ56=0,'No modificar!!'!V56,'No modificar!!'!V57)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O61" s="81" t="n">
         <f aca="false">IF('No modificar!!'!AJ54=0,'No modificar!!'!W54,IF('No modificar!!'!AJ55=0,'No modificar!!'!W55,IF('No modificar!!'!AJ56=0,'No modificar!!'!W56,'No modificar!!'!W57)))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P61" s="81" t="n">
         <f aca="false">IF('No modificar!!'!AJ54=0,'No modificar!!'!X54,IF('No modificar!!'!AJ55=0,'No modificar!!'!X55,IF('No modificar!!'!AJ56=0,'No modificar!!'!X56,'No modificar!!'!X57)))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q61" s="81" t="n">
         <f aca="false">IF('No modificar!!'!AJ54=0,'No modificar!!'!Y54,IF('No modificar!!'!AJ55=0,'No modificar!!'!Y55,IF('No modificar!!'!AJ56=0,'No modificar!!'!Y56,'No modificar!!'!Y57)))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R61" s="81" t="n">
         <f aca="false">IF('No modificar!!'!AJ54=0,'No modificar!!'!Z54,IF('No modificar!!'!AJ55=0,'No modificar!!'!Z55,IF('No modificar!!'!AJ56=0,'No modificar!!'!Z56,'No modificar!!'!Z57)))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S61" s="81" t="n">
         <f aca="false">IF('No modificar!!'!AJ54=0,'No modificar!!'!AA54,IF('No modificar!!'!AJ55=0,'No modificar!!'!AA55,IF('No modificar!!'!AJ56=0,'No modificar!!'!AA56,'No modificar!!'!AA57)))</f>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="T61" s="79" t="n">
         <f aca="false">IF('No modificar!!'!AJ54=0,'No modificar!!'!AB54,IF('No modificar!!'!AJ55=0,'No modificar!!'!AB55,IF('No modificar!!'!AJ56=0,'No modificar!!'!AB56,'No modificar!!'!AB57)))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U61" s="68"/>
       <c r="V61" s="69"/>
@@ -6066,8 +6158,12 @@
         <f aca="false">D59</f>
         <v>México</v>
       </c>
-      <c r="H62" s="95"/>
-      <c r="I62" s="96"/>
+      <c r="H62" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" s="96" t="n">
+        <v>3</v>
+      </c>
       <c r="J62" s="97" t="str">
         <f aca="false">D60</f>
         <v>Suecia</v>
@@ -6304,11 +6400,11 @@
       </c>
       <c r="N68" s="66" t="n">
         <f aca="false">IF('No modificar!!'!AJ64=3,'No modificar!!'!V64,IF('No modificar!!'!AJ65=3,'No modificar!!'!V65,IF('No modificar!!'!AJ66=3,'No modificar!!'!V66,'No modificar!!'!V67)))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O68" s="67" t="n">
         <f aca="false">IF('No modificar!!'!AJ64=3,'No modificar!!'!W64,IF('No modificar!!'!AJ65=3,'No modificar!!'!W65,IF('No modificar!!'!AJ66=3,'No modificar!!'!W66,'No modificar!!'!W67)))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P68" s="67" t="n">
         <f aca="false">IF('No modificar!!'!AJ64=3,'No modificar!!'!X64,IF('No modificar!!'!AJ65=3,'No modificar!!'!X65,IF('No modificar!!'!AJ66=3,'No modificar!!'!X66,'No modificar!!'!X67)))</f>
@@ -6316,19 +6412,19 @@
       </c>
       <c r="Q68" s="67" t="n">
         <f aca="false">IF('No modificar!!'!AJ64=3,'No modificar!!'!Y64,IF('No modificar!!'!AJ65=3,'No modificar!!'!Y65,IF('No modificar!!'!AJ66=3,'No modificar!!'!Y66,'No modificar!!'!Y67)))</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="R68" s="67" t="n">
         <f aca="false">IF('No modificar!!'!AJ64=3,'No modificar!!'!Z64,IF('No modificar!!'!AJ65=3,'No modificar!!'!Z65,IF('No modificar!!'!AJ66=3,'No modificar!!'!Z66,'No modificar!!'!Z67)))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S68" s="67" t="n">
         <f aca="false">IF('No modificar!!'!AJ64=3,'No modificar!!'!AA64,IF('No modificar!!'!AJ65=3,'No modificar!!'!AA65,IF('No modificar!!'!AJ66=3,'No modificar!!'!AA66,'No modificar!!'!AA67)))</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T68" s="65" t="n">
         <f aca="false">IF('No modificar!!'!AJ64=3,'No modificar!!'!AB64,IF('No modificar!!'!AJ65=3,'No modificar!!'!AB65,IF('No modificar!!'!AJ66=3,'No modificar!!'!AB66,'No modificar!!'!AB67)))</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="U68" s="68" t="str">
         <f aca="false">IF(AND(T68=T69,S68=S69,Q68=Q69),"!!"," ")</f>
@@ -6360,8 +6456,12 @@
         <f aca="false">D68</f>
         <v>Bélgica</v>
       </c>
-      <c r="H69" s="92"/>
-      <c r="I69" s="93"/>
+      <c r="H69" s="92" t="n">
+        <v>5</v>
+      </c>
+      <c r="I69" s="93" t="n">
+        <v>2</v>
+      </c>
       <c r="J69" s="94" t="str">
         <f aca="false">D70</f>
         <v>Túnez</v>
@@ -6376,31 +6476,31 @@
       </c>
       <c r="N69" s="72" t="n">
         <f aca="false">IF('No modificar!!'!AJ64=2,'No modificar!!'!V64,IF('No modificar!!'!AJ65=2,'No modificar!!'!V65,IF('No modificar!!'!AJ66=2,'No modificar!!'!V66,'No modificar!!'!V67)))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O69" s="73" t="n">
         <f aca="false">IF('No modificar!!'!AJ64=2,'No modificar!!'!W64,IF('No modificar!!'!AJ65=2,'No modificar!!'!W65,IF('No modificar!!'!AJ66=2,'No modificar!!'!W66,'No modificar!!'!W67)))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P69" s="73" t="n">
         <f aca="false">IF('No modificar!!'!AJ64=2,'No modificar!!'!X64,IF('No modificar!!'!AJ65=2,'No modificar!!'!X65,IF('No modificar!!'!AJ66=2,'No modificar!!'!X66,'No modificar!!'!X67)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q69" s="73" t="n">
         <f aca="false">IF('No modificar!!'!AJ64=2,'No modificar!!'!Y64,IF('No modificar!!'!AJ65=2,'No modificar!!'!Y65,IF('No modificar!!'!AJ66=2,'No modificar!!'!Y66,'No modificar!!'!Y67)))</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R69" s="73" t="n">
         <f aca="false">IF('No modificar!!'!AJ64=2,'No modificar!!'!Z64,IF('No modificar!!'!AJ65=2,'No modificar!!'!Z65,IF('No modificar!!'!AJ66=2,'No modificar!!'!Z66,'No modificar!!'!Z67)))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S69" s="73" t="n">
         <f aca="false">IF('No modificar!!'!AJ64=2,'No modificar!!'!AA64,IF('No modificar!!'!AJ65=2,'No modificar!!'!AA65,IF('No modificar!!'!AJ66=2,'No modificar!!'!AA66,'No modificar!!'!AA67)))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T69" s="71" t="n">
         <f aca="false">IF('No modificar!!'!AJ64=2,'No modificar!!'!AB64,IF('No modificar!!'!AJ65=2,'No modificar!!'!AB65,IF('No modificar!!'!AJ66=2,'No modificar!!'!AB66,'No modificar!!'!AB67)))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U69" s="68" t="str">
         <f aca="false">IF(AND(T69=T70,S69=S70,Q69=Q70),"!!"," ")</f>
@@ -6432,8 +6532,12 @@
         <f aca="false">D69</f>
         <v>Panamá</v>
       </c>
-      <c r="H70" s="92"/>
-      <c r="I70" s="93"/>
+      <c r="H70" s="92" t="n">
+        <v>1</v>
+      </c>
+      <c r="I70" s="93" t="n">
+        <v>6</v>
+      </c>
       <c r="J70" s="94" t="str">
         <f aca="false">D71</f>
         <v>Inglaterra</v>
@@ -6448,31 +6552,31 @@
       </c>
       <c r="N70" s="75" t="n">
         <f aca="false">IF('No modificar!!'!AJ64=1,'No modificar!!'!V64,IF('No modificar!!'!AJ65=1,'No modificar!!'!V65,IF('No modificar!!'!AJ66=1,'No modificar!!'!V66,'No modificar!!'!V67)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O70" s="76" t="n">
         <f aca="false">IF('No modificar!!'!AJ64=1,'No modificar!!'!W64,IF('No modificar!!'!AJ65=1,'No modificar!!'!W65,IF('No modificar!!'!AJ66=1,'No modificar!!'!W66,'No modificar!!'!W67)))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P70" s="76" t="n">
         <f aca="false">IF('No modificar!!'!AJ64=1,'No modificar!!'!X64,IF('No modificar!!'!AJ65=1,'No modificar!!'!X65,IF('No modificar!!'!AJ66=1,'No modificar!!'!X66,'No modificar!!'!X67)))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q70" s="76" t="n">
         <f aca="false">IF('No modificar!!'!AJ64=1,'No modificar!!'!Y64,IF('No modificar!!'!AJ65=1,'No modificar!!'!Y65,IF('No modificar!!'!AJ66=1,'No modificar!!'!Y66,'No modificar!!'!Y67)))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R70" s="76" t="n">
         <f aca="false">IF('No modificar!!'!AJ64=1,'No modificar!!'!Z64,IF('No modificar!!'!AJ65=1,'No modificar!!'!Z65,IF('No modificar!!'!AJ66=1,'No modificar!!'!Z66,'No modificar!!'!Z67)))</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="S70" s="76" t="n">
         <f aca="false">IF('No modificar!!'!AJ64=1,'No modificar!!'!AA64,IF('No modificar!!'!AJ65=1,'No modificar!!'!AA65,IF('No modificar!!'!AJ66=1,'No modificar!!'!AA66,'No modificar!!'!AA67)))</f>
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="T70" s="74" t="n">
         <f aca="false">IF('No modificar!!'!AJ64=1,'No modificar!!'!AB64,IF('No modificar!!'!AJ65=1,'No modificar!!'!AB65,IF('No modificar!!'!AJ66=1,'No modificar!!'!AB66,'No modificar!!'!AB67)))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U70" s="68"/>
       <c r="V70" s="69"/>
@@ -6498,8 +6602,12 @@
         <f aca="false">D68</f>
         <v>Bélgica</v>
       </c>
-      <c r="H71" s="92"/>
-      <c r="I71" s="93"/>
+      <c r="H71" s="92" t="n">
+        <v>1</v>
+      </c>
+      <c r="I71" s="93" t="n">
+        <v>0</v>
+      </c>
       <c r="J71" s="94" t="str">
         <f aca="false">D71</f>
         <v>Inglaterra</v>
@@ -6518,27 +6626,27 @@
       </c>
       <c r="O71" s="81" t="n">
         <f aca="false">IF('No modificar!!'!AJ64=0,'No modificar!!'!W64,IF('No modificar!!'!AJ65=0,'No modificar!!'!W65,IF('No modificar!!'!AJ66=0,'No modificar!!'!W66,'No modificar!!'!W67)))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P71" s="81" t="n">
         <f aca="false">IF('No modificar!!'!AJ64=0,'No modificar!!'!X64,IF('No modificar!!'!AJ65=0,'No modificar!!'!X65,IF('No modificar!!'!AJ66=0,'No modificar!!'!X66,'No modificar!!'!X67)))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q71" s="81" t="n">
         <f aca="false">IF('No modificar!!'!AJ64=0,'No modificar!!'!Y64,IF('No modificar!!'!AJ65=0,'No modificar!!'!Y65,IF('No modificar!!'!AJ66=0,'No modificar!!'!Y66,'No modificar!!'!Y67)))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R71" s="81" t="n">
         <f aca="false">IF('No modificar!!'!AJ64=0,'No modificar!!'!Z64,IF('No modificar!!'!AJ65=0,'No modificar!!'!Z65,IF('No modificar!!'!AJ66=0,'No modificar!!'!Z66,'No modificar!!'!Z67)))</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="S71" s="81" t="n">
         <f aca="false">IF('No modificar!!'!AJ64=0,'No modificar!!'!AA64,IF('No modificar!!'!AJ65=0,'No modificar!!'!AA65,IF('No modificar!!'!AJ66=0,'No modificar!!'!AA66,'No modificar!!'!AA67)))</f>
-        <v>-3</v>
+        <v>-9</v>
       </c>
       <c r="T71" s="79" t="n">
         <f aca="false">IF('No modificar!!'!AJ64=0,'No modificar!!'!AB64,IF('No modificar!!'!AJ65=0,'No modificar!!'!AB65,IF('No modificar!!'!AJ66=0,'No modificar!!'!AB66,'No modificar!!'!AB67)))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U71" s="68"/>
       <c r="V71" s="69"/>
@@ -6562,8 +6670,12 @@
         <f aca="false">D69</f>
         <v>Panamá</v>
       </c>
-      <c r="H72" s="95"/>
-      <c r="I72" s="96"/>
+      <c r="H72" s="95" t="n">
+        <v>1</v>
+      </c>
+      <c r="I72" s="96" t="n">
+        <v>2</v>
+      </c>
       <c r="J72" s="97" t="str">
         <f aca="false">D70</f>
         <v>Túnez</v>
@@ -6722,8 +6834,12 @@
         <f aca="false">D78</f>
         <v>Polonia</v>
       </c>
-      <c r="H77" s="87"/>
-      <c r="I77" s="88"/>
+      <c r="H77" s="87" t="n">
+        <v>1</v>
+      </c>
+      <c r="I77" s="88" t="n">
+        <v>2</v>
+      </c>
       <c r="J77" s="89" t="str">
         <f aca="false">D79</f>
         <v>Senegal</v>
@@ -6776,8 +6892,12 @@
         <f aca="false">D80</f>
         <v>Colombia</v>
       </c>
-      <c r="H78" s="92"/>
-      <c r="I78" s="93"/>
+      <c r="H78" s="92" t="n">
+        <v>1</v>
+      </c>
+      <c r="I78" s="93" t="n">
+        <v>2</v>
+      </c>
       <c r="J78" s="94" t="str">
         <f aca="false">D81</f>
         <v>Japón</v>
@@ -6788,43 +6908,43 @@
       </c>
       <c r="M78" s="65" t="str">
         <f aca="false">IF('No modificar!!'!AJ74=3,'No modificar!!'!U74,IF('No modificar!!'!AJ75=3,'No modificar!!'!U75,IF('No modificar!!'!AJ76=3,'No modificar!!'!U76,'No modificar!!'!U77)))</f>
-        <v>Japón</v>
+        <v>Colombia</v>
       </c>
       <c r="N78" s="66" t="n">
         <f aca="false">IF('No modificar!!'!AJ74=3,'No modificar!!'!V74,IF('No modificar!!'!AJ75=3,'No modificar!!'!V75,IF('No modificar!!'!AJ76=3,'No modificar!!'!V76,'No modificar!!'!V77)))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O78" s="67" t="n">
         <f aca="false">IF('No modificar!!'!AJ74=3,'No modificar!!'!W74,IF('No modificar!!'!AJ75=3,'No modificar!!'!W75,IF('No modificar!!'!AJ76=3,'No modificar!!'!W76,'No modificar!!'!W77)))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P78" s="67" t="n">
         <f aca="false">IF('No modificar!!'!AJ74=3,'No modificar!!'!X74,IF('No modificar!!'!AJ75=3,'No modificar!!'!X75,IF('No modificar!!'!AJ76=3,'No modificar!!'!X76,'No modificar!!'!X77)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q78" s="67" t="n">
         <f aca="false">IF('No modificar!!'!AJ74=3,'No modificar!!'!Y74,IF('No modificar!!'!AJ75=3,'No modificar!!'!Y75,IF('No modificar!!'!AJ76=3,'No modificar!!'!Y76,'No modificar!!'!Y77)))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R78" s="67" t="n">
         <f aca="false">IF('No modificar!!'!AJ74=3,'No modificar!!'!Z74,IF('No modificar!!'!AJ75=3,'No modificar!!'!Z75,IF('No modificar!!'!AJ76=3,'No modificar!!'!Z76,'No modificar!!'!Z77)))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S78" s="67" t="n">
         <f aca="false">IF('No modificar!!'!AJ74=3,'No modificar!!'!AA74,IF('No modificar!!'!AJ75=3,'No modificar!!'!AA75,IF('No modificar!!'!AJ76=3,'No modificar!!'!AA76,'No modificar!!'!AA77)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T78" s="65" t="n">
         <f aca="false">IF('No modificar!!'!AJ74=3,'No modificar!!'!AB74,IF('No modificar!!'!AJ75=3,'No modificar!!'!AB75,IF('No modificar!!'!AJ76=3,'No modificar!!'!AB76,'No modificar!!'!AB77)))</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="U78" s="68" t="str">
         <f aca="false">IF(AND(T78=T79,S78=S79,Q78=Q79),"!!"," ")</f>
-        <v>!!</v>
+        <v> </v>
       </c>
       <c r="V78" s="69" t="str">
         <f aca="false">IF(AND(T78=T79,S78=S79,Q78=Q79),"El 1° se decide por Fair Play"," ")</f>
-        <v>El 1° se decide por Fair Play</v>
+        <v> </v>
       </c>
       <c r="W78" s="50"/>
       <c r="X78" s="30"/>
@@ -6848,8 +6968,12 @@
         <f aca="false">D78</f>
         <v>Polonia</v>
       </c>
-      <c r="H79" s="92"/>
-      <c r="I79" s="93"/>
+      <c r="H79" s="92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" s="93" t="n">
+        <v>3</v>
+      </c>
       <c r="J79" s="94" t="str">
         <f aca="false">D80</f>
         <v>Colombia</v>
@@ -6860,27 +6984,27 @@
       </c>
       <c r="M79" s="71" t="str">
         <f aca="false">IF('No modificar!!'!AJ74=2,'No modificar!!'!U74,IF('No modificar!!'!AJ75=2,'No modificar!!'!U75,IF('No modificar!!'!AJ76=2,'No modificar!!'!U76,'No modificar!!'!U77)))</f>
-        <v>Japón</v>
+        <v>Senegal</v>
       </c>
       <c r="N79" s="72" t="n">
         <f aca="false">IF('No modificar!!'!AJ74=2,'No modificar!!'!V74,IF('No modificar!!'!AJ75=2,'No modificar!!'!V75,IF('No modificar!!'!AJ76=2,'No modificar!!'!V76,'No modificar!!'!V77)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O79" s="73" t="n">
         <f aca="false">IF('No modificar!!'!AJ74=2,'No modificar!!'!W74,IF('No modificar!!'!AJ75=2,'No modificar!!'!W75,IF('No modificar!!'!AJ76=2,'No modificar!!'!W76,'No modificar!!'!W77)))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P79" s="73" t="n">
         <f aca="false">IF('No modificar!!'!AJ74=2,'No modificar!!'!X74,IF('No modificar!!'!AJ75=2,'No modificar!!'!X75,IF('No modificar!!'!AJ76=2,'No modificar!!'!X76,'No modificar!!'!X77)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q79" s="73" t="n">
         <f aca="false">IF('No modificar!!'!AJ74=2,'No modificar!!'!Y74,IF('No modificar!!'!AJ75=2,'No modificar!!'!Y75,IF('No modificar!!'!AJ76=2,'No modificar!!'!Y76,'No modificar!!'!Y77)))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R79" s="73" t="n">
         <f aca="false">IF('No modificar!!'!AJ74=2,'No modificar!!'!Z74,IF('No modificar!!'!AJ75=2,'No modificar!!'!Z75,IF('No modificar!!'!AJ76=2,'No modificar!!'!Z76,'No modificar!!'!Z77)))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S79" s="73" t="n">
         <f aca="false">IF('No modificar!!'!AJ74=2,'No modificar!!'!AA74,IF('No modificar!!'!AJ75=2,'No modificar!!'!AA75,IF('No modificar!!'!AJ76=2,'No modificar!!'!AA76,'No modificar!!'!AA77)))</f>
@@ -6888,7 +7012,7 @@
       </c>
       <c r="T79" s="71" t="n">
         <f aca="false">IF('No modificar!!'!AJ74=2,'No modificar!!'!AB74,IF('No modificar!!'!AJ75=2,'No modificar!!'!AB75,IF('No modificar!!'!AJ76=2,'No modificar!!'!AB76,'No modificar!!'!AB77)))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U79" s="68" t="str">
         <f aca="false">IF(AND(T79=T80,S79=S80,Q79=Q80),"!!"," ")</f>
@@ -6920,8 +7044,12 @@
         <f aca="false">D79</f>
         <v>Senegal</v>
       </c>
-      <c r="H80" s="92"/>
-      <c r="I80" s="93"/>
+      <c r="H80" s="92" t="n">
+        <v>2</v>
+      </c>
+      <c r="I80" s="93" t="n">
+        <v>2</v>
+      </c>
       <c r="J80" s="94" t="str">
         <f aca="false">D81</f>
         <v>Japón</v>
@@ -6932,27 +7060,27 @@
       </c>
       <c r="M80" s="74" t="str">
         <f aca="false">IF('No modificar!!'!AJ74=1,'No modificar!!'!U74,IF('No modificar!!'!AJ75=1,'No modificar!!'!U75,IF('No modificar!!'!AJ76=1,'No modificar!!'!U76,'No modificar!!'!U77)))</f>
-        <v>Polonia</v>
+        <v>Japón</v>
       </c>
       <c r="N80" s="75" t="n">
         <f aca="false">IF('No modificar!!'!AJ74=1,'No modificar!!'!V74,IF('No modificar!!'!AJ75=1,'No modificar!!'!V75,IF('No modificar!!'!AJ76=1,'No modificar!!'!V76,'No modificar!!'!V77)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O80" s="76" t="n">
         <f aca="false">IF('No modificar!!'!AJ74=1,'No modificar!!'!W74,IF('No modificar!!'!AJ75=1,'No modificar!!'!W75,IF('No modificar!!'!AJ76=1,'No modificar!!'!W76,'No modificar!!'!W77)))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P80" s="76" t="n">
         <f aca="false">IF('No modificar!!'!AJ74=1,'No modificar!!'!X74,IF('No modificar!!'!AJ75=1,'No modificar!!'!X75,IF('No modificar!!'!AJ76=1,'No modificar!!'!X76,'No modificar!!'!X77)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q80" s="76" t="n">
         <f aca="false">IF('No modificar!!'!AJ74=1,'No modificar!!'!Y74,IF('No modificar!!'!AJ75=1,'No modificar!!'!Y75,IF('No modificar!!'!AJ76=1,'No modificar!!'!Y76,'No modificar!!'!Y77)))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R80" s="76" t="n">
         <f aca="false">IF('No modificar!!'!AJ74=1,'No modificar!!'!Z74,IF('No modificar!!'!AJ75=1,'No modificar!!'!Z75,IF('No modificar!!'!AJ76=1,'No modificar!!'!Z76,'No modificar!!'!Z77)))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S80" s="76" t="n">
         <f aca="false">IF('No modificar!!'!AJ74=1,'No modificar!!'!AA74,IF('No modificar!!'!AJ75=1,'No modificar!!'!AA75,IF('No modificar!!'!AJ76=1,'No modificar!!'!AA76,'No modificar!!'!AA77)))</f>
@@ -6960,7 +7088,7 @@
       </c>
       <c r="T80" s="74" t="n">
         <f aca="false">IF('No modificar!!'!AJ74=1,'No modificar!!'!AB74,IF('No modificar!!'!AJ75=1,'No modificar!!'!AB75,IF('No modificar!!'!AJ76=1,'No modificar!!'!AB76,'No modificar!!'!AB77)))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U80" s="68"/>
       <c r="V80" s="69"/>
@@ -6986,8 +7114,12 @@
         <f aca="false">D78</f>
         <v>Polonia</v>
       </c>
-      <c r="H81" s="92"/>
-      <c r="I81" s="93"/>
+      <c r="H81" s="92" t="n">
+        <v>1</v>
+      </c>
+      <c r="I81" s="93" t="n">
+        <v>0</v>
+      </c>
       <c r="J81" s="94" t="str">
         <f aca="false">D81</f>
         <v>Japón</v>
@@ -6998,31 +7130,31 @@
       </c>
       <c r="M81" s="79" t="str">
         <f aca="false">IF('No modificar!!'!AJ74=0,'No modificar!!'!U74,IF('No modificar!!'!AJ75=0,'No modificar!!'!U75,IF('No modificar!!'!AJ76=0,'No modificar!!'!U76,'No modificar!!'!U77)))</f>
-        <v>Senegal</v>
+        <v>Polonia</v>
       </c>
       <c r="N81" s="80" t="n">
         <f aca="false">IF('No modificar!!'!AJ74=0,'No modificar!!'!V74,IF('No modificar!!'!AJ75=0,'No modificar!!'!V75,IF('No modificar!!'!AJ76=0,'No modificar!!'!V76,'No modificar!!'!V77)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O81" s="81" t="n">
         <f aca="false">IF('No modificar!!'!AJ74=0,'No modificar!!'!W74,IF('No modificar!!'!AJ75=0,'No modificar!!'!W75,IF('No modificar!!'!AJ76=0,'No modificar!!'!W76,'No modificar!!'!W77)))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P81" s="81" t="n">
         <f aca="false">IF('No modificar!!'!AJ74=0,'No modificar!!'!X74,IF('No modificar!!'!AJ75=0,'No modificar!!'!X75,IF('No modificar!!'!AJ76=0,'No modificar!!'!X76,'No modificar!!'!X77)))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q81" s="81" t="n">
         <f aca="false">IF('No modificar!!'!AJ74=0,'No modificar!!'!Y74,IF('No modificar!!'!AJ75=0,'No modificar!!'!Y75,IF('No modificar!!'!AJ76=0,'No modificar!!'!Y76,'No modificar!!'!Y77)))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R81" s="81" t="n">
         <f aca="false">IF('No modificar!!'!AJ74=0,'No modificar!!'!Z74,IF('No modificar!!'!AJ75=0,'No modificar!!'!Z75,IF('No modificar!!'!AJ76=0,'No modificar!!'!Z76,'No modificar!!'!Z77)))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S81" s="81" t="n">
         <f aca="false">IF('No modificar!!'!AJ74=0,'No modificar!!'!AA74,IF('No modificar!!'!AJ75=0,'No modificar!!'!AA75,IF('No modificar!!'!AJ76=0,'No modificar!!'!AA76,'No modificar!!'!AA77)))</f>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="T81" s="79" t="n">
         <f aca="false">IF('No modificar!!'!AJ74=0,'No modificar!!'!AB74,IF('No modificar!!'!AJ75=0,'No modificar!!'!AB75,IF('No modificar!!'!AJ76=0,'No modificar!!'!AB76,'No modificar!!'!AB77)))</f>
@@ -7050,8 +7182,12 @@
         <f aca="false">D79</f>
         <v>Senegal</v>
       </c>
-      <c r="H82" s="95"/>
-      <c r="I82" s="96"/>
+      <c r="H82" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" s="96" t="n">
+        <v>1</v>
+      </c>
       <c r="J82" s="97" t="str">
         <f aca="false">D80</f>
         <v>Colombia</v>
@@ -7375,8 +7511,8 @@
   </sheetPr>
   <dimension ref="A1:AD61"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J35" activeCellId="0" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7583,9 +7719,11 @@
       </c>
       <c r="D7" s="114" t="str">
         <f aca="false">IF(AND('Fase de grupos'!T8='Fase de grupos'!T9,'Fase de grupos'!S8='Fase de grupos'!S9,'Fase de grupos'!Q8='Fase de grupos'!Q9),"Manualmente",'Fase de grupos'!M8)</f>
-        <v>Rusia</v>
-      </c>
-      <c r="E7" s="115"/>
+        <v>Uruguay</v>
+      </c>
+      <c r="E7" s="115" t="n">
+        <v>2</v>
+      </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -7617,13 +7755,15 @@
       </c>
       <c r="D8" s="114" t="str">
         <f aca="false">IF(OR(AND('Fase de grupos'!T18='Fase de grupos'!T19,'Fase de grupos'!S18='Fase de grupos'!S19,'Fase de grupos'!Q18='Fase de grupos'!Q19),AND('Fase de grupos'!T20='Fase de grupos'!T19,'Fase de grupos'!S20='Fase de grupos'!S19,'Fase de grupos'!Q20='Fase de grupos'!Q19)),"Manualmente",'Fase de grupos'!M19)</f>
-        <v>Manualmente</v>
-      </c>
-      <c r="E8" s="115"/>
+        <v>Portugal</v>
+      </c>
+      <c r="E8" s="115" t="n">
+        <v>1</v>
+      </c>
       <c r="F8" s="10"/>
       <c r="G8" s="114" t="str">
         <f aca="false">IF(E7&gt;E8,D7,IF(E8&gt;E7,D8,"Manualmente"))</f>
-        <v>Manualmente</v>
+        <v>Uruguay</v>
       </c>
       <c r="H8" s="114"/>
       <c r="I8" s="10"/>
@@ -7691,11 +7831,13 @@
         <f aca="false">IF(AND('Fase de grupos'!T28='Fase de grupos'!T29,'Fase de grupos'!S28='Fase de grupos'!S29,'Fase de grupos'!Q28='Fase de grupos'!Q29),"Manualmente",'Fase de grupos'!M28)</f>
         <v>Francia</v>
       </c>
-      <c r="E10" s="115"/>
+      <c r="E10" s="115" t="n">
+        <v>4</v>
+      </c>
       <c r="F10" s="10"/>
       <c r="G10" s="114" t="str">
         <f aca="false">IF(E10&gt;E11,D10,IF(E11&gt;E10,D11,"Manualmente"))</f>
-        <v>Manualmente</v>
+        <v>Francia</v>
       </c>
       <c r="H10" s="114"/>
       <c r="I10" s="10"/>
@@ -7727,9 +7869,11 @@
       </c>
       <c r="D11" s="114" t="str">
         <f aca="false">IF(OR(AND('Fase de grupos'!T38='Fase de grupos'!T39,'Fase de grupos'!S38='Fase de grupos'!S39,'Fase de grupos'!Q38='Fase de grupos'!Q39),AND('Fase de grupos'!T40='Fase de grupos'!T39,'Fase de grupos'!S40='Fase de grupos'!S39,'Fase de grupos'!Q40='Fase de grupos'!Q39)),"Manualmente",'Fase de grupos'!M39)</f>
-        <v>Manualmente</v>
-      </c>
-      <c r="E11" s="115"/>
+        <v>Argentina</v>
+      </c>
+      <c r="E11" s="115" t="n">
+        <v>3</v>
+      </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -7831,9 +7975,11 @@
       </c>
       <c r="D14" s="114" t="str">
         <f aca="false">IF(AND('Fase de grupos'!T48='Fase de grupos'!T49,'Fase de grupos'!S48='Fase de grupos'!S49,'Fase de grupos'!Q48='Fase de grupos'!Q49),"Manualmente",'Fase de grupos'!M48)</f>
-        <v>Serbia</v>
-      </c>
-      <c r="E14" s="115"/>
+        <v>Brasil</v>
+      </c>
+      <c r="E14" s="115" t="n">
+        <v>2</v>
+      </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -7867,13 +8013,15 @@
       </c>
       <c r="D15" s="114" t="str">
         <f aca="false">IF(OR(AND('Fase de grupos'!T58='Fase de grupos'!T59,'Fase de grupos'!S58='Fase de grupos'!S59,'Fase de grupos'!Q58='Fase de grupos'!Q59),AND('Fase de grupos'!T60='Fase de grupos'!T59,'Fase de grupos'!S60='Fase de grupos'!S59,'Fase de grupos'!Q60='Fase de grupos'!Q59)),"Manualmente",'Fase de grupos'!M59)</f>
-        <v>Manualmente</v>
-      </c>
-      <c r="E15" s="115"/>
+        <v>México</v>
+      </c>
+      <c r="E15" s="115" t="n">
+        <v>0</v>
+      </c>
       <c r="F15" s="10"/>
       <c r="G15" s="114" t="str">
         <f aca="false">IF(E14&gt;E15,D14,IF(E15&gt;E14,D15,"Manualmente"))</f>
-        <v>Manualmente</v>
+        <v>Brasil</v>
       </c>
       <c r="H15" s="114"/>
       <c r="I15" s="10"/>
@@ -7942,11 +8090,13 @@
         <f aca="false">IF(AND('Fase de grupos'!T68='Fase de grupos'!T69,'Fase de grupos'!S68='Fase de grupos'!S69,'Fase de grupos'!Q68='Fase de grupos'!Q69),"Manualmente",'Fase de grupos'!M68)</f>
         <v>Bélgica</v>
       </c>
-      <c r="E17" s="115"/>
+      <c r="E17" s="115" t="n">
+        <v>3</v>
+      </c>
       <c r="F17" s="10"/>
       <c r="G17" s="114" t="str">
         <f aca="false">IF(E17&gt;E18,D17,IF(E18&gt;E17,D18,"Manualmente"))</f>
-        <v>Manualmente</v>
+        <v>Bélgica</v>
       </c>
       <c r="H17" s="114"/>
       <c r="I17" s="10"/>
@@ -7974,11 +8124,12 @@
       <c r="C18" s="113" t="s">
         <v>171</v>
       </c>
-      <c r="D18" s="114" t="str">
-        <f aca="false">IF(OR(AND('Fase de grupos'!T78='Fase de grupos'!T79,'Fase de grupos'!S78='Fase de grupos'!S79,'Fase de grupos'!Q78='Fase de grupos'!Q79),AND('Fase de grupos'!T80='Fase de grupos'!T79,'Fase de grupos'!S80='Fase de grupos'!S79,'Fase de grupos'!Q80='Fase de grupos'!Q79)),"Manualmente",'Fase de grupos'!M79)</f>
-        <v>Manualmente</v>
-      </c>
-      <c r="E18" s="115"/>
+      <c r="D18" s="114" t="s">
+        <v>147</v>
+      </c>
+      <c r="E18" s="115" t="n">
+        <v>2</v>
+      </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
@@ -8069,9 +8220,11 @@
       </c>
       <c r="D21" s="114" t="str">
         <f aca="false">IF(AND('Fase de grupos'!T18='Fase de grupos'!T19,'Fase de grupos'!S18='Fase de grupos'!S19,'Fase de grupos'!Q18='Fase de grupos'!Q19),"Manualmente",'Fase de grupos'!M18)</f>
-        <v>Irán</v>
-      </c>
-      <c r="E21" s="115"/>
+        <v>España</v>
+      </c>
+      <c r="E21" s="115" t="n">
+        <v>1</v>
+      </c>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
@@ -8102,13 +8255,14 @@
       </c>
       <c r="D22" s="114" t="str">
         <f aca="false">IF(OR(AND('Fase de grupos'!T8='Fase de grupos'!T9,'Fase de grupos'!S8='Fase de grupos'!S9,'Fase de grupos'!Q8='Fase de grupos'!Q9),AND('Fase de grupos'!T10='Fase de grupos'!T9,'Fase de grupos'!S10='Fase de grupos'!S9,'Fase de grupos'!Q10='Fase de grupos'!Q9)),"Manualmente",'Fase de grupos'!M9)</f>
-        <v>Uruguay</v>
-      </c>
-      <c r="E22" s="115"/>
+        <v>Rusia</v>
+      </c>
+      <c r="E22" s="115" t="n">
+        <v>1</v>
+      </c>
       <c r="F22" s="10"/>
-      <c r="G22" s="114" t="str">
-        <f aca="false">IF(E21&gt;E22,D21,IF(E22&gt;E21,D22,"Manualmente"))</f>
-        <v>Manualmente</v>
+      <c r="G22" s="114" t="s">
+        <v>62</v>
       </c>
       <c r="H22" s="114"/>
       <c r="I22" s="10"/>
@@ -8180,11 +8334,12 @@
         <f aca="false">IF(AND('Fase de grupos'!T38='Fase de grupos'!T39,'Fase de grupos'!S38='Fase de grupos'!S39,'Fase de grupos'!Q38='Fase de grupos'!Q39),"Manualmente",'Fase de grupos'!M38)</f>
         <v>Croacia</v>
       </c>
-      <c r="E24" s="115"/>
+      <c r="E24" s="115" t="n">
+        <v>1</v>
+      </c>
       <c r="F24" s="10"/>
-      <c r="G24" s="114" t="str">
-        <f aca="false">IF(E24&gt;E25,D24,IF(E25&gt;E24,D25,"Manualmente"))</f>
-        <v>Manualmente</v>
+      <c r="G24" s="114" t="s">
+        <v>101</v>
       </c>
       <c r="H24" s="114"/>
       <c r="I24" s="10"/>
@@ -8219,7 +8374,9 @@
         <f aca="false">IF(OR(AND('Fase de grupos'!T28='Fase de grupos'!T29,'Fase de grupos'!S28='Fase de grupos'!S29,'Fase de grupos'!Q28='Fase de grupos'!Q29),AND('Fase de grupos'!T30='Fase de grupos'!T29,'Fase de grupos'!S30='Fase de grupos'!S29,'Fase de grupos'!Q30='Fase de grupos'!Q29)),"Manualmente",'Fase de grupos'!M29)</f>
         <v>Dinamarca</v>
       </c>
-      <c r="E25" s="115"/>
+      <c r="E25" s="115" t="n">
+        <v>1</v>
+      </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
@@ -8310,9 +8467,11 @@
       </c>
       <c r="D28" s="114" t="str">
         <f aca="false">IF(AND('Fase de grupos'!T58='Fase de grupos'!T59,'Fase de grupos'!S58='Fase de grupos'!S59,'Fase de grupos'!Q58='Fase de grupos'!Q59),"Manualmente",'Fase de grupos'!M58)</f>
-        <v>Manualmente</v>
-      </c>
-      <c r="E28" s="115"/>
+        <v>Suecia</v>
+      </c>
+      <c r="E28" s="115" t="n">
+        <v>1</v>
+      </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
@@ -8343,13 +8502,15 @@
       </c>
       <c r="D29" s="114" t="str">
         <f aca="false">IF(OR(AND('Fase de grupos'!T48='Fase de grupos'!T49,'Fase de grupos'!S48='Fase de grupos'!S49,'Fase de grupos'!Q48='Fase de grupos'!Q49),AND('Fase de grupos'!T50='Fase de grupos'!T49,'Fase de grupos'!S50='Fase de grupos'!S49,'Fase de grupos'!Q50='Fase de grupos'!Q49)),"Manualmente",'Fase de grupos'!M49)</f>
-        <v>Manualmente</v>
-      </c>
-      <c r="E29" s="115"/>
+        <v>Suiza</v>
+      </c>
+      <c r="E29" s="115" t="n">
+        <v>0</v>
+      </c>
       <c r="F29" s="10"/>
       <c r="G29" s="114" t="str">
         <f aca="false">IF(E28&gt;E29,D28,IF(E29&gt;E28,D29,"Manualmente"))</f>
-        <v>Manualmente</v>
+        <v>Suecia</v>
       </c>
       <c r="H29" s="114"/>
       <c r="I29" s="10"/>
@@ -8414,13 +8575,14 @@
       </c>
       <c r="D31" s="114" t="str">
         <f aca="false">IF(AND('Fase de grupos'!T78='Fase de grupos'!T79,'Fase de grupos'!S78='Fase de grupos'!S79,'Fase de grupos'!Q78='Fase de grupos'!Q79),"Manualmente",'Fase de grupos'!M78)</f>
-        <v>Manualmente</v>
-      </c>
-      <c r="E31" s="115"/>
+        <v>Colombia</v>
+      </c>
+      <c r="E31" s="115" t="n">
+        <v>1</v>
+      </c>
       <c r="F31" s="10"/>
-      <c r="G31" s="114" t="str">
-        <f aca="false">IF(E31&gt;E32,D31,IF(E32&gt;E31,D32,"Manualmente"))</f>
-        <v>Manualmente</v>
+      <c r="G31" s="114" t="s">
+        <v>136</v>
       </c>
       <c r="H31" s="114"/>
       <c r="I31" s="10"/>
@@ -8452,7 +8614,9 @@
         <f aca="false">IF(OR(AND('Fase de grupos'!T68='Fase de grupos'!T69,'Fase de grupos'!S68='Fase de grupos'!S69,'Fase de grupos'!Q68='Fase de grupos'!Q69),AND('Fase de grupos'!T70='Fase de grupos'!T69,'Fase de grupos'!S70='Fase de grupos'!S69,'Fase de grupos'!Q70='Fase de grupos'!Q69)),"Manualmente",'Fase de grupos'!M69)</f>
         <v>Inglaterra</v>
       </c>
-      <c r="E32" s="115"/>
+      <c r="E32" s="115" t="n">
+        <v>1</v>
+      </c>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
@@ -9582,11 +9746,11 @@
       </c>
       <c r="D16" s="23" t="n">
         <f aca="false">'Fase de grupos'!H77</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="23" t="n">
         <f aca="false">'Fase de grupos'!I77</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F16" s="24" t="str">
         <f aca="false">'Fase de grupos'!J77</f>
@@ -9603,11 +9767,11 @@
       </c>
       <c r="D17" s="27" t="n">
         <f aca="false">'Fase de grupos'!H78</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="27" t="n">
         <f aca="false">'Fase de grupos'!I78</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F17" s="122" t="str">
         <f aca="false">'Fase de grupos'!J78</f>
@@ -9632,11 +9796,11 @@
       </c>
       <c r="D20" s="119" t="n">
         <f aca="false">'Fase de grupos'!H9</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E20" s="119" t="n">
         <f aca="false">'Fase de grupos'!I9</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="120" t="str">
         <f aca="false">'Fase de grupos'!J9</f>
@@ -9657,7 +9821,7 @@
       </c>
       <c r="E21" s="23" t="n">
         <f aca="false">'Fase de grupos'!I10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="24" t="str">
         <f aca="false">'Fase de grupos'!J10</f>
@@ -9674,7 +9838,7 @@
       </c>
       <c r="D22" s="23" t="n">
         <f aca="false">'Fase de grupos'!H19</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="23" t="n">
         <f aca="false">'Fase de grupos'!I19</f>
@@ -9695,7 +9859,7 @@
       </c>
       <c r="D23" s="23" t="n">
         <f aca="false">'Fase de grupos'!H20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="23" t="n">
         <f aca="false">'Fase de grupos'!I20</f>
@@ -9716,7 +9880,7 @@
       </c>
       <c r="D24" s="23" t="n">
         <f aca="false">'Fase de grupos'!H29</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="23" t="n">
         <f aca="false">'Fase de grupos'!I29</f>
@@ -9737,11 +9901,11 @@
       </c>
       <c r="D25" s="23" t="n">
         <f aca="false">'Fase de grupos'!H30</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="23" t="n">
         <f aca="false">'Fase de grupos'!I30</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="24" t="str">
         <f aca="false">'Fase de grupos'!J30</f>
@@ -9762,7 +9926,7 @@
       </c>
       <c r="E26" s="23" t="n">
         <f aca="false">'Fase de grupos'!I39</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F26" s="24" t="str">
         <f aca="false">'Fase de grupos'!J39</f>
@@ -9783,7 +9947,7 @@
       </c>
       <c r="E27" s="23" t="n">
         <f aca="false">'Fase de grupos'!I40</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F27" s="24" t="str">
         <f aca="false">'Fase de grupos'!J40</f>
@@ -9800,7 +9964,7 @@
       </c>
       <c r="D28" s="23" t="n">
         <f aca="false">'Fase de grupos'!H49</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E28" s="23" t="n">
         <f aca="false">'Fase de grupos'!I49</f>
@@ -9821,11 +9985,11 @@
       </c>
       <c r="D29" s="23" t="n">
         <f aca="false">'Fase de grupos'!H50</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E29" s="23" t="n">
         <f aca="false">'Fase de grupos'!I50</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" s="24" t="str">
         <f aca="false">'Fase de grupos'!J50</f>
@@ -9842,11 +10006,11 @@
       </c>
       <c r="D30" s="23" t="n">
         <f aca="false">'Fase de grupos'!H59</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E30" s="23" t="n">
         <f aca="false">'Fase de grupos'!I59</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="24" t="str">
         <f aca="false">'Fase de grupos'!J59</f>
@@ -9863,11 +10027,11 @@
       </c>
       <c r="D31" s="23" t="n">
         <f aca="false">'Fase de grupos'!H60</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E31" s="23" t="n">
         <f aca="false">'Fase de grupos'!I60</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" s="24" t="str">
         <f aca="false">'Fase de grupos'!J60</f>
@@ -9884,11 +10048,11 @@
       </c>
       <c r="D32" s="23" t="n">
         <f aca="false">'Fase de grupos'!H69</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E32" s="23" t="n">
         <f aca="false">'Fase de grupos'!I69</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F32" s="24" t="str">
         <f aca="false">'Fase de grupos'!J69</f>
@@ -9905,11 +10069,11 @@
       </c>
       <c r="D33" s="23" t="n">
         <f aca="false">'Fase de grupos'!H70</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" s="23" t="n">
         <f aca="false">'Fase de grupos'!I70</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F33" s="24" t="str">
         <f aca="false">'Fase de grupos'!J70</f>
@@ -9930,7 +10094,7 @@
       </c>
       <c r="E34" s="23" t="n">
         <f aca="false">'Fase de grupos'!I79</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F34" s="24" t="str">
         <f aca="false">'Fase de grupos'!J79</f>
@@ -9947,11 +10111,11 @@
       </c>
       <c r="D35" s="27" t="n">
         <f aca="false">'Fase de grupos'!H80</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E35" s="27" t="n">
         <f aca="false">'Fase de grupos'!I80</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F35" s="122" t="str">
         <f aca="false">'Fase de grupos'!J80</f>
@@ -9980,7 +10144,7 @@
       </c>
       <c r="E38" s="119" t="n">
         <f aca="false">'Fase de grupos'!I11</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F38" s="120" t="str">
         <f aca="false">'Fase de grupos'!J11</f>
@@ -9997,11 +10161,11 @@
       </c>
       <c r="D39" s="23" t="n">
         <f aca="false">'Fase de grupos'!H12</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E39" s="23" t="n">
         <f aca="false">'Fase de grupos'!I12</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" s="24" t="str">
         <f aca="false">'Fase de grupos'!J12</f>
@@ -10018,11 +10182,11 @@
       </c>
       <c r="D40" s="23" t="n">
         <f aca="false">'Fase de grupos'!H21</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" s="23" t="n">
         <f aca="false">'Fase de grupos'!I21</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" s="24" t="str">
         <f aca="false">'Fase de grupos'!J21</f>
@@ -10039,11 +10203,11 @@
       </c>
       <c r="D41" s="23" t="n">
         <f aca="false">'Fase de grupos'!H22</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E41" s="23" t="n">
         <f aca="false">'Fase de grupos'!I22</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F41" s="24" t="str">
         <f aca="false">'Fase de grupos'!J22</f>
@@ -10085,7 +10249,7 @@
       </c>
       <c r="E43" s="23" t="n">
         <f aca="false">'Fase de grupos'!I32</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F43" s="24" t="str">
         <f aca="false">'Fase de grupos'!J32</f>
@@ -10102,11 +10266,11 @@
       </c>
       <c r="D44" s="23" t="n">
         <f aca="false">'Fase de grupos'!H41</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E44" s="23" t="n">
         <f aca="false">'Fase de grupos'!I41</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" s="24" t="str">
         <f aca="false">'Fase de grupos'!J41</f>
@@ -10123,11 +10287,11 @@
       </c>
       <c r="D45" s="23" t="n">
         <f aca="false">'Fase de grupos'!H42</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" s="23" t="n">
         <f aca="false">'Fase de grupos'!I42</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F45" s="24" t="str">
         <f aca="false">'Fase de grupos'!J42</f>
@@ -10144,7 +10308,7 @@
       </c>
       <c r="D46" s="23" t="n">
         <f aca="false">'Fase de grupos'!H51</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E46" s="23" t="n">
         <f aca="false">'Fase de grupos'!I51</f>
@@ -10165,11 +10329,11 @@
       </c>
       <c r="D47" s="23" t="n">
         <f aca="false">'Fase de grupos'!H52</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E47" s="23" t="n">
         <f aca="false">'Fase de grupos'!I52</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F47" s="24" t="str">
         <f aca="false">'Fase de grupos'!J52</f>
@@ -10190,7 +10354,7 @@
       </c>
       <c r="E48" s="23" t="n">
         <f aca="false">'Fase de grupos'!I61</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F48" s="24" t="str">
         <f aca="false">'Fase de grupos'!J61</f>
@@ -10211,7 +10375,7 @@
       </c>
       <c r="E49" s="23" t="n">
         <f aca="false">'Fase de grupos'!I62</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F49" s="24" t="str">
         <f aca="false">'Fase de grupos'!J62</f>
@@ -10228,7 +10392,7 @@
       </c>
       <c r="D50" s="23" t="n">
         <f aca="false">'Fase de grupos'!H71</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" s="23" t="n">
         <f aca="false">'Fase de grupos'!I71</f>
@@ -10249,11 +10413,11 @@
       </c>
       <c r="D51" s="23" t="n">
         <f aca="false">'Fase de grupos'!H72</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" s="23" t="n">
         <f aca="false">'Fase de grupos'!I72</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F51" s="24" t="str">
         <f aca="false">'Fase de grupos'!J72</f>
@@ -10270,7 +10434,7 @@
       </c>
       <c r="D52" s="23" t="n">
         <f aca="false">'Fase de grupos'!H81</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" s="23" t="n">
         <f aca="false">'Fase de grupos'!I81</f>
@@ -10295,7 +10459,7 @@
       </c>
       <c r="E53" s="27" t="n">
         <f aca="false">'Fase de grupos'!I82</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" s="122" t="str">
         <f aca="false">'Fase de grupos'!J82</f>
@@ -10322,19 +10486,19 @@
       </c>
       <c r="C56" s="123" t="str">
         <f aca="false">'Fase final'!D7</f>
-        <v>Rusia</v>
+        <v>Uruguay</v>
       </c>
       <c r="D56" s="123" t="n">
         <f aca="false">'Fase final'!E7</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E56" s="123" t="n">
         <f aca="false">'Fase final'!E8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" s="124" t="str">
         <f aca="false">'Fase final'!D8</f>
-        <v>Manualmente</v>
+        <v>Portugal</v>
       </c>
     </row>
     <row r="57" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10347,15 +10511,15 @@
       </c>
       <c r="D57" s="60" t="n">
         <f aca="false">'Fase final'!E10</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E57" s="60" t="n">
         <f aca="false">'Fase final'!E11</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F57" s="125" t="str">
         <f aca="false">'Fase final'!D11</f>
-        <v>Manualmente</v>
+        <v>Argentina</v>
       </c>
     </row>
     <row r="58" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10364,11 +10528,11 @@
       </c>
       <c r="C58" s="60" t="str">
         <f aca="false">'Fase final'!D14</f>
-        <v>Serbia</v>
+        <v>Brasil</v>
       </c>
       <c r="D58" s="60" t="n">
         <f aca="false">'Fase final'!E14</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E58" s="60" t="n">
         <f aca="false">'Fase final'!E15</f>
@@ -10376,7 +10540,7 @@
       </c>
       <c r="F58" s="125" t="str">
         <f aca="false">'Fase final'!D15</f>
-        <v>Manualmente</v>
+        <v>México</v>
       </c>
     </row>
     <row r="59" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10389,15 +10553,15 @@
       </c>
       <c r="D59" s="60" t="n">
         <f aca="false">'Fase final'!E17</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E59" s="60" t="n">
         <f aca="false">'Fase final'!E18</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F59" s="125" t="str">
         <f aca="false">'Fase final'!D18</f>
-        <v>Manualmente</v>
+        <v>Japón</v>
       </c>
     </row>
     <row r="60" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10406,19 +10570,19 @@
       </c>
       <c r="C60" s="60" t="str">
         <f aca="false">'Fase final'!D21</f>
-        <v>Irán</v>
+        <v>España</v>
       </c>
       <c r="D60" s="60" t="n">
         <f aca="false">'Fase final'!E21</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60" s="60" t="n">
         <f aca="false">'Fase final'!E22</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" s="125" t="str">
         <f aca="false">'Fase final'!D22</f>
-        <v>Uruguay</v>
+        <v>Rusia</v>
       </c>
     </row>
     <row r="61" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10431,11 +10595,11 @@
       </c>
       <c r="D61" s="60" t="n">
         <f aca="false">'Fase final'!E24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61" s="60" t="n">
         <f aca="false">'Fase final'!E25</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" s="125" t="str">
         <f aca="false">'Fase final'!D25</f>
@@ -10448,11 +10612,11 @@
       </c>
       <c r="C62" s="60" t="str">
         <f aca="false">'Fase final'!D28</f>
-        <v>Manualmente</v>
+        <v>Suecia</v>
       </c>
       <c r="D62" s="60" t="n">
         <f aca="false">'Fase final'!E28</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62" s="60" t="n">
         <f aca="false">'Fase final'!E29</f>
@@ -10460,7 +10624,7 @@
       </c>
       <c r="F62" s="125" t="str">
         <f aca="false">'Fase final'!D29</f>
-        <v>Manualmente</v>
+        <v>Suiza</v>
       </c>
     </row>
     <row r="63" s="8" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10469,15 +10633,15 @@
       </c>
       <c r="C63" s="126" t="str">
         <f aca="false">'Fase final'!D31</f>
-        <v>Manualmente</v>
+        <v>Colombia</v>
       </c>
       <c r="D63" s="126" t="n">
         <f aca="false">'Fase final'!E31</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" s="126" t="n">
         <f aca="false">'Fase final'!E32</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" s="127" t="str">
         <f aca="false">'Fase final'!D32</f>
@@ -10498,7 +10662,7 @@
       </c>
       <c r="C66" s="123" t="str">
         <f aca="false">'Fase final'!G8</f>
-        <v>Manualmente</v>
+        <v>Uruguay</v>
       </c>
       <c r="D66" s="123" t="n">
         <f aca="false">'Fase final'!H8</f>
@@ -10510,7 +10674,7 @@
       </c>
       <c r="F66" s="129" t="str">
         <f aca="false">'Fase final'!G10</f>
-        <v>Manualmente</v>
+        <v>Francia</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10519,7 +10683,7 @@
       </c>
       <c r="C67" s="60" t="str">
         <f aca="false">'Fase final'!G15</f>
-        <v>Manualmente</v>
+        <v>Brasil</v>
       </c>
       <c r="D67" s="60" t="n">
         <f aca="false">'Fase final'!H15</f>
@@ -10531,7 +10695,7 @@
       </c>
       <c r="F67" s="130" t="str">
         <f aca="false">'Fase final'!G17</f>
-        <v>Manualmente</v>
+        <v>Bélgica</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10540,7 +10704,7 @@
       </c>
       <c r="C68" s="60" t="str">
         <f aca="false">'Fase final'!G22</f>
-        <v>Manualmente</v>
+        <v>Rusia</v>
       </c>
       <c r="D68" s="60" t="n">
         <f aca="false">'Fase final'!H22</f>
@@ -10552,7 +10716,7 @@
       </c>
       <c r="F68" s="130" t="str">
         <f aca="false">'Fase final'!G24</f>
-        <v>Manualmente</v>
+        <v>Croacia</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10561,7 +10725,7 @@
       </c>
       <c r="C69" s="126" t="str">
         <f aca="false">'Fase final'!G29</f>
-        <v>Manualmente</v>
+        <v>Suecia</v>
       </c>
       <c r="D69" s="126" t="n">
         <f aca="false">'Fase final'!H29</f>
@@ -10573,7 +10737,7 @@
       </c>
       <c r="F69" s="131" t="str">
         <f aca="false">'Fase final'!G31</f>
-        <v>Manualmente</v>
+        <v>Inglaterra</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -10669,7 +10833,7 @@
       </c>
       <c r="C80" s="120" t="str">
         <f aca="false">'Fase final'!D7</f>
-        <v>Rusia</v>
+        <v>Uruguay</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10678,7 +10842,7 @@
       </c>
       <c r="C81" s="24" t="str">
         <f aca="false">'Fase final'!D22</f>
-        <v>Uruguay</v>
+        <v>Rusia</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10687,7 +10851,7 @@
       </c>
       <c r="C82" s="24" t="str">
         <f aca="false">'Fase final'!D21</f>
-        <v>Irán</v>
+        <v>España</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10696,7 +10860,7 @@
       </c>
       <c r="C83" s="24" t="str">
         <f aca="false">'Fase final'!D8</f>
-        <v>Manualmente</v>
+        <v>Portugal</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10732,7 +10896,7 @@
       </c>
       <c r="C87" s="24" t="str">
         <f aca="false">'Fase final'!D11</f>
-        <v>Manualmente</v>
+        <v>Argentina</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
@@ -10743,7 +10907,7 @@
       </c>
       <c r="C88" s="24" t="str">
         <f aca="false">'Fase final'!D14</f>
-        <v>Serbia</v>
+        <v>Brasil</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
@@ -10754,7 +10918,7 @@
       </c>
       <c r="C89" s="24" t="str">
         <f aca="false">'Fase final'!D29</f>
-        <v>Manualmente</v>
+        <v>Suiza</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
@@ -10765,7 +10929,7 @@
       </c>
       <c r="C90" s="24" t="str">
         <f aca="false">'Fase final'!D28</f>
-        <v>Manualmente</v>
+        <v>Suecia</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -10776,7 +10940,7 @@
       </c>
       <c r="C91" s="24" t="str">
         <f aca="false">'Fase final'!D15</f>
-        <v>Manualmente</v>
+        <v>México</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
@@ -10809,7 +10973,7 @@
       </c>
       <c r="C94" s="24" t="str">
         <f aca="false">'Fase final'!D31</f>
-        <v>Manualmente</v>
+        <v>Colombia</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -10820,7 +10984,7 @@
       </c>
       <c r="C95" s="122" t="str">
         <f aca="false">'Fase final'!D18</f>
-        <v>Manualmente</v>
+        <v>Japón</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -10843,7 +11007,7 @@
       </c>
       <c r="C98" s="120" t="str">
         <f aca="false">'Fase final'!G8</f>
-        <v>Manualmente</v>
+        <v>Uruguay</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
@@ -10854,7 +11018,7 @@
       </c>
       <c r="C99" s="24" t="str">
         <f aca="false">'Fase final'!G10</f>
-        <v>Manualmente</v>
+        <v>Francia</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
@@ -10865,7 +11029,7 @@
       </c>
       <c r="C100" s="24" t="str">
         <f aca="false">'Fase final'!G15</f>
-        <v>Manualmente</v>
+        <v>Brasil</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
@@ -10876,7 +11040,7 @@
       </c>
       <c r="C101" s="24" t="str">
         <f aca="false">'Fase final'!G17</f>
-        <v>Manualmente</v>
+        <v>Bélgica</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
@@ -10887,7 +11051,7 @@
       </c>
       <c r="C102" s="24" t="str">
         <f aca="false">'Fase final'!G22</f>
-        <v>Manualmente</v>
+        <v>Rusia</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
@@ -10898,7 +11062,7 @@
       </c>
       <c r="C103" s="24" t="str">
         <f aca="false">'Fase final'!G24</f>
-        <v>Manualmente</v>
+        <v>Croacia</v>
       </c>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
@@ -10909,7 +11073,7 @@
       </c>
       <c r="C104" s="24" t="str">
         <f aca="false">'Fase final'!G29</f>
-        <v>Manualmente</v>
+        <v>Suecia</v>
       </c>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
@@ -10920,7 +11084,7 @@
       </c>
       <c r="C105" s="122" t="str">
         <f aca="false">'Fase final'!G31</f>
-        <v>Manualmente</v>
+        <v>Inglaterra</v>
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
@@ -11205,31 +11369,31 @@
       </c>
       <c r="V4" s="118" t="n">
         <f aca="false">G10</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W4" s="119" t="n">
         <f aca="false">H10</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X4" s="119" t="n">
         <f aca="false">I10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4" s="119" t="n">
         <f aca="false">C4+C6+C8</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Z4" s="119" t="n">
         <f aca="false">D4+D6+D8</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA4" s="119" t="n">
         <f aca="false">Y4-Z4</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB4" s="133" t="n">
         <f aca="false">3*V4+W4</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD4" s="0" t="n">
         <f aca="false">IF(OR(AB4&gt;AB5,AND(AB4=AB5,AA4&gt;AA5),AND(AB4=AB5,AA4=AA5,Y4&gt;Y5)),1,0)</f>
@@ -11241,15 +11405,15 @@
       </c>
       <c r="AF4" s="0" t="n">
         <f aca="false">IF(OR(AB4&gt;AB7,AND(AB4=AB7,AA4&gt;AA7),AND(AB4=AB7,AA4=AA7,Y4&gt;Y7)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH4" s="0" t="n">
         <f aca="false">SUM(AD4:AF4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ4" s="0" t="n">
         <f aca="false">IF(AND(AH4&lt;&gt;AH5,AH4&lt;&gt;AH6,AH4&lt;&gt;AH7),AH4,IF(AND(AH4=AH5,T4&gt;T5),AH4,IF(AND(AH4=AH5,T5&gt;T4),AH4+1,IF(AND(AH4=AH6,T4&gt;T6),AH4,IF(AND(AH4=AH6,T6&gt;T4),AH4+1,IF(AND(AH4=AH7,T4&gt;T7),AH4,IF(AND(AH4=AH7,T7&gt;T4),AH4+1,)))))))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11309,23 +11473,23 @@
       </c>
       <c r="V5" s="22" t="n">
         <f aca="false">J10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5" s="23" t="n">
         <f aca="false">K10</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X5" s="23" t="n">
         <f aca="false">L10</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y5" s="23" t="n">
         <f aca="false">D4+C7+C9</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z5" s="23" t="n">
         <f aca="false">C4+D7+D9</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AA5" s="23" t="n">
         <f aca="false">Y5-Z5</f>
@@ -11333,7 +11497,7 @@
       </c>
       <c r="AB5" s="134" t="n">
         <f aca="false">3*V5+W5</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD5" s="0" t="n">
         <f aca="false">IF(OR(AB5&gt;AB4,AND(AB5=AB4,AA5&gt;AA4),AND(AB5=AB4,AA5=AA4,Y5&gt;Y4)),1,0)</f>
@@ -11341,7 +11505,7 @@
       </c>
       <c r="AE5" s="0" t="n">
         <f aca="false">IF(OR(AB5&gt;AB6,AND(AB5=AB6,AA5&gt;AA6),AND(AB5=AB6,AA5=AA6,Y5&gt;Y6)),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF5" s="0" t="n">
         <f aca="false">IF(OR(AB5&gt;AB7,AND(AB5=AB7,AA5&gt;AA7),AND(AB5=AB7,AA5=AA7,Y5&gt;Y7)),1,0)</f>
@@ -11349,11 +11513,11 @@
       </c>
       <c r="AH5" s="0" t="n">
         <f aca="false">SUM(AD5:AF5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ5" s="0" t="n">
         <f aca="false">IF(AND(AH5&lt;&gt;AH4,AH5&lt;&gt;AH6,AH5&lt;&gt;AH7),AH5,IF(AND(AH5=AH4,T5&gt;T4),AH5,IF(AND(AH5=AH4,T4&gt;T5),AH5+1,IF(AND(AH5=AH6,T5&gt;T6),AH5,IF(AND(AH5=AH6,T6&gt;T5),AH5+1,IF(AND(AH5=AH7,T5&gt;T7),AH5,IF(AND(AH5=AH7,T5&gt;T4),AH5+1,)))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11363,11 +11527,11 @@
       </c>
       <c r="C6" s="22" t="n">
         <f aca="false">'Fase de grupos'!H9</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6" s="24" t="n">
         <f aca="false">'Fase de grupos'!I9</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1" t="str">
         <f aca="false">'Fase de grupos'!J9</f>
@@ -11375,11 +11539,11 @@
       </c>
       <c r="G6" s="22" t="n">
         <f aca="false">IF(C6&gt;D6,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="23" t="n">
         <f aca="false">IF(C6=D6,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="24" t="n">
         <f aca="false">IF(C6&lt;D6,1,0)</f>
@@ -11394,11 +11558,11 @@
       </c>
       <c r="N6" s="23" t="n">
         <f aca="false">IF(D6=C6,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="24" t="n">
         <f aca="false">IF(D6&lt;C6,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" s="23"/>
       <c r="Q6" s="23"/>
@@ -11417,27 +11581,27 @@
       </c>
       <c r="W6" s="23" t="n">
         <f aca="false">N10</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X6" s="23" t="n">
         <f aca="false">O10</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y6" s="23" t="n">
         <f aca="false">C5+D6+D9</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z6" s="23" t="n">
         <f aca="false">D5+C6+C9</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AA6" s="23" t="n">
         <f aca="false">Y6-Z6</f>
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="AB6" s="134" t="n">
         <f aca="false">3*V6+W6</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD6" s="0" t="n">
         <f aca="false">IF(OR(AB6&gt;AB4,AND(AB6=AB4,AA6&gt;AA4),AND(AB6=AB4,AA6=AA4,Y6&gt;Y4)),1,0)</f>
@@ -11445,7 +11609,7 @@
       </c>
       <c r="AE6" s="0" t="n">
         <f aca="false">IF(OR(AB6&gt;AB5,AND(AB6=AB5,AA6&gt;AA5),AND(AB6=AB5,AA6=AA5,Y6&gt;Y5)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF6" s="0" t="n">
         <f aca="false">IF(OR(AB6&gt;AB7,AND(AB6=AB7,AA6&gt;AA7),AND(AB6=AB7,AA6=AA7,Y6&gt;Y7)),1,0)</f>
@@ -11453,11 +11617,11 @@
       </c>
       <c r="AH6" s="0" t="n">
         <f aca="false">SUM(AD6:AF6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="0" t="n">
         <f aca="false">IF(AND(AH6&lt;&gt;AH4,AH6&lt;&gt;AH5,AH6&lt;&gt;AH7),AH6,IF(AND(AH6=AH4,T6&gt;T4),AH6,IF(AND(AH6=AH4,T4&gt;T6),AH6+1,IF(AND(AH6=AH5,T6&gt;T5),AH6,IF(AND(AH6=AH5,T5&gt;T6),AH6+1,IF(AND(AH6=AH7,T6&gt;T7),AH6,IF(AND(AH6=AH7,T7&gt;T6),AH6+1,)))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11471,7 +11635,7 @@
       </c>
       <c r="D7" s="24" t="n">
         <f aca="false">'Fase de grupos'!I10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1" t="str">
         <f aca="false">'Fase de grupos'!J10</f>
@@ -11486,22 +11650,22 @@
       </c>
       <c r="K7" s="23" t="n">
         <f aca="false">IF(C7=D7,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="24" t="n">
         <f aca="false">IF(C7&lt;D7,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="22"/>
       <c r="N7" s="23"/>
       <c r="O7" s="24"/>
       <c r="P7" s="23" t="n">
         <f aca="false">IF(D7&gt;C7,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="23" t="n">
         <f aca="false">IF(D7=C7,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" s="24" t="n">
         <f aca="false">IF(D7&lt;C7,1,0)</f>
@@ -11517,11 +11681,11 @@
       </c>
       <c r="V7" s="121" t="n">
         <f aca="false">P10</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W7" s="27" t="n">
         <f aca="false">Q10</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X7" s="27" t="n">
         <f aca="false">R10</f>
@@ -11529,7 +11693,7 @@
       </c>
       <c r="Y7" s="27" t="n">
         <f aca="false">D5+D7+D8</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Z7" s="27" t="n">
         <f aca="false">C5+C7+C8</f>
@@ -11537,15 +11701,15 @@
       </c>
       <c r="AA7" s="27" t="n">
         <f aca="false">Y7-Z7</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AB7" s="135" t="n">
         <f aca="false">3*V7+W7</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AD7" s="0" t="n">
         <f aca="false">IF(OR(AB7&gt;AB4,AND(AB7=AB4,AA7&gt;AA4),AND(AB7=AB4,AA7=AA4,Y7&gt;Y4)),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE7" s="0" t="n">
         <f aca="false">IF(OR(AB7&gt;AB5,AND(AB7=AB5,AA7&gt;AA5),AND(AB7=AB5,AA7=AA5,Y7&gt;Y5)),1,0)</f>
@@ -11557,11 +11721,11 @@
       </c>
       <c r="AH7" s="0" t="n">
         <f aca="false">SUM(AD7:AF7)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ7" s="0" t="n">
         <f aca="false">IF(AND(AH7&lt;&gt;AH4,AH7&lt;&gt;AH5,AH7&lt;&gt;AH6),AH7,IF(AND(AH7=AH4,T7&gt;T4),AH7,IF(AND(AH7=AH4,T4&gt;T7),AH7+1,IF(AND(AH7=AH5,T7&gt;T5),AH7,IF(AND(AH7=AH5,T5&gt;T7),AH7+1,IF(AND(AH7=AH6,T7&gt;T6),AH7,IF(AND(AH7=AH6,T6&gt;T7),AH7+1,)))))))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11575,7 +11739,7 @@
       </c>
       <c r="D8" s="24" t="n">
         <f aca="false">'Fase de grupos'!I11</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E8" s="1" t="str">
         <f aca="false">'Fase de grupos'!J11</f>
@@ -11587,11 +11751,11 @@
       </c>
       <c r="H8" s="23" t="n">
         <f aca="false">IF(C8=D8,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="24" t="n">
         <f aca="false">IF(C8&lt;D8,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="22"/>
       <c r="K8" s="23"/>
@@ -11601,11 +11765,11 @@
       <c r="O8" s="24"/>
       <c r="P8" s="23" t="n">
         <f aca="false">IF(D8&gt;C8,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="23" t="n">
         <f aca="false">IF(D8=C8,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" s="24" t="n">
         <f aca="false">IF(D8&lt;C8,1,0)</f>
@@ -11620,11 +11784,11 @@
       </c>
       <c r="C9" s="121" t="n">
         <f aca="false">'Fase de grupos'!H12</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9" s="122" t="n">
         <f aca="false">'Fase de grupos'!I12</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1" t="str">
         <f aca="false">'Fase de grupos'!J12</f>
@@ -11635,11 +11799,11 @@
       <c r="I9" s="24"/>
       <c r="J9" s="22" t="n">
         <f aca="false">IF(C9&gt;D9,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="23" t="n">
         <f aca="false">IF(C9=D9,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="24" t="n">
         <f aca="false">IF(C9&lt;D9,1,0)</f>
@@ -11651,11 +11815,11 @@
       </c>
       <c r="N9" s="23" t="n">
         <f aca="false">IF(D9=C9,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" s="24" t="n">
         <f aca="false">IF(D9&lt;C9,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" s="23"/>
       <c r="Q9" s="23"/>
@@ -11665,27 +11829,27 @@
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G10" s="132" t="n">
         <f aca="false">SUM(G4:G9)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" s="136" t="n">
         <f aca="false">SUM(H4:H9)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" s="19" t="n">
         <f aca="false">SUM(I4:I9)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="132" t="n">
         <f aca="false">SUM(J4:J9)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="136" t="n">
         <f aca="false">SUM(K4:K9)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L10" s="19" t="n">
         <f aca="false">SUM(L4:L9)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M10" s="132" t="n">
         <f aca="false">SUM(M4:M9)</f>
@@ -11693,19 +11857,19 @@
       </c>
       <c r="N10" s="136" t="n">
         <f aca="false">SUM(N4:N9)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O10" s="19" t="n">
         <f aca="false">SUM(O4:O9)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P10" s="136" t="n">
         <f aca="false">SUM(P4:P9)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q10" s="136" t="n">
         <f aca="false">SUM(Q4:Q9)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R10" s="19" t="n">
         <f aca="false">SUM(R4:R9)</f>
@@ -11856,11 +12020,11 @@
       </c>
       <c r="V14" s="118" t="n">
         <f aca="false">G20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W14" s="119" t="n">
         <f aca="false">H20</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X14" s="119" t="n">
         <f aca="false">I20</f>
@@ -11868,19 +12032,19 @@
       </c>
       <c r="Y14" s="119" t="n">
         <f aca="false">C14+C16+C18</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Z14" s="119" t="n">
         <f aca="false">D14+D16+D18</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA14" s="119" t="n">
         <f aca="false">Y14-Z14</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB14" s="133" t="n">
         <f aca="false">3*V14+W14</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AD14" s="0" t="n">
         <f aca="false">IF(OR(AB14&gt;AB15,AND(AB14=AB15,AA14&gt;AA15),AND(AB14=AB15,AA14=AA15,Y14&gt;Y15)),1,0)</f>
@@ -11892,11 +12056,11 @@
       </c>
       <c r="AF14" s="0" t="n">
         <f aca="false">IF(OR(AB14&gt;AB17,AND(AB14=AB17,AA14&gt;AA17),AND(AB14=AB17,AA14=AA17,Y14&gt;Y17)),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH14" s="0" t="n">
         <f aca="false">SUM(AD14:AF14)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ14" s="0" t="n">
         <f aca="false">IF(AND(AH14&lt;&gt;AH15,AH14&lt;&gt;AH16,AH14&lt;&gt;AH17),AH14,IF(AND(AH14=AH15,T14&gt;T15),AH14,IF(AND(AH14=AH15,T15&gt;T14),AH14+1,IF(AND(AH14=AH16,T14&gt;T16),AH14,IF(AND(AH14=AH16,T16&gt;T14),AH14+1,IF(AND(AH14=AH17,T14&gt;T17),AH14,IF(AND(AH14=AH17,T17&gt;T14),AH14+1,)))))))</f>
@@ -11960,11 +12124,11 @@
       </c>
       <c r="V15" s="22" t="n">
         <f aca="false">J20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W15" s="23" t="n">
         <f aca="false">K20</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X15" s="23" t="n">
         <f aca="false">L20</f>
@@ -11972,23 +12136,23 @@
       </c>
       <c r="Y15" s="23" t="n">
         <f aca="false">D14+C17+C19</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Z15" s="23" t="n">
         <f aca="false">C14+D17+D19</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AA15" s="23" t="n">
         <f aca="false">Y15-Z15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB15" s="134" t="n">
         <f aca="false">3*V15+W15</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AD15" s="0" t="n">
         <f aca="false">IF(OR(AB15&gt;AB14,AND(AB15=AB14,AA15&gt;AA14),AND(AB15=AB14,AA15=AA14,Y15&gt;Y14)),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE15" s="0" t="n">
         <f aca="false">IF(OR(AB15&gt;AB16,AND(AB15=AB16,AA15&gt;AA16),AND(AB15=AB16,AA15=AA16,Y15&gt;Y16)),1,0)</f>
@@ -11996,15 +12160,15 @@
       </c>
       <c r="AF15" s="0" t="n">
         <f aca="false">IF(OR(AB15&gt;AB17,AND(AB15=AB17,AA15&gt;AA17),AND(AB15=AB17,AA15=AA17,Y15&gt;Y17)),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH15" s="0" t="n">
         <f aca="false">SUM(AD15:AF15)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ15" s="0" t="n">
         <f aca="false">IF(AND(AH15&lt;&gt;AH14,AH15&lt;&gt;AH16,AH15&lt;&gt;AH17),AH15,IF(AND(AH15=AH14,T15&gt;T14),AH15,IF(AND(AH15=AH14,T14&gt;T15),AH15+1,IF(AND(AH15=AH16,T15&gt;T16),AH15,IF(AND(AH15=AH16,T16&gt;T15),AH15+1,IF(AND(AH15=AH17,T15&gt;T17),AH15,IF(AND(AH15=AH17,T15&gt;T14),AH15+1,)))))))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12014,7 +12178,7 @@
       </c>
       <c r="C16" s="22" t="n">
         <f aca="false">'Fase de grupos'!H19</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="24" t="n">
         <f aca="false">'Fase de grupos'!I19</f>
@@ -12026,11 +12190,11 @@
       </c>
       <c r="G16" s="22" t="n">
         <f aca="false">IF(C16&gt;D16,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="23" t="n">
         <f aca="false">IF(C16=D16,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="24" t="n">
         <f aca="false">IF(C16&lt;D16,1,0)</f>
@@ -12045,11 +12209,11 @@
       </c>
       <c r="N16" s="23" t="n">
         <f aca="false">IF(D16=C16,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="24" t="n">
         <f aca="false">IF(D16&lt;C16,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" s="23"/>
       <c r="Q16" s="23"/>
@@ -12068,27 +12232,27 @@
       </c>
       <c r="W16" s="23" t="n">
         <f aca="false">N20</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X16" s="23" t="n">
         <f aca="false">O20</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y16" s="23" t="n">
         <f aca="false">C15+D16+D19</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z16" s="23" t="n">
         <f aca="false">D15+C16+C19</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA16" s="23" t="n">
         <f aca="false">Y16-Z16</f>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AB16" s="134" t="n">
         <f aca="false">3*V16+W16</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD16" s="0" t="n">
         <f aca="false">IF(OR(AB16&gt;AB14,AND(AB16=AB14,AA16&gt;AA14),AND(AB16=AB14,AA16=AA14,Y16&gt;Y14)),1,0)</f>
@@ -12118,7 +12282,7 @@
       </c>
       <c r="C17" s="22" t="n">
         <f aca="false">'Fase de grupos'!H20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="24" t="n">
         <f aca="false">'Fase de grupos'!I20</f>
@@ -12133,11 +12297,11 @@
       <c r="I17" s="24"/>
       <c r="J17" s="22" t="n">
         <f aca="false">IF(C17&gt;D17,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="23" t="n">
         <f aca="false">IF(C17=D17,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="24" t="n">
         <f aca="false">IF(C17&lt;D17,1,0)</f>
@@ -12152,11 +12316,11 @@
       </c>
       <c r="Q17" s="23" t="n">
         <f aca="false">IF(D17=C17,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" s="24" t="n">
         <f aca="false">IF(D17&lt;C17,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" s="23"/>
       <c r="T17" s="0" t="n">
@@ -12172,35 +12336,35 @@
       </c>
       <c r="W17" s="27" t="n">
         <f aca="false">Q20</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X17" s="27" t="n">
         <f aca="false">R20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y17" s="27" t="n">
         <f aca="false">D15+D17+D18</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z17" s="27" t="n">
         <f aca="false">C15+C17+C18</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA17" s="27" t="n">
         <f aca="false">Y17-Z17</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB17" s="135" t="n">
         <f aca="false">3*V17+W17</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD17" s="0" t="n">
         <f aca="false">IF(OR(AB17&gt;AB14,AND(AB17=AB14,AA17&gt;AA14),AND(AB17=AB14,AA17=AA14,Y17&gt;Y14)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="0" t="n">
         <f aca="false">IF(OR(AB17&gt;AB15,AND(AB17=AB15,AA17&gt;AA15),AND(AB17=AB15,AA17=AA15,Y17&gt;Y15)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF17" s="0" t="n">
         <f aca="false">IF(OR(AB17&gt;AB16,AND(AB17=AB16,AA17&gt;AA16),AND(AB17=AB16,AA17=AA16,Y17&gt;Y16)),1,0)</f>
@@ -12208,11 +12372,11 @@
       </c>
       <c r="AH17" s="0" t="n">
         <f aca="false">SUM(AD17:AF17)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ17" s="0" t="n">
         <f aca="false">IF(AND(AH17&lt;&gt;AH14,AH17&lt;&gt;AH15,AH17&lt;&gt;AH16),AH17,IF(AND(AH17=AH14,T17&gt;T14),AH17,IF(AND(AH17=AH14,T14&gt;T17),AH17+1,IF(AND(AH17=AH15,T17&gt;T15),AH17,IF(AND(AH17=AH15,T15&gt;T17),AH17+1,IF(AND(AH17=AH16,T17&gt;T16),AH17,IF(AND(AH17=AH16,T16&gt;T17),AH17+1,)))))))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12222,11 +12386,11 @@
       </c>
       <c r="C18" s="22" t="n">
         <f aca="false">'Fase de grupos'!H21</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="24" t="n">
         <f aca="false">'Fase de grupos'!I21</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="1" t="str">
         <f aca="false">'Fase de grupos'!J21</f>
@@ -12271,11 +12435,11 @@
       </c>
       <c r="C19" s="121" t="n">
         <f aca="false">'Fase de grupos'!H22</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D19" s="122" t="n">
         <f aca="false">'Fase de grupos'!I22</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E19" s="1" t="str">
         <f aca="false">'Fase de grupos'!J22</f>
@@ -12316,11 +12480,11 @@
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G20" s="132" t="n">
         <f aca="false">SUM(G14:G19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="136" t="n">
         <f aca="false">SUM(H14:H19)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20" s="19" t="n">
         <f aca="false">SUM(I14:I19)</f>
@@ -12328,11 +12492,11 @@
       </c>
       <c r="J20" s="132" t="n">
         <f aca="false">SUM(J14:J19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="136" t="n">
         <f aca="false">SUM(K14:K19)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L20" s="19" t="n">
         <f aca="false">SUM(L14:L19)</f>
@@ -12344,11 +12508,11 @@
       </c>
       <c r="N20" s="136" t="n">
         <f aca="false">SUM(N14:N19)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O20" s="19" t="n">
         <f aca="false">SUM(O14:O19)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P20" s="136" t="n">
         <f aca="false">SUM(P14:P19)</f>
@@ -12356,11 +12520,11 @@
       </c>
       <c r="Q20" s="136" t="n">
         <f aca="false">SUM(Q14:Q19)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R20" s="19" t="n">
         <f aca="false">SUM(R14:R19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20" s="23"/>
     </row>
@@ -12507,11 +12671,11 @@
       </c>
       <c r="V24" s="118" t="n">
         <f aca="false">G30</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W24" s="119" t="n">
         <f aca="false">H30</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X24" s="119" t="n">
         <f aca="false">I30</f>
@@ -12519,7 +12683,7 @@
       </c>
       <c r="Y24" s="119" t="n">
         <f aca="false">C24+C26+C28</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z24" s="119" t="n">
         <f aca="false">D24+D26+D28</f>
@@ -12527,11 +12691,11 @@
       </c>
       <c r="AA24" s="119" t="n">
         <f aca="false">Y24-Z24</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB24" s="133" t="n">
         <f aca="false">3*V24+W24</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AD24" s="0" t="n">
         <f aca="false">IF(OR(AB24&gt;AB25,AND(AB24=AB25,AA24&gt;AA25),AND(AB24=AB25,AA24=AA25,Y24&gt;Y25)),1,0)</f>
@@ -12615,27 +12779,27 @@
       </c>
       <c r="W25" s="23" t="n">
         <f aca="false">K30</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X25" s="23" t="n">
         <f aca="false">L30</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y25" s="23" t="n">
         <f aca="false">D24+C27+C29</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z25" s="23" t="n">
         <f aca="false">C24+D27+D29</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AA25" s="23" t="n">
         <f aca="false">Y25-Z25</f>
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AB25" s="134" t="n">
         <f aca="false">3*V25+W25</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD25" s="0" t="n">
         <f aca="false">IF(OR(AB25&gt;AB24,AND(AB25=AB24,AA25&gt;AA24),AND(AB25=AB24,AA25=AA24,Y25&gt;Y24)),1,0)</f>
@@ -12643,7 +12807,7 @@
       </c>
       <c r="AE25" s="0" t="n">
         <f aca="false">IF(OR(AB25&gt;AB26,AND(AB25=AB26,AA25&gt;AA26),AND(AB25=AB26,AA25=AA26,Y25&gt;Y26)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF25" s="0" t="n">
         <f aca="false">IF(OR(AB25&gt;AB27,AND(AB25=AB27,AA25&gt;AA27),AND(AB25=AB27,AA25=AA27,Y25&gt;Y27)),1,0)</f>
@@ -12651,11 +12815,11 @@
       </c>
       <c r="AH25" s="0" t="n">
         <f aca="false">SUM(AD25:AF25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="0" t="n">
         <f aca="false">IF(AND(AH25&lt;&gt;AH24,AH25&lt;&gt;AH26,AH25&lt;&gt;AH27),AH25,IF(AND(AH25=AH24,T25&gt;T24),AH25,IF(AND(AH25=AH24,T24&gt;T25),AH25+1,IF(AND(AH25=AH26,T25&gt;T26),AH25,IF(AND(AH25=AH26,T26&gt;T25),AH25+1,IF(AND(AH25=AH27,T25&gt;T27),AH25,IF(AND(AH25=AH27,T25&gt;T24),AH25+1,)))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12665,7 +12829,7 @@
       </c>
       <c r="C26" s="22" t="n">
         <f aca="false">'Fase de grupos'!H29</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="24" t="n">
         <f aca="false">'Fase de grupos'!I29</f>
@@ -12677,11 +12841,11 @@
       </c>
       <c r="G26" s="22" t="n">
         <f aca="false">IF(C26&gt;D26,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" s="23" t="n">
         <f aca="false">IF(C26=D26,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" s="24" t="n">
         <f aca="false">IF(C26&lt;D26,1,0)</f>
@@ -12696,11 +12860,11 @@
       </c>
       <c r="N26" s="23" t="n">
         <f aca="false">IF(D26=C26,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" s="24" t="n">
         <f aca="false">IF(D26&lt;C26,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" s="23"/>
       <c r="Q26" s="23"/>
@@ -12715,31 +12879,31 @@
       </c>
       <c r="V26" s="22" t="n">
         <f aca="false">M30</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W26" s="23" t="n">
         <f aca="false">N30</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X26" s="23" t="n">
         <f aca="false">O30</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y26" s="23" t="n">
         <f aca="false">C25+D26+D29</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z26" s="23" t="n">
         <f aca="false">D25+C26+C29</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA26" s="23" t="n">
         <f aca="false">Y26-Z26</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB26" s="134" t="n">
         <f aca="false">3*V26+W26</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD26" s="0" t="n">
         <f aca="false">IF(OR(AB26&gt;AB24,AND(AB26=AB24,AA26&gt;AA24),AND(AB26=AB24,AA26=AA24,Y26&gt;Y24)),1,0)</f>
@@ -12747,7 +12911,7 @@
       </c>
       <c r="AE26" s="0" t="n">
         <f aca="false">IF(OR(AB26&gt;AB25,AND(AB26=AB25,AA26&gt;AA25),AND(AB26=AB25,AA26=AA25,Y26&gt;Y25)),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF26" s="0" t="n">
         <f aca="false">IF(OR(AB26&gt;AB27,AND(AB26=AB27,AA26&gt;AA27),AND(AB26=AB27,AA26=AA27,Y26&gt;Y27)),1,0)</f>
@@ -12755,11 +12919,11 @@
       </c>
       <c r="AH26" s="0" t="n">
         <f aca="false">SUM(AD26:AF26)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ26" s="0" t="n">
         <f aca="false">IF(AND(AH26&lt;&gt;AH24,AH26&lt;&gt;AH25,AH26&lt;&gt;AH27),AH26,IF(AND(AH26=AH24,T26&gt;T24),AH26,IF(AND(AH26=AH24,T24&gt;T26),AH26+1,IF(AND(AH26=AH25,T26&gt;T25),AH26,IF(AND(AH26=AH25,T25&gt;T26),AH26+1,IF(AND(AH26=AH27,T26&gt;T27),AH26,IF(AND(AH26=AH27,T27&gt;T26),AH26+1,)))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12769,11 +12933,11 @@
       </c>
       <c r="C27" s="22" t="n">
         <f aca="false">'Fase de grupos'!H30</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" s="24" t="n">
         <f aca="false">'Fase de grupos'!I30</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="1" t="str">
         <f aca="false">'Fase de grupos'!J30</f>
@@ -12831,11 +12995,11 @@
       </c>
       <c r="Y27" s="27" t="n">
         <f aca="false">D25+D27+D28</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z27" s="27" t="n">
         <f aca="false">C25+C27+C28</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA27" s="27" t="n">
         <f aca="false">Y27-Z27</f>
@@ -12926,7 +13090,7 @@
       </c>
       <c r="D29" s="122" t="n">
         <f aca="false">'Fase de grupos'!I32</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E29" s="1" t="str">
         <f aca="false">'Fase de grupos'!J32</f>
@@ -12941,19 +13105,19 @@
       </c>
       <c r="K29" s="23" t="n">
         <f aca="false">IF(C29=D29,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" s="24" t="n">
         <f aca="false">IF(C29&lt;D29,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" s="22" t="n">
         <f aca="false">IF(D29&gt;C29,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" s="23" t="n">
         <f aca="false">IF(D29=C29,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29" s="24" t="n">
         <f aca="false">IF(D29&lt;C29,1,0)</f>
@@ -12981,11 +13145,11 @@
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G30" s="132" t="n">
         <f aca="false">SUM(G24:G29)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H30" s="136" t="n">
         <f aca="false">SUM(H24:H29)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" s="19" t="n">
         <f aca="false">SUM(I24:I29)</f>
@@ -12997,23 +13161,23 @@
       </c>
       <c r="K30" s="136" t="n">
         <f aca="false">SUM(K24:K29)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L30" s="19" t="n">
         <f aca="false">SUM(L24:L29)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M30" s="132" t="n">
         <f aca="false">SUM(M24:M29)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30" s="136" t="n">
         <f aca="false">SUM(N24:N29)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O30" s="19" t="n">
         <f aca="false">SUM(O24:O29)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P30" s="136" t="n">
         <f aca="false">SUM(P24:P29)</f>
@@ -13212,35 +13376,35 @@
       </c>
       <c r="V34" s="118" t="n">
         <f aca="false">G40</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W34" s="119" t="n">
         <f aca="false">H40</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X34" s="119" t="n">
         <f aca="false">I40</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y34" s="119" t="n">
         <f aca="false">C34+C36+C38</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z34" s="119" t="n">
         <f aca="false">D34+D36+D38</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA34" s="119" t="n">
         <f aca="false">Y34-Z34</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AB34" s="133" t="n">
         <f aca="false">3*V34+W34</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD34" s="0" t="n">
         <f aca="false">IF(OR(AB34&gt;AB35,AND(AB34=AB35,AA34&gt;AA35),AND(AB34=AB35,AA34=AA35,Y34&gt;Y35)),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE34" s="0" t="n">
         <f aca="false">IF(OR(AB34&gt;AB36,AND(AB34=AB36,AA34&gt;AA36),AND(AB34=AB36,AA34=AA36,Y34&gt;Y36)),1,0)</f>
@@ -13252,7 +13416,7 @@
       </c>
       <c r="AH34" s="0" t="n">
         <f aca="false">SUM(AD34:AF34)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ34" s="0" t="n">
         <f aca="false">IF(AND(AH34&lt;&gt;AH35,AH34&lt;&gt;AH36,AH34&lt;&gt;AH37),AH34,IF(AND(AH34=AH35,T34&gt;T35),AH34,IF(AND(AH34=AH35,T35&gt;T34),AH34+1,IF(AND(AH34=AH36,T34&gt;T36),AH34,IF(AND(AH34=AH36,T36&gt;T34),AH34+1,IF(AND(AH34=AH37,T34&gt;T37),AH34,IF(AND(AH34=AH37,T37&gt;T34),AH34+1,)))))))</f>
@@ -13319,27 +13483,27 @@
       </c>
       <c r="W35" s="23" t="n">
         <f aca="false">K40</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X35" s="23" t="n">
         <f aca="false">L40</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y35" s="23" t="n">
         <f aca="false">D34+C37+C39</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z35" s="23" t="n">
         <f aca="false">C34+D37+D39</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA35" s="23" t="n">
         <f aca="false">Y35-Z35</f>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AB35" s="134" t="n">
         <f aca="false">3*V35+W35</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD35" s="0" t="n">
         <f aca="false">IF(OR(AB35&gt;AB34,AND(AB35=AB34,AA35&gt;AA34),AND(AB35=AB34,AA35=AA34,Y35&gt;Y34)),1,0)</f>
@@ -13351,15 +13515,15 @@
       </c>
       <c r="AF35" s="0" t="n">
         <f aca="false">IF(OR(AB35&gt;AB37,AND(AB35=AB37,AA35&gt;AA37),AND(AB35=AB37,AA35=AA37,Y35&gt;Y37)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH35" s="0" t="n">
         <f aca="false">SUM(AD35:AF35)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ35" s="0" t="n">
         <f aca="false">IF(AND(AH35&lt;&gt;AH34,AH35&lt;&gt;AH36,AH35&lt;&gt;AH37),AH35,IF(AND(AH35=AH34,T35&gt;T34),AH35,IF(AND(AH35=AH34,T34&gt;T35),AH35+1,IF(AND(AH35=AH36,T35&gt;T36),AH35,IF(AND(AH35=AH36,T36&gt;T35),AH35+1,IF(AND(AH35=AH37,T35&gt;T37),AH35,IF(AND(AH35=AH37,T35&gt;T34),AH35+1,)))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13373,7 +13537,7 @@
       </c>
       <c r="D36" s="24" t="n">
         <f aca="false">'Fase de grupos'!I39</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E36" s="1" t="str">
         <f aca="false">'Fase de grupos'!J39</f>
@@ -13385,22 +13549,22 @@
       </c>
       <c r="H36" s="23" t="n">
         <f aca="false">IF(C36=D36,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" s="24" t="n">
         <f aca="false">IF(C36&lt;D36,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" s="22"/>
       <c r="K36" s="23"/>
       <c r="L36" s="24"/>
       <c r="M36" s="22" t="n">
         <f aca="false">IF(D36&gt;C36,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36" s="23" t="n">
         <f aca="false">IF(D36=C36,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O36" s="24" t="n">
         <f aca="false">IF(D36&lt;C36,1,0)</f>
@@ -13418,11 +13582,11 @@
       </c>
       <c r="V36" s="22" t="n">
         <f aca="false">M40</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W36" s="23" t="n">
         <f aca="false">N40</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X36" s="23" t="n">
         <f aca="false">O40</f>
@@ -13430,19 +13594,19 @@
       </c>
       <c r="Y36" s="23" t="n">
         <f aca="false">C35+D36+D39</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Z36" s="23" t="n">
         <f aca="false">D35+C36+C39</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA36" s="23" t="n">
         <f aca="false">Y36-Z36</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AB36" s="134" t="n">
         <f aca="false">3*V36+W36</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AD36" s="0" t="n">
         <f aca="false">IF(OR(AB36&gt;AB34,AND(AB36=AB34,AA36&gt;AA34),AND(AB36=AB34,AA36=AA34,Y36&gt;Y34)),1,0)</f>
@@ -13476,7 +13640,7 @@
       </c>
       <c r="D37" s="24" t="n">
         <f aca="false">'Fase de grupos'!I40</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E37" s="1" t="str">
         <f aca="false">'Fase de grupos'!J40</f>
@@ -13491,22 +13655,22 @@
       </c>
       <c r="K37" s="23" t="n">
         <f aca="false">IF(C37=D37,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37" s="24" t="n">
         <f aca="false">IF(C37&lt;D37,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37" s="22"/>
       <c r="N37" s="23"/>
       <c r="O37" s="24"/>
       <c r="P37" s="23" t="n">
         <f aca="false">IF(D37&gt;C37,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37" s="23" t="n">
         <f aca="false">IF(D37=C37,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R37" s="24" t="n">
         <f aca="false">IF(D37&lt;C37,1,0)</f>
@@ -13521,31 +13685,31 @@
       </c>
       <c r="V37" s="121" t="n">
         <f aca="false">P40</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="27" t="n">
         <f aca="false">Q40</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X37" s="27" t="n">
         <f aca="false">R40</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y37" s="27" t="n">
         <f aca="false">D35+D37+D38</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z37" s="27" t="n">
         <f aca="false">C35+C37+C38</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA37" s="27" t="n">
         <f aca="false">Y37-Z37</f>
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AB37" s="135" t="n">
         <f aca="false">3*V37+W37</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD37" s="0" t="n">
         <f aca="false">IF(OR(AB37&gt;AB34,AND(AB37=AB34,AA37&gt;AA34),AND(AB37=AB34,AA37=AA34,Y37&gt;Y34)),1,0)</f>
@@ -13553,7 +13717,7 @@
       </c>
       <c r="AE37" s="0" t="n">
         <f aca="false">IF(OR(AB37&gt;AB35,AND(AB37=AB35,AA37&gt;AA35),AND(AB37=AB35,AA37=AA35,Y37&gt;Y35)),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF37" s="0" t="n">
         <f aca="false">IF(OR(AB37&gt;AB36,AND(AB37=AB36,AA37&gt;AA36),AND(AB37=AB36,AA37=AA36,Y37&gt;Y36)),1,0)</f>
@@ -13561,11 +13725,11 @@
       </c>
       <c r="AH37" s="0" t="n">
         <f aca="false">SUM(AD37:AF37)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ37" s="0" t="n">
         <f aca="false">IF(AND(AH37&lt;&gt;AH34,AH37&lt;&gt;AH35,AH37&lt;&gt;AH36),AH37,IF(AND(AH37=AH34,T37&gt;T34),AH37,IF(AND(AH37=AH34,T34&gt;T37),AH37+1,IF(AND(AH37=AH35,T37&gt;T35),AH37,IF(AND(AH37=AH35,T35&gt;T37),AH37+1,IF(AND(AH37=AH36,T37&gt;T36),AH37,IF(AND(AH37=AH36,T36&gt;T37),AH37+1,)))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13575,11 +13739,11 @@
       </c>
       <c r="C38" s="22" t="n">
         <f aca="false">'Fase de grupos'!H41</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D38" s="24" t="n">
         <f aca="false">'Fase de grupos'!I41</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" s="1" t="str">
         <f aca="false">'Fase de grupos'!J41</f>
@@ -13587,11 +13751,11 @@
       </c>
       <c r="G38" s="22" t="n">
         <f aca="false">IF(C38&gt;D38,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" s="23" t="n">
         <f aca="false">IF(C38=D38,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" s="24" t="n">
         <f aca="false">IF(C38&lt;D38,1,0)</f>
@@ -13609,11 +13773,11 @@
       </c>
       <c r="Q38" s="23" t="n">
         <f aca="false">IF(D38=C38,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R38" s="24" t="n">
         <f aca="false">IF(D38&lt;C38,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13623,11 +13787,11 @@
       </c>
       <c r="C39" s="121" t="n">
         <f aca="false">'Fase de grupos'!H42</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" s="122" t="n">
         <f aca="false">'Fase de grupos'!I42</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E39" s="1" t="str">
         <f aca="false">'Fase de grupos'!J42</f>
@@ -13642,19 +13806,19 @@
       </c>
       <c r="K39" s="23" t="n">
         <f aca="false">IF(C39=D39,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" s="24" t="n">
         <f aca="false">IF(C39&lt;D39,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" s="22" t="n">
         <f aca="false">IF(D39&gt;C39,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N39" s="23" t="n">
         <f aca="false">IF(D39=C39,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O39" s="24" t="n">
         <f aca="false">IF(D39&lt;C39,1,0)</f>
@@ -13667,15 +13831,15 @@
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G40" s="132" t="n">
         <f aca="false">SUM(G34:G39)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" s="136" t="n">
         <f aca="false">SUM(H34:H39)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I40" s="19" t="n">
         <f aca="false">SUM(I34:I39)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" s="132" t="n">
         <f aca="false">SUM(J34:J39)</f>
@@ -13683,19 +13847,19 @@
       </c>
       <c r="K40" s="136" t="n">
         <f aca="false">SUM(K34:K39)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L40" s="19" t="n">
         <f aca="false">SUM(L34:L39)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M40" s="132" t="n">
         <f aca="false">SUM(M34:M39)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N40" s="136" t="n">
         <f aca="false">SUM(N34:N39)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O40" s="19" t="n">
         <f aca="false">SUM(O34:O39)</f>
@@ -13703,15 +13867,15 @@
       </c>
       <c r="P40" s="136" t="n">
         <f aca="false">SUM(P34:P39)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40" s="136" t="n">
         <f aca="false">SUM(Q34:Q39)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R40" s="19" t="n">
         <f aca="false">SUM(R34:R39)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -13868,11 +14032,11 @@
       </c>
       <c r="V44" s="118" t="n">
         <f aca="false">G50</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W44" s="119" t="n">
         <f aca="false">H50</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X44" s="119" t="n">
         <f aca="false">I50</f>
@@ -13880,7 +14044,7 @@
       </c>
       <c r="Y44" s="119" t="n">
         <f aca="false">C44+C46+C48</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Z44" s="119" t="n">
         <f aca="false">D44+D46+D48</f>
@@ -13888,15 +14052,15 @@
       </c>
       <c r="AA44" s="119" t="n">
         <f aca="false">Y44-Z44</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB44" s="133" t="n">
         <f aca="false">3*V44+W44</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AD44" s="0" t="n">
         <f aca="false">IF(OR(AB44&gt;AB45,AND(AB44=AB45,AA44&gt;AA45),AND(AB44=AB45,AA44=AA45,Y44&gt;Y45)),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE44" s="0" t="n">
         <f aca="false">IF(OR(AB44&gt;AB46,AND(AB44=AB46,AA44&gt;AA46),AND(AB44=AB46,AA44=AA46,Y44&gt;Y46)),1,0)</f>
@@ -13904,15 +14068,15 @@
       </c>
       <c r="AF44" s="0" t="n">
         <f aca="false">IF(OR(AB44&gt;AB47,AND(AB44=AB47,AA44&gt;AA47),AND(AB44=AB47,AA44=AA47,Y44&gt;Y47)),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH44" s="0" t="n">
         <f aca="false">SUM(AD44:AF44)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ44" s="0" t="n">
         <f aca="false">IF(AND(AH44&lt;&gt;AH45,AH44&lt;&gt;AH46,AH44&lt;&gt;AH47),AH44,IF(AND(AH44=AH45,T44&gt;T45),AH44,IF(AND(AH44=AH45,T45&gt;T44),AH44+1,IF(AND(AH44=AH46,T44&gt;T46),AH44,IF(AND(AH44=AH46,T46&gt;T44),AH44+1,IF(AND(AH44=AH47,T44&gt;T47),AH44,IF(AND(AH44=AH47,T47&gt;T44),AH44+1,)))))))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13971,11 +14135,11 @@
       </c>
       <c r="V45" s="22" t="n">
         <f aca="false">J50</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W45" s="23" t="n">
         <f aca="false">K50</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X45" s="23" t="n">
         <f aca="false">L50</f>
@@ -13983,19 +14147,19 @@
       </c>
       <c r="Y45" s="23" t="n">
         <f aca="false">D44+C47+C49</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Z45" s="23" t="n">
         <f aca="false">C44+D47+D49</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA45" s="23" t="n">
         <f aca="false">Y45-Z45</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB45" s="134" t="n">
         <f aca="false">3*V45+W45</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AD45" s="0" t="n">
         <f aca="false">IF(OR(AB45&gt;AB44,AND(AB45=AB44,AA45&gt;AA44),AND(AB45=AB44,AA45=AA44,Y45&gt;Y44)),1,0)</f>
@@ -14007,15 +14171,15 @@
       </c>
       <c r="AF45" s="0" t="n">
         <f aca="false">IF(OR(AB45&gt;AB47,AND(AB45=AB47,AA45&gt;AA47),AND(AB45=AB47,AA45=AA47,Y45&gt;Y47)),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH45" s="0" t="n">
         <f aca="false">SUM(AD45:AF45)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ45" s="0" t="n">
         <f aca="false">IF(AND(AH45&lt;&gt;AH44,AH45&lt;&gt;AH46,AH45&lt;&gt;AH47),AH45,IF(AND(AH45=AH44,T45&gt;T44),AH45,IF(AND(AH45=AH44,T44&gt;T45),AH45+1,IF(AND(AH45=AH46,T45&gt;T46),AH45,IF(AND(AH45=AH46,T46&gt;T45),AH45+1,IF(AND(AH45=AH47,T45&gt;T47),AH45,IF(AND(AH45=AH47,T45&gt;T44),AH45+1,)))))))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14025,7 +14189,7 @@
       </c>
       <c r="C46" s="22" t="n">
         <f aca="false">'Fase de grupos'!H49</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D46" s="24" t="n">
         <f aca="false">'Fase de grupos'!I49</f>
@@ -14037,11 +14201,11 @@
       </c>
       <c r="G46" s="22" t="n">
         <f aca="false">IF(C46&gt;D46,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" s="23" t="n">
         <f aca="false">IF(C46=D46,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" s="24" t="n">
         <f aca="false">IF(C46&lt;D46,1,0)</f>
@@ -14056,11 +14220,11 @@
       </c>
       <c r="N46" s="23" t="n">
         <f aca="false">IF(D46=C46,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O46" s="24" t="n">
         <f aca="false">IF(D46&lt;C46,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P46" s="23"/>
       <c r="Q46" s="23"/>
@@ -14078,27 +14242,27 @@
       </c>
       <c r="W46" s="23" t="n">
         <f aca="false">N50</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X46" s="23" t="n">
         <f aca="false">O50</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y46" s="23" t="n">
         <f aca="false">C45+D46+D49</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z46" s="23" t="n">
         <f aca="false">D45+C46+C49</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA46" s="23" t="n">
         <f aca="false">Y46-Z46</f>
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AB46" s="134" t="n">
         <f aca="false">3*V46+W46</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD46" s="0" t="n">
         <f aca="false">IF(OR(AB46&gt;AB44,AND(AB46=AB44,AA46&gt;AA44),AND(AB46=AB44,AA46=AA44,Y46&gt;Y44)),1,0)</f>
@@ -14128,11 +14292,11 @@
       </c>
       <c r="C47" s="22" t="n">
         <f aca="false">'Fase de grupos'!H50</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D47" s="24" t="n">
         <f aca="false">'Fase de grupos'!I50</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" s="1" t="str">
         <f aca="false">'Fase de grupos'!J50</f>
@@ -14143,11 +14307,11 @@
       <c r="I47" s="24"/>
       <c r="J47" s="22" t="n">
         <f aca="false">IF(C47&gt;D47,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" s="23" t="n">
         <f aca="false">IF(C47=D47,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47" s="24" t="n">
         <f aca="false">IF(C47&lt;D47,1,0)</f>
@@ -14162,11 +14326,11 @@
       </c>
       <c r="Q47" s="23" t="n">
         <f aca="false">IF(D47=C47,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R47" s="24" t="n">
         <f aca="false">IF(D47&lt;C47,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T47" s="0" t="n">
         <v>4</v>
@@ -14181,35 +14345,35 @@
       </c>
       <c r="W47" s="27" t="n">
         <f aca="false">Q50</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X47" s="27" t="n">
         <f aca="false">R50</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y47" s="27" t="n">
         <f aca="false">D45+D47+D48</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z47" s="27" t="n">
         <f aca="false">C45+C47+C48</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA47" s="27" t="n">
         <f aca="false">Y47-Z47</f>
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AB47" s="135" t="n">
         <f aca="false">3*V47+W47</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AD47" s="0" t="n">
         <f aca="false">IF(OR(AB47&gt;AB44,AND(AB47=AB44,AA47&gt;AA44),AND(AB47=AB44,AA47=AA44,Y47&gt;Y44)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE47" s="0" t="n">
         <f aca="false">IF(OR(AB47&gt;AB45,AND(AB47=AB45,AA47&gt;AA45),AND(AB47=AB45,AA47=AA45,Y47&gt;Y45)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF47" s="0" t="n">
         <f aca="false">IF(OR(AB47&gt;AB46,AND(AB47=AB46,AA47&gt;AA46),AND(AB47=AB46,AA47=AA46,Y47&gt;Y46)),1,0)</f>
@@ -14217,11 +14381,11 @@
       </c>
       <c r="AH47" s="0" t="n">
         <f aca="false">SUM(AD47:AF47)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ47" s="0" t="n">
         <f aca="false">IF(AND(AH47&lt;&gt;AH44,AH47&lt;&gt;AH45,AH47&lt;&gt;AH46),AH47,IF(AND(AH47=AH44,T47&gt;T44),AH47,IF(AND(AH47=AH44,T44&gt;T47),AH47+1,IF(AND(AH47=AH45,T47&gt;T45),AH47,IF(AND(AH47=AH45,T45&gt;T47),AH47+1,IF(AND(AH47=AH46,T47&gt;T46),AH47,IF(AND(AH47=AH46,T46&gt;T47),AH47+1,)))))))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14231,7 +14395,7 @@
       </c>
       <c r="C48" s="22" t="n">
         <f aca="false">'Fase de grupos'!H51</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D48" s="24" t="n">
         <f aca="false">'Fase de grupos'!I51</f>
@@ -14243,11 +14407,11 @@
       </c>
       <c r="G48" s="22" t="n">
         <f aca="false">IF(C48&gt;D48,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" s="23" t="n">
         <f aca="false">IF(C48=D48,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" s="24" t="n">
         <f aca="false">IF(C48&lt;D48,1,0)</f>
@@ -14265,11 +14429,11 @@
       </c>
       <c r="Q48" s="23" t="n">
         <f aca="false">IF(D48=C48,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R48" s="24" t="n">
         <f aca="false">IF(D48&lt;C48,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14279,11 +14443,11 @@
       </c>
       <c r="C49" s="121" t="n">
         <f aca="false">'Fase de grupos'!H52</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D49" s="122" t="n">
         <f aca="false">'Fase de grupos'!I52</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E49" s="1" t="str">
         <f aca="false">'Fase de grupos'!J52</f>
@@ -14323,11 +14487,11 @@
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G50" s="132" t="n">
         <f aca="false">SUM(G44:G49)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H50" s="136" t="n">
         <f aca="false">SUM(H44:H49)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I50" s="19" t="n">
         <f aca="false">SUM(I44:I49)</f>
@@ -14335,11 +14499,11 @@
       </c>
       <c r="J50" s="132" t="n">
         <f aca="false">SUM(J44:J49)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" s="136" t="n">
         <f aca="false">SUM(K44:K49)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L50" s="19" t="n">
         <f aca="false">SUM(L44:L49)</f>
@@ -14351,11 +14515,11 @@
       </c>
       <c r="N50" s="136" t="n">
         <f aca="false">SUM(N44:N49)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O50" s="19" t="n">
         <f aca="false">SUM(O44:O49)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P50" s="136" t="n">
         <f aca="false">SUM(P44:P49)</f>
@@ -14363,11 +14527,11 @@
       </c>
       <c r="Q50" s="136" t="n">
         <f aca="false">SUM(Q44:Q49)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R50" s="19" t="n">
         <f aca="false">SUM(R44:R49)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -14524,31 +14688,31 @@
       </c>
       <c r="V54" s="118" t="n">
         <f aca="false">G60</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W54" s="119" t="n">
         <f aca="false">H60</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X54" s="119" t="n">
         <f aca="false">I60</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y54" s="119" t="n">
         <f aca="false">C54+C56+C58</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z54" s="119" t="n">
         <f aca="false">D54+D56+D58</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA54" s="119" t="n">
         <f aca="false">Y54-Z54</f>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AB54" s="133" t="n">
         <f aca="false">3*V54+W54</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD54" s="0" t="n">
         <f aca="false">IF(OR(AB54&gt;AB55,AND(AB54=AB55,AA54&gt;AA55),AND(AB54=AB55,AA54=AA55,Y54&gt;Y55)),1,0)</f>
@@ -14568,7 +14732,7 @@
       </c>
       <c r="AJ54" s="0" t="n">
         <f aca="false">IF(AND(AH54&lt;&gt;AH55,AH54&lt;&gt;AH56,AH54&lt;&gt;AH57),AH54,IF(AND(AH54=AH55,T54&gt;T55),AH54,IF(AND(AH54=AH55,T55&gt;T54),AH54+1,IF(AND(AH54=AH56,T54&gt;T56),AH54,IF(AND(AH54=AH56,T56&gt;T54),AH54+1,IF(AND(AH54=AH57,T54&gt;T57),AH54,IF(AND(AH54=AH57,T57&gt;T54),AH54+1,)))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14627,31 +14791,31 @@
       </c>
       <c r="V55" s="22" t="n">
         <f aca="false">J60</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W55" s="23" t="n">
         <f aca="false">K60</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X55" s="23" t="n">
         <f aca="false">L60</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y55" s="23" t="n">
         <f aca="false">D54+C57+C59</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z55" s="23" t="n">
         <f aca="false">C54+D57+D59</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA55" s="23" t="n">
         <f aca="false">Y55-Z55</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB55" s="134" t="n">
         <f aca="false">3*V55+W55</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD55" s="0" t="n">
         <f aca="false">IF(OR(AB55&gt;AB54,AND(AB55=AB54,AA55&gt;AA54),AND(AB55=AB54,AA55=AA54,Y55&gt;Y54)),1,0)</f>
@@ -14671,7 +14835,7 @@
       </c>
       <c r="AJ55" s="0" t="n">
         <f aca="false">IF(AND(AH55&lt;&gt;AH54,AH55&lt;&gt;AH56,AH55&lt;&gt;AH57),AH55,IF(AND(AH55=AH54,T55&gt;T54),AH55,IF(AND(AH55=AH54,T54&gt;T55),AH55+1,IF(AND(AH55=AH56,T55&gt;T56),AH55,IF(AND(AH55=AH56,T56&gt;T55),AH55+1,IF(AND(AH55=AH57,T55&gt;T57),AH55,IF(AND(AH55=AH57,T55&gt;T54),AH55+1,)))))))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14681,11 +14845,11 @@
       </c>
       <c r="C56" s="22" t="n">
         <f aca="false">'Fase de grupos'!H59</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D56" s="24" t="n">
         <f aca="false">'Fase de grupos'!I59</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" s="1" t="str">
         <f aca="false">'Fase de grupos'!J59</f>
@@ -14693,11 +14857,11 @@
       </c>
       <c r="G56" s="22" t="n">
         <f aca="false">IF(C56&gt;D56,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" s="23" t="n">
         <f aca="false">IF(C56=D56,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" s="24" t="n">
         <f aca="false">IF(C56&lt;D56,1,0)</f>
@@ -14712,11 +14876,11 @@
       </c>
       <c r="N56" s="23" t="n">
         <f aca="false">IF(D56=C56,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O56" s="24" t="n">
         <f aca="false">IF(D56&lt;C56,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P56" s="23"/>
       <c r="Q56" s="23"/>
@@ -14730,31 +14894,31 @@
       </c>
       <c r="V56" s="22" t="n">
         <f aca="false">M60</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W56" s="23" t="n">
         <f aca="false">N60</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X56" s="23" t="n">
         <f aca="false">O60</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y56" s="23" t="n">
         <f aca="false">C55+D56+D59</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Z56" s="23" t="n">
         <f aca="false">D55+C56+C59</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA56" s="23" t="n">
         <f aca="false">Y56-Z56</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB56" s="134" t="n">
         <f aca="false">3*V56+W56</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD56" s="0" t="n">
         <f aca="false">IF(OR(AB56&gt;AB54,AND(AB56=AB54,AA56&gt;AA54),AND(AB56=AB54,AA56=AA54,Y56&gt;Y54)),1,0)</f>
@@ -14762,7 +14926,7 @@
       </c>
       <c r="AE56" s="0" t="n">
         <f aca="false">IF(OR(AB56&gt;AB55,AND(AB56=AB55,AA56&gt;AA55),AND(AB56=AB55,AA56=AA55,Y56&gt;Y55)),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF56" s="0" t="n">
         <f aca="false">IF(OR(AB56&gt;AB57,AND(AB56=AB57,AA56&gt;AA57),AND(AB56=AB57,AA56=AA57,Y56&gt;Y57)),1,0)</f>
@@ -14770,11 +14934,11 @@
       </c>
       <c r="AH56" s="0" t="n">
         <f aca="false">SUM(AD56:AF56)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ56" s="0" t="n">
         <f aca="false">IF(AND(AH56&lt;&gt;AH54,AH56&lt;&gt;AH55,AH56&lt;&gt;AH57),AH56,IF(AND(AH56=AH54,T56&gt;T54),AH56,IF(AND(AH56=AH54,T54&gt;T56),AH56+1,IF(AND(AH56=AH55,T56&gt;T55),AH56,IF(AND(AH56=AH55,T55&gt;T56),AH56+1,IF(AND(AH56=AH57,T56&gt;T57),AH56,IF(AND(AH56=AH57,T57&gt;T56),AH56+1,)))))))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14784,11 +14948,11 @@
       </c>
       <c r="C57" s="22" t="n">
         <f aca="false">'Fase de grupos'!H60</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D57" s="24" t="n">
         <f aca="false">'Fase de grupos'!I60</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" s="1" t="str">
         <f aca="false">'Fase de grupos'!J60</f>
@@ -14799,11 +14963,11 @@
       <c r="I57" s="24"/>
       <c r="J57" s="22" t="n">
         <f aca="false">IF(C57&gt;D57,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57" s="23" t="n">
         <f aca="false">IF(C57=D57,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L57" s="24" t="n">
         <f aca="false">IF(C57&lt;D57,1,0)</f>
@@ -14818,11 +14982,11 @@
       </c>
       <c r="Q57" s="23" t="n">
         <f aca="false">IF(D57=C57,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R57" s="24" t="n">
         <f aca="false">IF(D57&lt;C57,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T57" s="0" t="n">
         <v>4</v>
@@ -14833,35 +14997,35 @@
       </c>
       <c r="V57" s="121" t="n">
         <f aca="false">P60</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W57" s="27" t="n">
         <f aca="false">Q60</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X57" s="27" t="n">
         <f aca="false">R60</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y57" s="27" t="n">
         <f aca="false">D55+D57+D58</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z57" s="27" t="n">
         <f aca="false">C55+C57+C58</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA57" s="27" t="n">
         <f aca="false">Y57-Z57</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB57" s="135" t="n">
         <f aca="false">3*V57+W57</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD57" s="0" t="n">
         <f aca="false">IF(OR(AB57&gt;AB54,AND(AB57=AB54,AA57&gt;AA54),AND(AB57=AB54,AA57=AA54,Y57&gt;Y54)),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE57" s="0" t="n">
         <f aca="false">IF(OR(AB57&gt;AB55,AND(AB57=AB55,AA57&gt;AA55),AND(AB57=AB55,AA57=AA55,Y57&gt;Y55)),1,0)</f>
@@ -14873,11 +15037,11 @@
       </c>
       <c r="AH57" s="0" t="n">
         <f aca="false">SUM(AD57:AF57)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ57" s="0" t="n">
         <f aca="false">IF(AND(AH57&lt;&gt;AH54,AH57&lt;&gt;AH55,AH57&lt;&gt;AH56),AH57,IF(AND(AH57=AH54,T57&gt;T54),AH57,IF(AND(AH57=AH54,T54&gt;T57),AH57+1,IF(AND(AH57=AH55,T57&gt;T55),AH57,IF(AND(AH57=AH55,T55&gt;T57),AH57+1,IF(AND(AH57=AH56,T57&gt;T56),AH57,IF(AND(AH57=AH56,T56&gt;T57),AH57+1,)))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14891,7 +15055,7 @@
       </c>
       <c r="D58" s="24" t="n">
         <f aca="false">'Fase de grupos'!I61</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E58" s="1" t="str">
         <f aca="false">'Fase de grupos'!J61</f>
@@ -14903,11 +15067,11 @@
       </c>
       <c r="H58" s="23" t="n">
         <f aca="false">IF(C58=D58,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" s="24" t="n">
         <f aca="false">IF(C58&lt;D58,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" s="22"/>
       <c r="K58" s="23"/>
@@ -14917,11 +15081,11 @@
       <c r="O58" s="24"/>
       <c r="P58" s="23" t="n">
         <f aca="false">IF(D58&gt;C58,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58" s="23" t="n">
         <f aca="false">IF(D58=C58,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R58" s="24" t="n">
         <f aca="false">IF(D58&lt;C58,1,0)</f>
@@ -14939,7 +15103,7 @@
       </c>
       <c r="D59" s="122" t="n">
         <f aca="false">'Fase de grupos'!I62</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E59" s="1" t="str">
         <f aca="false">'Fase de grupos'!J62</f>
@@ -14954,19 +15118,19 @@
       </c>
       <c r="K59" s="23" t="n">
         <f aca="false">IF(C59=D59,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L59" s="24" t="n">
         <f aca="false">IF(C59&lt;D59,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M59" s="22" t="n">
         <f aca="false">IF(D59&gt;C59,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N59" s="23" t="n">
         <f aca="false">IF(D59=C59,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O59" s="24" t="n">
         <f aca="false">IF(D59&lt;C59,1,0)</f>
@@ -14979,51 +15143,51 @@
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G60" s="132" t="n">
         <f aca="false">SUM(G54:G59)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" s="136" t="n">
         <f aca="false">SUM(H54:H59)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" s="19" t="n">
         <f aca="false">SUM(I54:I59)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J60" s="132" t="n">
         <f aca="false">SUM(J54:J59)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K60" s="136" t="n">
         <f aca="false">SUM(K54:K59)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L60" s="19" t="n">
         <f aca="false">SUM(L54:L59)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M60" s="132" t="n">
         <f aca="false">SUM(M54:M59)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N60" s="136" t="n">
         <f aca="false">SUM(N54:N59)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O60" s="19" t="n">
         <f aca="false">SUM(O54:O59)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P60" s="136" t="n">
         <f aca="false">SUM(P54:P59)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60" s="136" t="n">
         <f aca="false">SUM(Q54:Q59)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R60" s="19" t="n">
         <f aca="false">SUM(R54:R59)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -15180,11 +15344,11 @@
       </c>
       <c r="V64" s="118" t="n">
         <f aca="false">G70</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W64" s="119" t="n">
         <f aca="false">H70</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X64" s="119" t="n">
         <f aca="false">I70</f>
@@ -15192,19 +15356,19 @@
       </c>
       <c r="Y64" s="119" t="n">
         <f aca="false">C64+C66+C68</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="Z64" s="119" t="n">
         <f aca="false">D64+D66+D68</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA64" s="119" t="n">
         <f aca="false">Y64-Z64</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AB64" s="133" t="n">
         <f aca="false">3*V64+W64</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AD64" s="0" t="n">
         <f aca="false">IF(OR(AB64&gt;AB65,AND(AB64=AB65,AA64&gt;AA65),AND(AB64=AB65,AA64=AA65,Y64&gt;Y65)),1,0)</f>
@@ -15287,27 +15451,27 @@
       </c>
       <c r="W65" s="23" t="n">
         <f aca="false">K70</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X65" s="23" t="n">
         <f aca="false">L70</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y65" s="23" t="n">
         <f aca="false">D64+C67+C69</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z65" s="23" t="n">
         <f aca="false">C64+D67+D69</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AA65" s="23" t="n">
         <f aca="false">Y65-Z65</f>
-        <v>-3</v>
+        <v>-9</v>
       </c>
       <c r="AB65" s="134" t="n">
         <f aca="false">3*V65+W65</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD65" s="0" t="n">
         <f aca="false">IF(OR(AB65&gt;AB64,AND(AB65=AB64,AA65&gt;AA64),AND(AB65=AB64,AA65=AA64,Y65&gt;Y64)),1,0)</f>
@@ -15337,11 +15501,11 @@
       </c>
       <c r="C66" s="22" t="n">
         <f aca="false">'Fase de grupos'!H69</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D66" s="24" t="n">
         <f aca="false">'Fase de grupos'!I69</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E66" s="1" t="str">
         <f aca="false">'Fase de grupos'!J69</f>
@@ -15349,11 +15513,11 @@
       </c>
       <c r="G66" s="22" t="n">
         <f aca="false">IF(C66&gt;D66,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" s="23" t="n">
         <f aca="false">IF(C66=D66,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" s="24" t="n">
         <f aca="false">IF(C66&lt;D66,1,0)</f>
@@ -15368,11 +15532,11 @@
       </c>
       <c r="N66" s="23" t="n">
         <f aca="false">IF(D66=C66,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O66" s="24" t="n">
         <f aca="false">IF(D66&lt;C66,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P66" s="23"/>
       <c r="Q66" s="23"/>
@@ -15386,31 +15550,31 @@
       </c>
       <c r="V66" s="22" t="n">
         <f aca="false">M70</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W66" s="23" t="n">
         <f aca="false">N70</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X66" s="23" t="n">
         <f aca="false">O70</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y66" s="23" t="n">
         <f aca="false">C65+D66+D69</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Z66" s="23" t="n">
         <f aca="false">D65+C66+C69</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AA66" s="23" t="n">
         <f aca="false">Y66-Z66</f>
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AB66" s="134" t="n">
         <f aca="false">3*V66+W66</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD66" s="0" t="n">
         <f aca="false">IF(OR(AB66&gt;AB64,AND(AB66=AB64,AA66&gt;AA64),AND(AB66=AB64,AA66=AA64,Y66&gt;Y64)),1,0)</f>
@@ -15440,11 +15604,11 @@
       </c>
       <c r="C67" s="22" t="n">
         <f aca="false">'Fase de grupos'!H70</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67" s="24" t="n">
         <f aca="false">'Fase de grupos'!I70</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E67" s="1" t="str">
         <f aca="false">'Fase de grupos'!J70</f>
@@ -15459,22 +15623,22 @@
       </c>
       <c r="K67" s="23" t="n">
         <f aca="false">IF(C67=D67,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L67" s="24" t="n">
         <f aca="false">IF(C67&lt;D67,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M67" s="22"/>
       <c r="N67" s="23"/>
       <c r="O67" s="24"/>
       <c r="P67" s="23" t="n">
         <f aca="false">IF(D67&gt;C67,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q67" s="23" t="n">
         <f aca="false">IF(D67=C67,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R67" s="24" t="n">
         <f aca="false">IF(D67&lt;C67,1,0)</f>
@@ -15489,31 +15653,31 @@
       </c>
       <c r="V67" s="121" t="n">
         <f aca="false">P70</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W67" s="27" t="n">
         <f aca="false">Q70</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X67" s="27" t="n">
         <f aca="false">R70</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y67" s="27" t="n">
         <f aca="false">D65+D67+D68</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Z67" s="27" t="n">
         <f aca="false">C65+C67+C68</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA67" s="27" t="n">
         <f aca="false">Y67-Z67</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AB67" s="135" t="n">
         <f aca="false">3*V67+W67</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD67" s="0" t="n">
         <f aca="false">IF(OR(AB67&gt;AB64,AND(AB67=AB64,AA67&gt;AA64),AND(AB67=AB64,AA67=AA64,Y67&gt;Y64)),1,0)</f>
@@ -15543,7 +15707,7 @@
       </c>
       <c r="C68" s="22" t="n">
         <f aca="false">'Fase de grupos'!H71</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" s="24" t="n">
         <f aca="false">'Fase de grupos'!I71</f>
@@ -15555,11 +15719,11 @@
       </c>
       <c r="G68" s="22" t="n">
         <f aca="false">IF(C68&gt;D68,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" s="23" t="n">
         <f aca="false">IF(C68=D68,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" s="24" t="n">
         <f aca="false">IF(C68&lt;D68,1,0)</f>
@@ -15577,11 +15741,11 @@
       </c>
       <c r="Q68" s="23" t="n">
         <f aca="false">IF(D68=C68,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R68" s="24" t="n">
         <f aca="false">IF(D68&lt;C68,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15591,11 +15755,11 @@
       </c>
       <c r="C69" s="121" t="n">
         <f aca="false">'Fase de grupos'!H72</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69" s="122" t="n">
         <f aca="false">'Fase de grupos'!I72</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E69" s="1" t="str">
         <f aca="false">'Fase de grupos'!J72</f>
@@ -15610,19 +15774,19 @@
       </c>
       <c r="K69" s="23" t="n">
         <f aca="false">IF(C69=D69,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L69" s="24" t="n">
         <f aca="false">IF(C69&lt;D69,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M69" s="22" t="n">
         <f aca="false">IF(D69&gt;C69,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N69" s="23" t="n">
         <f aca="false">IF(D69=C69,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O69" s="24" t="n">
         <f aca="false">IF(D69&lt;C69,1,0)</f>
@@ -15635,11 +15799,11 @@
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G70" s="132" t="n">
         <f aca="false">SUM(G64:G69)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H70" s="136" t="n">
         <f aca="false">SUM(H64:H69)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" s="19" t="n">
         <f aca="false">SUM(I64:I69)</f>
@@ -15651,35 +15815,35 @@
       </c>
       <c r="K70" s="136" t="n">
         <f aca="false">SUM(K64:K69)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L70" s="19" t="n">
         <f aca="false">SUM(L64:L69)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M70" s="132" t="n">
         <f aca="false">SUM(M64:M69)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N70" s="136" t="n">
         <f aca="false">SUM(N64:N69)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O70" s="19" t="n">
         <f aca="false">SUM(O64:O69)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P70" s="136" t="n">
         <f aca="false">SUM(P64:P69)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q70" s="136" t="n">
         <f aca="false">SUM(Q64:Q69)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R70" s="19" t="n">
         <f aca="false">SUM(R64:R69)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -15787,11 +15951,11 @@
       </c>
       <c r="C74" s="118" t="n">
         <f aca="false">'Fase de grupos'!H77</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74" s="120" t="n">
         <f aca="false">'Fase de grupos'!I77</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E74" s="1" t="str">
         <f aca="false">'Fase de grupos'!J77</f>
@@ -15803,19 +15967,19 @@
       </c>
       <c r="H74" s="23" t="n">
         <f aca="false">IF(C74=D74,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" s="24" t="n">
         <f aca="false">IF(C74&lt;D74,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" s="22" t="n">
         <f aca="false">IF(D74&gt;C74,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K74" s="23" t="n">
         <f aca="false">IF(D74=C74,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L74" s="24" t="n">
         <f aca="false">IF(D74&lt;C74,1,0)</f>
@@ -15836,27 +16000,27 @@
       </c>
       <c r="V74" s="118" t="n">
         <f aca="false">G80</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W74" s="119" t="n">
         <f aca="false">H80</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X74" s="119" t="n">
         <f aca="false">I80</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y74" s="119" t="n">
         <f aca="false">C74+C76+C78</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z74" s="119" t="n">
         <f aca="false">D74+D76+D78</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA74" s="119" t="n">
         <f aca="false">Y74-Z74</f>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AB74" s="133" t="n">
         <f aca="false">3*V74+W74</f>
@@ -15880,7 +16044,7 @@
       </c>
       <c r="AJ74" s="0" t="n">
         <f aca="false">IF(AND(AH74&lt;&gt;AH75,AH74&lt;&gt;AH76,AH74&lt;&gt;AH77),AH74,IF(AND(AH74=AH75,T74&gt;T75),AH74,IF(AND(AH74=AH75,T75&gt;T74),AH74+1,IF(AND(AH74=AH76,T74&gt;T76),AH74,IF(AND(AH74=AH76,T76&gt;T74),AH74+1,IF(AND(AH74=AH77,T74&gt;T77),AH74,IF(AND(AH74=AH77,T77&gt;T74),AH74+1,)))))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15890,11 +16054,11 @@
       </c>
       <c r="C75" s="22" t="n">
         <f aca="false">'Fase de grupos'!H78</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75" s="24" t="n">
         <f aca="false">'Fase de grupos'!I78</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E75" s="1" t="str">
         <f aca="false">'Fase de grupos'!J78</f>
@@ -15912,19 +16076,19 @@
       </c>
       <c r="N75" s="23" t="n">
         <f aca="false">IF(C75=D75,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O75" s="24" t="n">
         <f aca="false">IF(C75&lt;D75,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P75" s="23" t="n">
         <f aca="false">IF(D75&gt;C75,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q75" s="23" t="n">
         <f aca="false">IF(D75=C75,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R75" s="24" t="n">
         <f aca="false">IF(D75&lt;C75,1,0)</f>
@@ -15939,23 +16103,23 @@
       </c>
       <c r="V75" s="22" t="n">
         <f aca="false">J80</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W75" s="23" t="n">
         <f aca="false">K80</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X75" s="23" t="n">
         <f aca="false">L80</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y75" s="23" t="n">
         <f aca="false">D74+C77+C79</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z75" s="23" t="n">
         <f aca="false">C74+D77+D79</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA75" s="23" t="n">
         <f aca="false">Y75-Z75</f>
@@ -15963,11 +16127,11 @@
       </c>
       <c r="AB75" s="134" t="n">
         <f aca="false">3*V75+W75</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD75" s="0" t="n">
         <f aca="false">IF(OR(AB75&gt;AB74,AND(AB75=AB74,AA75&gt;AA74),AND(AB75=AB74,AA75=AA74,Y75&gt;Y74)),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE75" s="0" t="n">
         <f aca="false">IF(OR(AB75&gt;AB76,AND(AB75=AB76,AA75&gt;AA76),AND(AB75=AB76,AA75=AA76,Y75&gt;Y76)),1,0)</f>
@@ -15979,11 +16143,11 @@
       </c>
       <c r="AH75" s="0" t="n">
         <f aca="false">SUM(AD75:AF75)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ75" s="0" t="n">
         <f aca="false">IF(AND(AH75&lt;&gt;AH74,AH75&lt;&gt;AH76,AH75&lt;&gt;AH77),AH75,IF(AND(AH75=AH74,T75&gt;T74),AH75,IF(AND(AH75=AH74,T74&gt;T75),AH75+1,IF(AND(AH75=AH76,T75&gt;T76),AH75,IF(AND(AH75=AH76,T76&gt;T75),AH75+1,IF(AND(AH75=AH77,T75&gt;T77),AH75,IF(AND(AH75=AH77,T75&gt;T74),AH75+1,)))))))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15997,7 +16161,7 @@
       </c>
       <c r="D76" s="24" t="n">
         <f aca="false">'Fase de grupos'!I79</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E76" s="1" t="str">
         <f aca="false">'Fase de grupos'!J79</f>
@@ -16009,22 +16173,22 @@
       </c>
       <c r="H76" s="23" t="n">
         <f aca="false">IF(C76=D76,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" s="24" t="n">
         <f aca="false">IF(C76&lt;D76,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" s="22"/>
       <c r="K76" s="23"/>
       <c r="L76" s="24"/>
       <c r="M76" s="22" t="n">
         <f aca="false">IF(D76&gt;C76,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N76" s="23" t="n">
         <f aca="false">IF(D76=C76,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O76" s="24" t="n">
         <f aca="false">IF(D76&lt;C76,1,0)</f>
@@ -16042,51 +16206,51 @@
       </c>
       <c r="V76" s="22" t="n">
         <f aca="false">M80</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W76" s="23" t="n">
         <f aca="false">N80</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X76" s="23" t="n">
         <f aca="false">O80</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y76" s="23" t="n">
         <f aca="false">C75+D76+D79</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z76" s="23" t="n">
         <f aca="false">D75+C76+C79</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA76" s="23" t="n">
         <f aca="false">Y76-Z76</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB76" s="134" t="n">
         <f aca="false">3*V76+W76</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AD76" s="0" t="n">
         <f aca="false">IF(OR(AB76&gt;AB74,AND(AB76=AB74,AA76&gt;AA74),AND(AB76=AB74,AA76=AA74,Y76&gt;Y74)),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE76" s="0" t="n">
         <f aca="false">IF(OR(AB76&gt;AB75,AND(AB76=AB75,AA76&gt;AA75),AND(AB76=AB75,AA76=AA75,Y76&gt;Y75)),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF76" s="0" t="n">
         <f aca="false">IF(OR(AB76&gt;AB77,AND(AB76=AB77,AA76&gt;AA77),AND(AB76=AB77,AA76=AA77,Y76&gt;Y77)),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH76" s="0" t="n">
         <f aca="false">SUM(AD76:AF76)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ76" s="0" t="n">
         <f aca="false">IF(AND(AH76&lt;&gt;AH74,AH76&lt;&gt;AH75,AH76&lt;&gt;AH77),AH76,IF(AND(AH76=AH74,T76&gt;T74),AH76,IF(AND(AH76=AH74,T74&gt;T76),AH76+1,IF(AND(AH76=AH75,T76&gt;T75),AH76,IF(AND(AH76=AH75,T75&gt;T76),AH76+1,IF(AND(AH76=AH77,T76&gt;T77),AH76,IF(AND(AH76=AH77,T77&gt;T76),AH76+1,)))))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16096,11 +16260,11 @@
       </c>
       <c r="C77" s="22" t="n">
         <f aca="false">'Fase de grupos'!H80</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D77" s="24" t="n">
         <f aca="false">'Fase de grupos'!I80</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E77" s="1" t="str">
         <f aca="false">'Fase de grupos'!J80</f>
@@ -16145,23 +16309,23 @@
       </c>
       <c r="V77" s="121" t="n">
         <f aca="false">P80</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W77" s="27" t="n">
         <f aca="false">Q80</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X77" s="27" t="n">
         <f aca="false">R80</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y77" s="27" t="n">
         <f aca="false">D75+D77+D78</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z77" s="27" t="n">
         <f aca="false">C75+C77+C78</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA77" s="27" t="n">
         <f aca="false">Y77-Z77</f>
@@ -16169,11 +16333,11 @@
       </c>
       <c r="AB77" s="135" t="n">
         <f aca="false">3*V77+W77</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD77" s="0" t="n">
         <f aca="false">IF(OR(AB77&gt;AB74,AND(AB77=AB74,AA77&gt;AA74),AND(AB77=AB74,AA77=AA74,Y77&gt;Y74)),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE77" s="0" t="n">
         <f aca="false">IF(OR(AB77&gt;AB75,AND(AB77=AB75,AA77&gt;AA75),AND(AB77=AB75,AA77=AA75,Y77&gt;Y75)),1,0)</f>
@@ -16185,11 +16349,11 @@
       </c>
       <c r="AH77" s="0" t="n">
         <f aca="false">SUM(AD77:AF77)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ77" s="0" t="n">
         <f aca="false">IF(AND(AH77&lt;&gt;AH74,AH77&lt;&gt;AH75,AH77&lt;&gt;AH76),AH77,IF(AND(AH77=AH74,T77&gt;T74),AH77,IF(AND(AH77=AH74,T74&gt;T77),AH77+1,IF(AND(AH77=AH75,T77&gt;T75),AH77,IF(AND(AH77=AH75,T75&gt;T77),AH77+1,IF(AND(AH77=AH76,T77&gt;T76),AH77,IF(AND(AH77=AH76,T76&gt;T77),AH77+1,)))))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16199,7 +16363,7 @@
       </c>
       <c r="C78" s="22" t="n">
         <f aca="false">'Fase de grupos'!H81</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78" s="24" t="n">
         <f aca="false">'Fase de grupos'!I81</f>
@@ -16211,11 +16375,11 @@
       </c>
       <c r="G78" s="22" t="n">
         <f aca="false">IF(C78&gt;D78,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78" s="23" t="n">
         <f aca="false">IF(C78=D78,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" s="24" t="n">
         <f aca="false">IF(C78&lt;D78,1,0)</f>
@@ -16233,11 +16397,11 @@
       </c>
       <c r="Q78" s="23" t="n">
         <f aca="false">IF(D78=C78,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R78" s="24" t="n">
         <f aca="false">IF(D78&lt;C78,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16251,7 +16415,7 @@
       </c>
       <c r="D79" s="122" t="n">
         <f aca="false">'Fase de grupos'!I82</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79" s="1" t="str">
         <f aca="false">'Fase de grupos'!J82</f>
@@ -16266,19 +16430,19 @@
       </c>
       <c r="K79" s="23" t="n">
         <f aca="false">IF(C79=D79,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L79" s="24" t="n">
         <f aca="false">IF(C79&lt;D79,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M79" s="22" t="n">
         <f aca="false">IF(D79&gt;C79,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N79" s="23" t="n">
         <f aca="false">IF(D79=C79,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O79" s="24" t="n">
         <f aca="false">IF(D79&lt;C79,1,0)</f>
@@ -16291,51 +16455,51 @@
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G80" s="132" t="n">
         <f aca="false">SUM(G74:G79)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80" s="136" t="n">
         <f aca="false">SUM(H74:H79)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I80" s="19" t="n">
         <f aca="false">SUM(I74:I79)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J80" s="132" t="n">
         <f aca="false">SUM(J74:J79)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K80" s="136" t="n">
         <f aca="false">SUM(K74:K79)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L80" s="19" t="n">
         <f aca="false">SUM(L74:L79)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M80" s="132" t="n">
         <f aca="false">SUM(M74:M79)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N80" s="136" t="n">
         <f aca="false">SUM(N74:N79)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O80" s="19" t="n">
         <f aca="false">SUM(O74:O79)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P80" s="136" t="n">
         <f aca="false">SUM(P74:P79)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q80" s="136" t="n">
         <f aca="false">SUM(Q74:Q79)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R80" s="19" t="n">
         <f aca="false">SUM(R74:R79)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
